--- a/Model data/Model_data_RER_1996.xlsx
+++ b/Model data/Model_data_RER_1996.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/lp82ps_id_aau_dk/Documents/Skrivebord/PhD Aalborg/SFCIO-workingpaper-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F5C4D67FC3574AFC12484884BAE348FE0D83E19F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFD18645-97FC-45EA-9CBD-AC35127ACEBB}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_B1047771C3574AFC1248487A72E473780D8350FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8014C0E1-C847-47F3-9576-75584CEF685A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1039,295 +1039,295 @@
     </row>
     <row r="2" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-1.5354806231639359E-3</v>
+        <v>-5.3534041337139487E-3</v>
       </c>
       <c r="B2">
-        <v>-3.0985192966817399E-2</v>
+        <v>-5.282365174666348E-2</v>
       </c>
       <c r="C2">
-        <v>7.6483924959426963E-2</v>
+        <v>5.179311507464196E-2</v>
       </c>
       <c r="D2">
-        <v>-8.8966903016878818E-2</v>
+        <v>-0.1109253296678554</v>
       </c>
       <c r="E2">
-        <v>-3.405811578011668E-3</v>
+        <v>-5.6551283131277899E-3</v>
       </c>
       <c r="F2">
-        <v>1.8921829827861869E-3</v>
+        <v>1.7802581297022069E-3</v>
       </c>
       <c r="G2">
-        <v>0.29949704207253391</v>
+        <v>0.26642510767271832</v>
       </c>
       <c r="H2">
-        <v>3.3374907786986985E-2</v>
+        <v>5.1320641947822931E-3</v>
       </c>
       <c r="I2">
-        <v>2.5147196886731948E-2</v>
+        <v>-2.0888569220512743E-2</v>
       </c>
       <c r="J2">
-        <v>2.8683373241857599E-4</v>
+        <v>2.6729670855418297E-4</v>
       </c>
       <c r="K2">
-        <v>-1.1614571471068764E-3</v>
+        <v>-1.7977509200560703E-3</v>
       </c>
       <c r="L2">
-        <v>-2.6161622775028148E-2</v>
+        <v>-2.6797916547977342E-2</v>
       </c>
       <c r="M2">
-        <v>-1.4016033651792403</v>
+        <v>-1.4356926684719806</v>
       </c>
       <c r="N2">
-        <v>0.44448724126915817</v>
+        <v>0.44397157663388925</v>
       </c>
       <c r="O2">
-        <v>-5.8400658581171973E-3</v>
+        <v>-6.3990080404363152E-3</v>
       </c>
       <c r="P2">
-        <v>-0.10531564245911962</v>
+        <v>-0.11994015393145929</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.1398845281014392</v>
+        <v>-0.15278719855176498</v>
       </c>
       <c r="S2">
-        <v>0.13326368782584797</v>
+        <v>0.12830849851758744</v>
       </c>
       <c r="T2">
-        <v>0.13456589154679527</v>
+        <v>0.12260350021882285</v>
       </c>
       <c r="U2">
-        <v>0.15289206457925089</v>
+        <v>0.14749525988253559</v>
       </c>
       <c r="V2">
-        <v>0.20394419871205843</v>
+        <v>0.19217791655953773</v>
       </c>
       <c r="W2">
-        <v>0.19778575729117012</v>
+        <v>0.18543560529353126</v>
       </c>
       <c r="X2">
-        <v>0.81351226712931668</v>
+        <v>0.80235564987056118</v>
       </c>
       <c r="Y2">
-        <v>0.38462573759874058</v>
+        <v>0.35507115385695953</v>
       </c>
       <c r="Z2">
-        <v>0.20384888855979735</v>
+        <v>0.19221674404743991</v>
       </c>
       <c r="AA2">
-        <v>0.21420889890327777</v>
+        <v>0.20093945574581659</v>
       </c>
       <c r="AB2">
-        <v>-8.2500223635956771E-2</v>
+        <v>-9.3257344889948135E-2</v>
       </c>
       <c r="AC2">
-        <v>0.77624587928521993</v>
+        <v>0.77288620820836051</v>
       </c>
       <c r="AD2">
-        <v>3.4706938265582771E-2</v>
+        <v>3.145897891219368E-2</v>
       </c>
       <c r="AE2">
-        <v>0.16006200819349145</v>
+        <v>0.15437396783281598</v>
       </c>
       <c r="AF2">
-        <v>0.13796004027215614</v>
+        <v>0.12958725397780585</v>
       </c>
       <c r="AG2">
-        <v>5.2389533244983633E-2</v>
+        <v>4.2521939238280682E-2</v>
       </c>
       <c r="AH2">
-        <v>7.8297909775284447E-2</v>
+        <v>7.0429564649187038E-2</v>
       </c>
       <c r="AI2">
-        <v>3.8910145361308351E-2</v>
+        <v>3.543635975308318E-2</v>
       </c>
       <c r="AJ2">
-        <v>6.1796927094416837E-2</v>
+        <v>5.6724014334608525E-2</v>
       </c>
       <c r="AK2">
-        <v>0.27734955129075683</v>
+        <v>0.2583967427915006</v>
       </c>
       <c r="AL2">
-        <v>0.10546514713944508</v>
+        <v>9.8358430355294707E-2</v>
       </c>
       <c r="AM2">
-        <v>0.16824118401275576</v>
+        <v>0.15933168815348001</v>
       </c>
       <c r="AN2">
-        <v>-4.313902362548705E-2</v>
+        <v>-6.062027453583152E-2</v>
       </c>
       <c r="AO2">
-        <v>0.16964882069259468</v>
+        <v>0.16134044628105518</v>
       </c>
       <c r="AP2">
-        <v>-2.3319755067658376E-3</v>
+        <v>-1.8773314365134186E-2</v>
       </c>
       <c r="AQ2">
-        <v>0.23052037611762774</v>
+        <v>0.21694619408103658</v>
       </c>
       <c r="AR2">
-        <v>0.1173228656643287</v>
+        <v>0.11035055405028317</v>
       </c>
       <c r="AS2">
-        <v>0.13234806148613243</v>
+        <v>0.12440692808662651</v>
       </c>
       <c r="AT2">
-        <v>-9.2192708701493722E-2</v>
+        <v>-9.8524512206930162E-2</v>
       </c>
       <c r="AU2">
-        <v>-0.15193280958359962</v>
+        <v>-0.16467213173994028</v>
       </c>
       <c r="AV2">
-        <v>-0.23787791795695679</v>
+        <v>-0.25466672006387747</v>
       </c>
       <c r="AW2">
-        <v>-0.17919591064015689</v>
+        <v>-0.19218725948241561</v>
       </c>
       <c r="AX2">
-        <v>-7.9742220872622116E-2</v>
+        <v>-8.4770854248029381E-2</v>
       </c>
       <c r="AY2">
-        <v>-0.10771535821107389</v>
+        <v>-0.11418687304580802</v>
       </c>
       <c r="AZ2">
-        <v>-0.22855355573010946</v>
+        <v>-0.24092100514970308</v>
       </c>
       <c r="BA2">
-        <v>-2.8052546493941975E-2</v>
+        <v>-2.9752669514324336E-2</v>
       </c>
       <c r="BB2">
-        <v>-0.10770053088099579</v>
+        <v>-0.11539031098211877</v>
       </c>
       <c r="BC2">
-        <v>0.11545144269939822</v>
+        <v>9.1127802535028612E-2</v>
       </c>
       <c r="BD2">
-        <v>2.2156293806614547E-2</v>
+        <v>9.6360923596211789E-3</v>
       </c>
       <c r="BE2">
-        <v>-2.6824846503444591E-2</v>
+        <v>-3.4283627360478644E-2</v>
       </c>
       <c r="BF2">
-        <v>0.19394790430114228</v>
+        <v>0.17523074159653285</v>
       </c>
       <c r="BG2">
-        <v>0.1098847137131635</v>
+        <v>9.2239918729243753E-2</v>
       </c>
       <c r="BH2">
-        <v>0.18582366958746471</v>
+        <v>0.17302094581056451</v>
       </c>
       <c r="BI2">
-        <v>0.1588464060648706</v>
+        <v>0.13073881890086175</v>
       </c>
       <c r="BJ2">
-        <v>-2.840982675302145E-2</v>
+        <v>-4.385167286450356E-2</v>
       </c>
       <c r="BK2">
-        <v>0.10667355918425236</v>
+        <v>8.5331500964573204E-2</v>
       </c>
       <c r="BL2">
-        <v>-2.4613745763366265E-3</v>
+        <v>-2.8161225341840016E-3</v>
       </c>
       <c r="BM2">
-        <v>-1.2623566628661362E-2</v>
+        <v>-1.4371868962684622E-2</v>
       </c>
       <c r="BN2">
-        <v>-1.3942822515191071E-2</v>
+        <v>-1.5097230706163797E-2</v>
       </c>
       <c r="BO2">
-        <v>-9.12867480945425E-3</v>
+        <v>-1.0499427054546859E-2</v>
       </c>
       <c r="BP2">
-        <v>-6.0037996125899551E-3</v>
+        <v>-7.6759379272150069E-3</v>
       </c>
       <c r="BQ2">
-        <v>-4.0815648084123676E-3</v>
+        <v>-4.9615618928977104E-3</v>
       </c>
       <c r="BR2">
-        <v>-1.0483132595425874E-2</v>
+        <v>-1.1966691899275288E-2</v>
       </c>
       <c r="BS2">
-        <v>1.035384301637788E-2</v>
+        <v>9.0919002973755339E-3</v>
       </c>
       <c r="BT2">
-        <v>-7.3066457138601867E-3</v>
+        <v>-8.2338256326605144E-3</v>
       </c>
       <c r="BU2">
-        <v>1.3120165451935395E-2</v>
+        <v>1.2765462749341074E-2</v>
       </c>
       <c r="BV2">
-        <v>4.2299455481856485E-2</v>
+        <v>4.1230919293462329E-2</v>
       </c>
       <c r="BW2">
-        <v>3.8546046911108633E-2</v>
+        <v>3.7289758844806314E-2</v>
       </c>
       <c r="BX2">
-        <v>3.8887265818157053E-2</v>
+        <v>3.7302676757315661E-2</v>
       </c>
       <c r="BY2">
-        <v>7.0503232879928546E-2</v>
+        <v>6.841786504725364E-2</v>
       </c>
       <c r="BZ2">
-        <v>3.6715385910265977E-2</v>
+        <v>3.5809227927107071E-2</v>
       </c>
       <c r="CA2">
-        <v>8.5220966922974761E-2</v>
+        <v>8.2187361434648776E-2</v>
       </c>
       <c r="CB2">
-        <v>3.7689756880535566E-2</v>
+        <v>3.67603064636799E-2</v>
       </c>
       <c r="CC2">
-        <v>6.9347275022082155E-2</v>
+        <v>6.717971421108207E-2</v>
       </c>
       <c r="CD2">
-        <v>-1.9591126113374935E-3</v>
+        <v>-1.6597856746801559E-3</v>
       </c>
       <c r="CE2">
-        <v>-6.7831595963994545E-3</v>
+        <v>-6.8218830522162183E-3</v>
       </c>
       <c r="CF2">
-        <v>-1.724690816175295E-3</v>
+        <v>-1.1965815332825314E-3</v>
       </c>
       <c r="CG2">
-        <v>2.23364382093858E-2</v>
+        <v>2.2529846382727009E-2</v>
       </c>
       <c r="CH2">
-        <v>-4.3275096001838403E-3</v>
+        <v>-4.3685980201578004E-3</v>
       </c>
       <c r="CI2">
-        <v>-3.6262182820126693E-2</v>
+        <v>-3.6889044933326731E-2</v>
       </c>
       <c r="CJ2">
-        <v>-2.3062937897019298E-2</v>
+        <v>-2.2795406128648998E-2</v>
       </c>
       <c r="CK2">
-        <v>-3.4183588064781983E-4</v>
+        <v>5.9334873202565412E-4</v>
       </c>
       <c r="CL2">
-        <v>4.3591234024946048E-3</v>
+        <v>4.5386226834816246E-3</v>
       </c>
       <c r="CM2">
-        <v>-2.6499600292624437E-2</v>
+        <v>-2.1973335003773145E-2</v>
       </c>
       <c r="CN2">
-        <v>-3.135724694145932E-3</v>
+        <v>-2.6927122083530925E-3</v>
       </c>
       <c r="CO2">
-        <v>-1.9561130620241118E-2</v>
+        <v>-1.6318776048885181E-2</v>
       </c>
       <c r="CP2">
-        <v>4.9656264215396789E-3</v>
+        <v>5.1450907259200391E-3</v>
       </c>
       <c r="CQ2">
-        <v>-7.6346201942229051E-3</v>
+        <v>-5.8513596952856749E-3</v>
       </c>
       <c r="CR2">
-        <v>-1.4037797992706366E-4</v>
+        <v>2.244104495379021E-4</v>
       </c>
       <c r="CS2">
-        <v>-4.2445433954612935E-2</v>
+        <v>-3.7875175324432318E-2</v>
       </c>
       <c r="CT2">
         <v>7.7176205005542271E-3</v>
@@ -1342,7 +1342,7 @@
         <v>6.7902875779199774E-3</v>
       </c>
       <c r="CX2">
-        <v>8.0329682432538525E-3</v>
+        <v>8.032968243253856E-3</v>
       </c>
       <c r="CY2">
         <v>8.0329682432538543E-3</v>
@@ -1359,295 +1359,295 @@
     </row>
     <row r="3" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-1.1559092943259949E-2</v>
+        <v>-1.7138038773864592E-2</v>
       </c>
       <c r="B3">
-        <v>-0.11477103185855547</v>
+        <v>-0.14668250892717327</v>
       </c>
       <c r="C3">
-        <v>1.4181550073829319E-2</v>
+        <v>-2.1897928857672055E-2</v>
       </c>
       <c r="D3">
-        <v>-0.22986258601085277</v>
+        <v>-0.26194936629143917</v>
       </c>
       <c r="E3">
-        <v>-2.7644021332936877E-3</v>
+        <v>-6.0512192176091079E-3</v>
       </c>
       <c r="F3">
-        <v>3.5547625737600884E-3</v>
+        <v>3.3912122326575384E-3</v>
       </c>
       <c r="G3">
-        <v>0.30832575873412704</v>
+        <v>0.25999935040770639</v>
       </c>
       <c r="H3">
-        <v>2.4134936634469528E-2</v>
+        <v>-1.7134956297578774E-2</v>
       </c>
       <c r="I3">
-        <v>-7.777180484853452E-2</v>
+        <v>-0.14504162957734446</v>
       </c>
       <c r="J3">
-        <v>2.8432060026732826E-4</v>
+        <v>2.5589311415819406E-4</v>
       </c>
       <c r="K3">
-        <v>2.27260887194803E-3</v>
+        <v>1.3467650731487021E-3</v>
       </c>
       <c r="L3">
-        <v>-2.7972682410550887E-2</v>
+        <v>-2.8898526209350215E-2</v>
       </c>
       <c r="M3">
-        <v>-1.4986304992189496</v>
+        <v>-1.548232383444041</v>
       </c>
       <c r="N3">
-        <v>0.45499944769078954</v>
+        <v>0.45424912618031654</v>
       </c>
       <c r="O3">
-        <v>-4.7425554073014971E-3</v>
+        <v>-5.555848221702242E-3</v>
       </c>
       <c r="P3">
-        <v>-8.7798558706000951E-2</v>
+        <v>-0.1090780585734562</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>-9.8144420505148711E-2</v>
+        <v>-0.11691854329597329</v>
       </c>
       <c r="S3">
-        <v>7.7882048511953905E-2</v>
+        <v>6.7239094334046318E-2</v>
       </c>
       <c r="T3">
-        <v>0.14029507082468901</v>
+        <v>0.11460176733180943</v>
       </c>
       <c r="U3">
-        <v>7.869698874308384E-3</v>
+        <v>-3.7217745328743113E-3</v>
       </c>
       <c r="V3">
-        <v>0.19453392686815651</v>
+        <v>0.16926183452148275</v>
       </c>
       <c r="W3">
-        <v>7.7502945418098268E-2</v>
+        <v>5.0976794019211347E-2</v>
       </c>
       <c r="X3">
-        <v>0.71365752050565523</v>
+        <v>0.68969489085042834</v>
       </c>
       <c r="Y3">
-        <v>0.11546724286391985</v>
+        <v>5.1988723488980315E-2</v>
       </c>
       <c r="Z3">
-        <v>0.19373358025010035</v>
+        <v>0.16874959410260049</v>
       </c>
       <c r="AA3">
-        <v>0.13567203179282633</v>
+        <v>0.10717138999983189</v>
       </c>
       <c r="AB3">
-        <v>-0.12548231510549041</v>
+        <v>-0.14007924936104238</v>
       </c>
       <c r="AC3">
-        <v>0.73586721732093441</v>
+        <v>0.73130829336058578</v>
       </c>
       <c r="AD3">
-        <v>6.7118481326015084E-2</v>
+        <v>6.2711145197073104E-2</v>
       </c>
       <c r="AE3">
-        <v>3.6818163432247392E-2</v>
+        <v>2.9099746094811585E-2</v>
       </c>
       <c r="AF3">
-        <v>6.4817570451593531E-2</v>
+        <v>5.3456072501659346E-2</v>
       </c>
       <c r="AG3">
-        <v>2.2852248542577114E-2</v>
+        <v>9.4623631284959098E-3</v>
       </c>
       <c r="AH3">
-        <v>6.532506062813237E-2</v>
+        <v>5.4648066868020206E-2</v>
       </c>
       <c r="AI3">
-        <v>2.6529294536651093E-2</v>
+        <v>2.181552224163949E-2</v>
       </c>
       <c r="AJ3">
-        <v>-1.1061941361445893E-2</v>
+        <v>-1.794565795166253E-2</v>
       </c>
       <c r="AK3">
-        <v>0.27564106047939457</v>
+        <v>0.24906463627616265</v>
       </c>
       <c r="AL3">
-        <v>0.10885959110478956</v>
+        <v>9.889425430759563E-2</v>
       </c>
       <c r="AM3">
-        <v>0.20304536062338721</v>
+        <v>0.19055209128009479</v>
       </c>
       <c r="AN3">
-        <v>-0.10744251246951084</v>
+        <v>-0.13195545680779611</v>
       </c>
       <c r="AO3">
-        <v>0.20591574977157778</v>
+        <v>0.19426539817281518</v>
       </c>
       <c r="AP3">
-        <v>0.12145198260326789</v>
+        <v>9.8397246626474477E-2</v>
       </c>
       <c r="AQ3">
-        <v>0.23386694394319923</v>
+        <v>0.21483265569876861</v>
       </c>
       <c r="AR3">
-        <v>0.12101785861934496</v>
+        <v>0.11124099039745233</v>
       </c>
       <c r="AS3">
-        <v>0.14748596942950626</v>
+        <v>0.13635057860402494</v>
       </c>
       <c r="AT3">
-        <v>-1.8694017314477812E-2</v>
+        <v>-2.6262967400120935E-2</v>
       </c>
       <c r="AU3">
-        <v>7.7249438040317697E-3</v>
+        <v>-7.5034652019461134E-3</v>
       </c>
       <c r="AV3">
-        <v>-3.4444617352824558E-2</v>
+        <v>-5.4513718523749977E-2</v>
       </c>
       <c r="AW3">
-        <v>-7.1358609552792995E-2</v>
+        <v>-8.6888287763402072E-2</v>
       </c>
       <c r="AX3">
-        <v>-6.2792147457785649E-2</v>
+        <v>-6.880330604550515E-2</v>
       </c>
       <c r="AY3">
-        <v>-0.14590421193021447</v>
+        <v>-0.15364017100104577</v>
       </c>
       <c r="AZ3">
-        <v>-0.20866841485841706</v>
+        <v>-0.22345229235291755</v>
       </c>
       <c r="BA3">
-        <v>-4.4434124519281068E-3</v>
+        <v>-6.4757159290777799E-3</v>
       </c>
       <c r="BB3">
-        <v>-3.0548894648546598E-2</v>
+        <v>-3.9741151120971707E-2</v>
       </c>
       <c r="BC3">
-        <v>7.5572492865281338E-2</v>
+        <v>4.0364556795652207E-2</v>
       </c>
       <c r="BD3">
-        <v>0.2106385454188488</v>
+        <v>0.19251582821263316</v>
       </c>
       <c r="BE3">
-        <v>-5.9668500154411303E-3</v>
+        <v>-1.6763271841994457E-2</v>
       </c>
       <c r="BF3">
-        <v>0.17094373297438165</v>
+        <v>0.14385105015817823</v>
       </c>
       <c r="BG3">
-        <v>0.13150752450956105</v>
+        <v>0.1059670704674241</v>
       </c>
       <c r="BH3">
-        <v>0.33244608202284631</v>
+        <v>0.31391441993575009</v>
       </c>
       <c r="BI3">
-        <v>0.15218901754720726</v>
+        <v>0.1115039011232446</v>
       </c>
       <c r="BJ3">
-        <v>-3.9044245934439697E-2</v>
+        <v>-6.1395979762771585E-2</v>
       </c>
       <c r="BK3">
-        <v>9.1593022739590191E-2</v>
+        <v>6.0700861191605116E-2</v>
       </c>
       <c r="BL3">
-        <v>-3.3774279698289104E-3</v>
+        <v>-3.8493784822624458E-3</v>
       </c>
       <c r="BM3">
-        <v>-3.0333385454487251E-2</v>
+        <v>-3.2659296468712302E-2</v>
       </c>
       <c r="BN3">
-        <v>-1.4838442171067119E-2</v>
+        <v>-1.6374246747908335E-2</v>
       </c>
       <c r="BO3">
-        <v>-3.5427660981876552E-4</v>
+        <v>-2.1779015530502405E-3</v>
       </c>
       <c r="BP3">
-        <v>-9.7198648830887843E-3</v>
+        <v>-1.1944448610746491E-2</v>
       </c>
       <c r="BQ3">
-        <v>-3.9311490012483505E-3</v>
+        <v>-5.1018818152807205E-3</v>
       </c>
       <c r="BR3">
-        <v>-1.2600878284520015E-2</v>
+        <v>-1.4574579776491757E-2</v>
       </c>
       <c r="BS3">
-        <v>5.6154915861412052E-3</v>
+        <v>3.9366249437257847E-3</v>
       </c>
       <c r="BT3">
-        <v>-1.0560156192249204E-2</v>
+        <v>-1.1793660228329325E-2</v>
       </c>
       <c r="BU3">
-        <v>1.8011727212719701E-2</v>
+        <v>1.7498164819238791E-2</v>
       </c>
       <c r="BV3">
-        <v>3.6866699774946152E-2</v>
+        <v>3.5319601196631682E-2</v>
       </c>
       <c r="BW3">
-        <v>4.0130636940873349E-2</v>
+        <v>3.8311698655918568E-2</v>
       </c>
       <c r="BX3">
-        <v>2.9572237733794852E-2</v>
+        <v>2.727796318606189E-2</v>
       </c>
       <c r="BY3">
-        <v>6.5560902862837542E-2</v>
+        <v>6.2541567127827852E-2</v>
       </c>
       <c r="BZ3">
-        <v>3.80228936621737E-2</v>
+        <v>3.6710897201709281E-2</v>
       </c>
       <c r="CA3">
-        <v>9.1005370885575712E-2</v>
+        <v>8.6613113073405149E-2</v>
       </c>
       <c r="CB3">
-        <v>2.8678904760822837E-2</v>
+        <v>2.7333183888636269E-2</v>
       </c>
       <c r="CC3">
-        <v>6.8252931326563432E-2</v>
+        <v>6.5114591108400399E-2</v>
       </c>
       <c r="CD3">
-        <v>6.3177827464143826E-3</v>
+        <v>5.776478015022804E-3</v>
       </c>
       <c r="CE3">
-        <v>-4.7388422832535387E-3</v>
+        <v>-7.8386480110705231E-3</v>
       </c>
       <c r="CF3">
-        <v>1.1828574624902347E-2</v>
+        <v>8.5885726234877224E-3</v>
       </c>
       <c r="CG3">
-        <v>2.3487633736502311E-2</v>
+        <v>2.2054442544020919E-2</v>
       </c>
       <c r="CH3">
-        <v>1.1351911803602968E-3</v>
+        <v>-7.2470540909103098E-4</v>
       </c>
       <c r="CI3">
-        <v>-1.6537841427426259E-2</v>
+        <v>-2.1494946859395792E-2</v>
       </c>
       <c r="CJ3">
-        <v>-1.5463098165032774E-2</v>
+        <v>-1.8914184183360189E-2</v>
       </c>
       <c r="CK3">
-        <v>1.0499601788485635E-3</v>
+        <v>2.1361343891797427E-3</v>
       </c>
       <c r="CL3">
-        <v>4.538620597284727E-3</v>
+        <v>4.748317386672897E-3</v>
       </c>
       <c r="CM3">
-        <v>-4.1976632339912716E-3</v>
+        <v>-2.0749285060928761E-3</v>
       </c>
       <c r="CN3">
-        <v>-3.2095190909431828E-3</v>
+        <v>-2.6108595801274878E-3</v>
       </c>
       <c r="CO3">
-        <v>-1.8545623055149431E-2</v>
+        <v>-1.445101239878366E-2</v>
       </c>
       <c r="CP3">
-        <v>3.704456152804716E-3</v>
+        <v>4.0205599538348574E-3</v>
       </c>
       <c r="CQ3">
-        <v>-6.2869326594047377E-3</v>
+        <v>-4.1693295442304327E-3</v>
       </c>
       <c r="CR3">
-        <v>-8.1431013886335696E-4</v>
+        <v>-3.0146878880298045E-4</v>
       </c>
       <c r="CS3">
-        <v>-3.7312608533810999E-2</v>
+        <v>-3.1876771664898412E-2</v>
       </c>
       <c r="CT3">
         <v>8.1072379335730329E-3</v>
@@ -1662,7 +1662,7 @@
         <v>6.7692711612520624E-3</v>
       </c>
       <c r="CX3">
-        <v>7.7340151987432652E-3</v>
+        <v>7.734015198743267E-3</v>
       </c>
       <c r="CY3">
         <v>7.734015198743267E-3</v>
@@ -1679,295 +1679,295 @@
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.4054416294381901E-2</v>
+        <v>1.0753799513238078E-2</v>
       </c>
       <c r="B4">
-        <v>-3.97314166803025E-2</v>
+        <v>-5.8610889598997351E-2</v>
       </c>
       <c r="C4">
-        <v>8.323258314648907E-2</v>
+        <v>6.1887236331509887E-2</v>
       </c>
       <c r="D4">
-        <v>-0.20600876243590749</v>
+        <v>-0.22499194826753977</v>
       </c>
       <c r="E4">
-        <v>8.3587958681524341E-3</v>
+        <v>6.4142486446376393E-3</v>
       </c>
       <c r="F4">
-        <v>7.7830851917903834E-3</v>
+        <v>7.6863255141029641E-3</v>
       </c>
       <c r="G4">
-        <v>0.32766681668193687</v>
+        <v>0.29907593963495449</v>
       </c>
       <c r="H4">
-        <v>3.9577757727577378E-2</v>
+        <v>1.5161657391868588E-2</v>
       </c>
       <c r="I4">
-        <v>3.7963282064167325E-3</v>
+        <v>-3.6001855734804744E-2</v>
       </c>
       <c r="J4">
-        <v>1.5105264116293256E-3</v>
+        <v>1.4919438596774724E-3</v>
       </c>
       <c r="K4">
-        <v>-4.9685073369490837E-3</v>
+        <v>-5.5737152833865537E-3</v>
       </c>
       <c r="L4">
-        <v>-2.6017681824741193E-2</v>
+        <v>-2.6622889771178663E-2</v>
       </c>
       <c r="M4">
-        <v>-1.3938917594411642</v>
+        <v>-1.4263156462028701</v>
       </c>
       <c r="N4">
-        <v>0.6333519470683977</v>
+        <v>0.63286147498108647</v>
       </c>
       <c r="O4">
-        <v>1.217018160659785E-2</v>
+        <v>1.1638546276000892E-2</v>
       </c>
       <c r="P4">
-        <v>-6.6743439287511253E-2</v>
+        <v>-8.0653477279557517E-2</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>-3.4809323868973008E-2</v>
+        <v>-4.7081640554719473E-2</v>
       </c>
       <c r="S4">
-        <v>0.10864387907836638</v>
+        <v>0.10224849868102953</v>
       </c>
       <c r="T4">
-        <v>0.18428494834818948</v>
+        <v>0.1688457717103462</v>
       </c>
       <c r="U4">
-        <v>0.15182169099987214</v>
+        <v>0.14485634279247045</v>
       </c>
       <c r="V4">
-        <v>0.21471300073632438</v>
+        <v>0.19952693103313057</v>
       </c>
       <c r="W4">
-        <v>0.13887143716324779</v>
+        <v>0.12293179993119291</v>
       </c>
       <c r="X4">
-        <v>0.74768278092001828</v>
+        <v>0.73328357094467211</v>
       </c>
       <c r="Y4">
-        <v>0.20393272815387742</v>
+        <v>0.16578831151200601</v>
       </c>
       <c r="Z4">
-        <v>0.23116817217972674</v>
+        <v>0.21615522628292622</v>
       </c>
       <c r="AA4">
-        <v>0.17170429459587322</v>
+        <v>0.15457818066288348</v>
       </c>
       <c r="AB4">
-        <v>7.5305233074848821E-3</v>
+        <v>-2.064264870625776E-3</v>
       </c>
       <c r="AC4">
-        <v>0.75245144491127469</v>
+        <v>0.74945479445345531</v>
       </c>
       <c r="AD4">
-        <v>3.9622468791991661E-2</v>
+        <v>3.6725459334622373E-2</v>
       </c>
       <c r="AE4">
-        <v>6.1885671821848592E-2</v>
+        <v>5.6812238035929774E-2</v>
       </c>
       <c r="AF4">
-        <v>0.14259510117541169</v>
+        <v>0.13512701477403638</v>
       </c>
       <c r="AG4">
-        <v>4.5685185438757325E-2</v>
+        <v>3.6883808928589334E-2</v>
       </c>
       <c r="AH4">
-        <v>0.14177849670600845</v>
+        <v>0.1347603453795872</v>
       </c>
       <c r="AI4">
-        <v>0.41734489134253694</v>
+        <v>0.41424645670560062</v>
       </c>
       <c r="AJ4">
-        <v>8.9000076675957301E-2</v>
+        <v>8.4475304459753459E-2</v>
       </c>
       <c r="AK4">
-        <v>0.23528814900989448</v>
+        <v>0.21621880228518864</v>
       </c>
       <c r="AL4">
-        <v>0.12451282041283894</v>
+        <v>0.11736240539985721</v>
       </c>
       <c r="AM4">
-        <v>0.12789358365985259</v>
+        <v>0.11892930452995334</v>
       </c>
       <c r="AN4">
-        <v>-0.10847096725381938</v>
+        <v>-0.12605970798340688</v>
       </c>
       <c r="AO4">
-        <v>0.18485232118049216</v>
+        <v>0.17649285971183762</v>
       </c>
       <c r="AP4">
-        <v>0.20018915872806969</v>
+        <v>0.18364672432733642</v>
       </c>
       <c r="AQ4">
-        <v>0.16973101865305121</v>
+        <v>0.15607337082897332</v>
       </c>
       <c r="AR4">
-        <v>0.2065751328863058</v>
+        <v>0.1995599494824242</v>
       </c>
       <c r="AS4">
-        <v>0.15740735790139668</v>
+        <v>0.14941739555949551</v>
       </c>
       <c r="AT4">
-        <v>-3.273547161170981E-3</v>
+        <v>-8.306188166803008E-3</v>
       </c>
       <c r="AU4">
-        <v>6.5877915650619567E-2</v>
+        <v>5.5752453763984799E-2</v>
       </c>
       <c r="AV4">
-        <v>4.0475190995011345E-2</v>
+        <v>2.7131123408866697E-2</v>
       </c>
       <c r="AW4">
-        <v>-0.10163934733365693</v>
+        <v>-0.11196512494913197</v>
       </c>
       <c r="AX4">
-        <v>-7.0278166433265038E-2</v>
+        <v>-7.4275022385228123E-2</v>
       </c>
       <c r="AY4">
-        <v>-0.11835133754730033</v>
+        <v>-0.12349502384424181</v>
       </c>
       <c r="AZ4">
-        <v>-0.14461454415720998</v>
+        <v>-0.15444443433473798</v>
       </c>
       <c r="BA4">
-        <v>-8.9343898013259579E-3</v>
+        <v>-1.0285680759683891E-2</v>
       </c>
       <c r="BB4">
-        <v>-1.7622597696193704E-2</v>
+        <v>-2.3734585004071718E-2</v>
       </c>
       <c r="BC4">
-        <v>8.676500691995781E-2</v>
+        <v>6.1041703847135753E-2</v>
       </c>
       <c r="BD4">
-        <v>0.26770659181495082</v>
+        <v>0.25446593646166349</v>
       </c>
       <c r="BE4">
-        <v>4.7867005515396494E-2</v>
+        <v>3.9979021675695503E-2</v>
       </c>
       <c r="BF4">
-        <v>0.20603703113630006</v>
+        <v>0.18624282082647725</v>
       </c>
       <c r="BG4">
-        <v>0.11826543998747263</v>
+        <v>9.9605304992791854E-2</v>
       </c>
       <c r="BH4">
-        <v>0.30484981164382008</v>
+        <v>0.2913103766889632</v>
       </c>
       <c r="BI4">
-        <v>0.12893759316486919</v>
+        <v>9.921260223507089E-2</v>
       </c>
       <c r="BJ4">
-        <v>4.9795948943270718E-2</v>
+        <v>3.3465527803782258E-2</v>
       </c>
       <c r="BK4">
-        <v>8.0743525325740251E-2</v>
+        <v>5.8173374309166637E-2</v>
       </c>
       <c r="BL4">
-        <v>-4.3536160696801204E-3</v>
+        <v>-4.6784243691402865E-3</v>
       </c>
       <c r="BM4">
-        <v>-3.0503439271582E-2</v>
+        <v>-3.2104190158217562E-2</v>
       </c>
       <c r="BN4">
-        <v>-1.6496247225776486E-2</v>
+        <v>-1.7553226844963084E-2</v>
       </c>
       <c r="BO4">
-        <v>-5.3131735382245388E-4</v>
+        <v>-1.7863822410495028E-3</v>
       </c>
       <c r="BP4">
-        <v>-1.7476257039097505E-2</v>
+        <v>-1.9007271920004107E-2</v>
       </c>
       <c r="BQ4">
-        <v>-2.1124418608104364E-3</v>
+        <v>-2.9181698437874826E-3</v>
       </c>
       <c r="BR4">
-        <v>-1.8829215958733318E-2</v>
+        <v>-2.0187567328972797E-2</v>
       </c>
       <c r="BS4">
-        <v>-3.4310050068499659E-3</v>
+        <v>-4.5864435640231294E-3</v>
       </c>
       <c r="BT4">
-        <v>-1.3500384589899602E-2</v>
+        <v>-1.4349313318190466E-2</v>
       </c>
       <c r="BU4">
-        <v>1.9096711395605565E-2</v>
+        <v>1.8705487621072027E-2</v>
       </c>
       <c r="BV4">
-        <v>4.1824738958893298E-2</v>
+        <v>4.0646183532452598E-2</v>
       </c>
       <c r="BW4">
-        <v>5.4109282273180216E-2</v>
+        <v>5.2723643658318636E-2</v>
       </c>
       <c r="BX4">
-        <v>2.9580579635621405E-2</v>
+        <v>2.7832837233930929E-2</v>
       </c>
       <c r="BY4">
-        <v>6.3113269200851072E-2</v>
+        <v>6.0813186547640549E-2</v>
       </c>
       <c r="BZ4">
-        <v>3.3391931189416621E-2</v>
+        <v>3.2392472828633466E-2</v>
       </c>
       <c r="CA4">
-        <v>9.2639857217565708E-2</v>
+        <v>8.9293904059981805E-2</v>
       </c>
       <c r="CB4">
-        <v>2.7928290742962665E-2</v>
+        <v>2.6903141668464036E-2</v>
       </c>
       <c r="CC4">
-        <v>7.1299116250882713E-2</v>
+        <v>6.8908377870422144E-2</v>
       </c>
       <c r="CD4">
-        <v>4.7039368815875032E-3</v>
+        <v>4.4991429215670703E-3</v>
       </c>
       <c r="CE4">
-        <v>1.5326203109599951E-2</v>
+        <v>1.4828565859420481E-2</v>
       </c>
       <c r="CF4">
-        <v>-1.125015931921447E-2</v>
+        <v>-1.1098546630262607E-2</v>
       </c>
       <c r="CG4">
-        <v>1.3768887032476806E-2</v>
+        <v>1.3490770253928391E-2</v>
       </c>
       <c r="CH4">
-        <v>-5.3550822239906912E-3</v>
+        <v>-5.6021438675370877E-3</v>
       </c>
       <c r="CI4">
-        <v>8.3131735522631311E-3</v>
+        <v>8.2343943612456783E-3</v>
       </c>
       <c r="CJ4">
-        <v>1.507946034921287E-2</v>
+        <v>1.478502680246338E-2</v>
       </c>
       <c r="CK4">
-        <v>-5.5743173359918546E-4</v>
+        <v>5.4479761750211159E-4</v>
       </c>
       <c r="CL4">
-        <v>4.3665012678593251E-3</v>
+        <v>4.540437940516874E-3</v>
       </c>
       <c r="CM4">
-        <v>-9.0781524366115793E-3</v>
+        <v>-6.90543108050015E-3</v>
       </c>
       <c r="CN4">
-        <v>-4.9086765597612476E-3</v>
+        <v>-4.4207674740179984E-3</v>
       </c>
       <c r="CO4">
-        <v>-1.6707946832509313E-2</v>
+        <v>-1.3913155936575971E-2</v>
       </c>
       <c r="CP4">
-        <v>3.567319061259319E-3</v>
+        <v>3.820453590796042E-3</v>
       </c>
       <c r="CQ4">
-        <v>-4.6965335826167163E-3</v>
+        <v>-3.3011309468395228E-3</v>
       </c>
       <c r="CR4">
-        <v>-8.357066473243125E-4</v>
+        <v>-4.5444052178911405E-4</v>
       </c>
       <c r="CS4">
-        <v>-2.9970409849246031E-2</v>
+        <v>-2.666694214616061E-2</v>
       </c>
       <c r="CT4">
         <v>9.3436031221421686E-3</v>
@@ -1982,7 +1982,7 @@
         <v>6.504456274626611E-3</v>
       </c>
       <c r="CX4">
-        <v>8.0828420395830103E-3</v>
+        <v>8.0828420395830086E-3</v>
       </c>
       <c r="CY4">
         <v>8.0828420395830086E-3</v>
@@ -1999,295 +1999,295 @@
     </row>
     <row r="5" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.1396444437100232E-2</v>
+        <v>1.9652681361391956E-2</v>
       </c>
       <c r="B5">
-        <v>-0.14744048124186948</v>
+        <v>-0.15741477694094358</v>
       </c>
       <c r="C5">
-        <v>0.18378948302298187</v>
+        <v>0.17251243085903784</v>
       </c>
       <c r="D5">
-        <v>-1.6531516598134122E-2</v>
+        <v>-2.6560605313194652E-2</v>
       </c>
       <c r="E5">
-        <v>1.4927280472791599E-2</v>
+        <v>1.3899948349078328E-2</v>
       </c>
       <c r="F5">
-        <v>9.0918615880470014E-3</v>
+        <v>9.0407420657405424E-3</v>
       </c>
       <c r="G5">
-        <v>0.39876657014541028</v>
+        <v>0.38366160067986516</v>
       </c>
       <c r="H5">
-        <v>0.15191275970514939</v>
+        <v>0.13901338451520601</v>
       </c>
       <c r="I5">
-        <v>0.12048297374616579</v>
+        <v>9.9457023677252288E-2</v>
       </c>
       <c r="J5">
-        <v>1.8133231580567243E-3</v>
+        <v>1.802197849343284E-3</v>
       </c>
       <c r="K5">
-        <v>-1.4953263853244983E-2</v>
+        <v>-1.5315599729253275E-2</v>
       </c>
       <c r="L5">
-        <v>-2.4793568915616692E-2</v>
+        <v>-2.5155904791624984E-2</v>
       </c>
       <c r="M5">
-        <v>-1.3283101711909913</v>
+        <v>-1.3477222385350378</v>
       </c>
       <c r="N5">
-        <v>9.2532106614193824E-2</v>
+        <v>9.2238462694844064E-2</v>
       </c>
       <c r="O5">
-        <v>3.7885389587376361E-2</v>
+        <v>3.756710137856694E-2</v>
       </c>
       <c r="P5">
-        <v>3.6111823163904599E-3</v>
+        <v>-4.716708668559555E-3</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>4.6021954653540753E-2</v>
+        <v>3.8674561673728736E-2</v>
       </c>
       <c r="S5">
-        <v>0.17213614409130654</v>
+        <v>0.16825945187567976</v>
       </c>
       <c r="T5">
-        <v>0.22067005348882635</v>
+        <v>0.2113112769706168</v>
       </c>
       <c r="U5">
-        <v>0.17225484623543</v>
+        <v>0.1680326562330951</v>
       </c>
       <c r="V5">
-        <v>0.31363492236819174</v>
+        <v>0.30442957185786834</v>
       </c>
       <c r="W5">
-        <v>0.22336456094305557</v>
+        <v>0.21370241987586375</v>
       </c>
       <c r="X5">
-        <v>0.31884396151299843</v>
+        <v>0.31011558231512537</v>
       </c>
       <c r="Y5">
-        <v>0.24166310078013165</v>
+        <v>0.21854107302291736</v>
       </c>
       <c r="Z5">
-        <v>0.26198425679923321</v>
+        <v>0.25288384886791015</v>
       </c>
       <c r="AA5">
-        <v>0.18040923338765436</v>
+        <v>0.17002788490749116</v>
       </c>
       <c r="AB5">
-        <v>-0.13534175006870414</v>
+        <v>-0.1417054289921405</v>
       </c>
       <c r="AC5">
-        <v>8.8305480699537697E-2</v>
+        <v>8.6317972376755092E-2</v>
       </c>
       <c r="AD5">
-        <v>6.6781413446750565E-2</v>
+        <v>6.4859991349396046E-2</v>
       </c>
       <c r="AE5">
-        <v>-0.10945481787584718</v>
+        <v>-0.11281973881558799</v>
       </c>
       <c r="AF5">
-        <v>0.21398128924322102</v>
+        <v>0.20902813101308371</v>
       </c>
       <c r="AG5">
-        <v>5.5835645521000066E-2</v>
+        <v>4.9998191566282935E-2</v>
       </c>
       <c r="AH5">
-        <v>8.8698275196035736E-2</v>
+        <v>8.4043533387423153E-2</v>
       </c>
       <c r="AI5">
-        <v>4.5455429242740236E-2</v>
+        <v>4.3400413245649277E-2</v>
       </c>
       <c r="AJ5">
-        <v>8.7243757465983479E-2</v>
+        <v>8.4242732633429296E-2</v>
       </c>
       <c r="AK5">
-        <v>0.22918708214772437</v>
+        <v>0.21765926011752973</v>
       </c>
       <c r="AL5">
-        <v>9.0258594670813541E-2</v>
+        <v>8.5936018082235763E-2</v>
       </c>
       <c r="AM5">
-        <v>0.15689164108478029</v>
+        <v>0.15147254540571417</v>
       </c>
       <c r="AN5">
-        <v>2.3145939568389562E-2</v>
+        <v>1.2513175069790994E-2</v>
       </c>
       <c r="AO5">
-        <v>0.21931139997782592</v>
+        <v>0.21425792932305679</v>
       </c>
       <c r="AP5">
-        <v>0.19403096703789424</v>
+        <v>0.18403071676866201</v>
       </c>
       <c r="AQ5">
-        <v>0.23197399265167451</v>
+        <v>0.2237176566722639</v>
       </c>
       <c r="AR5">
-        <v>0.12578360985113587</v>
+        <v>0.12154278362061018</v>
       </c>
       <c r="AS5">
-        <v>0.15668380738613982</v>
+        <v>0.15185370674162946</v>
       </c>
       <c r="AT5">
-        <v>-3.1167486003277539E-2</v>
+        <v>-3.5068603166281132E-2</v>
       </c>
       <c r="AU5">
-        <v>-1.720941657456948E-2</v>
+        <v>-2.5058300114063792E-2</v>
       </c>
       <c r="AV5">
-        <v>-9.6475761091562362E-2</v>
+        <v>-0.10681958872129621</v>
       </c>
       <c r="AW5">
-        <v>-0.21780143834345145</v>
+        <v>-0.22580559922677451</v>
       </c>
       <c r="AX5">
-        <v>-6.6080687228411067E-2</v>
+        <v>-6.9178902128859354E-2</v>
       </c>
       <c r="AY5">
-        <v>-8.2501082580267449E-3</v>
+        <v>-1.2237303623571116E-2</v>
       </c>
       <c r="AZ5">
-        <v>-0.22881963832672744</v>
+        <v>-0.23643940560976637</v>
       </c>
       <c r="BA5">
-        <v>-1.7963183436554613E-2</v>
+        <v>-1.9010654206665624E-2</v>
       </c>
       <c r="BB5">
-        <v>-7.513880449283275E-2</v>
+        <v>-7.9876590987068979E-2</v>
       </c>
       <c r="BC5">
-        <v>0.10639257915468586</v>
+        <v>8.9229585557856483E-2</v>
       </c>
       <c r="BD5">
-        <v>3.0857243237914167E-2</v>
+        <v>2.202286911407178E-2</v>
       </c>
       <c r="BE5">
-        <v>0.12888797772668067</v>
+        <v>0.12362499047541589</v>
       </c>
       <c r="BF5">
-        <v>0.20551034811975172</v>
+        <v>0.19230333874618794</v>
       </c>
       <c r="BG5">
-        <v>0.10530613768832425</v>
+        <v>9.2855801255129045E-2</v>
       </c>
       <c r="BH5">
-        <v>0.24359339876291855</v>
+        <v>0.23455967417564294</v>
       </c>
       <c r="BI5">
-        <v>7.2812527677425298E-2</v>
+        <v>5.2979544815556445E-2</v>
       </c>
       <c r="BJ5">
-        <v>-4.2364909020445485E-2</v>
+        <v>-5.3260823618081155E-2</v>
       </c>
       <c r="BK5">
-        <v>4.5677850162052169E-2</v>
+        <v>3.0618689358313744E-2</v>
       </c>
       <c r="BL5">
-        <v>-2.4812447523104679E-3</v>
+        <v>-2.6858445952684211E-3</v>
       </c>
       <c r="BM5">
-        <v>-2.5228661344204976E-2</v>
+        <v>-2.6236989581398383E-2</v>
       </c>
       <c r="BN5">
-        <v>-1.0809317741392585E-2</v>
+        <v>-1.1475119275573722E-2</v>
       </c>
       <c r="BO5">
-        <v>1.9818729465360188E-3</v>
+        <v>1.1912956144435605E-3</v>
       </c>
       <c r="BP5">
-        <v>-3.061963480833263E-3</v>
+        <v>-4.0263643434971935E-3</v>
       </c>
       <c r="BQ5">
-        <v>5.6803278565971532E-3</v>
+        <v>5.1727921222642359E-3</v>
       </c>
       <c r="BR5">
-        <v>-9.8189781538026433E-3</v>
+        <v>-1.0674616625770988E-2</v>
       </c>
       <c r="BS5">
-        <v>9.2887716508573553E-3</v>
+        <v>8.5609498934142575E-3</v>
       </c>
       <c r="BT5">
-        <v>-9.0162499504981286E-3</v>
+        <v>-9.5509982459680634E-3</v>
       </c>
       <c r="BU5">
-        <v>2.1872495694125884E-2</v>
+        <v>2.1606021761441586E-2</v>
       </c>
       <c r="BV5">
-        <v>2.9802546275702457E-2</v>
+        <v>2.8999797683498987E-2</v>
       </c>
       <c r="BW5">
-        <v>4.7064507271046066E-2</v>
+        <v>4.6120708289613281E-2</v>
       </c>
       <c r="BX5">
-        <v>2.2327929669949627E-2</v>
+        <v>2.1137491195223526E-2</v>
       </c>
       <c r="BY5">
-        <v>6.2866529050097014E-2</v>
+        <v>6.1299875522318095E-2</v>
       </c>
       <c r="BZ5">
-        <v>3.5715453969165298E-2</v>
+        <v>3.5034693676180707E-2</v>
       </c>
       <c r="CA5">
-        <v>9.7462363912639863E-2</v>
+        <v>9.5183337432083598E-2</v>
       </c>
       <c r="CB5">
-        <v>2.5132708795248999E-2</v>
+        <v>2.4434449782815178E-2</v>
       </c>
       <c r="CC5">
-        <v>6.6304465139981325E-2</v>
+        <v>6.4676063333854478E-2</v>
       </c>
       <c r="CD5">
-        <v>3.4450045637365867E-4</v>
+        <v>6.1562410317302085E-4</v>
       </c>
       <c r="CE5">
-        <v>1.3609481800317E-2</v>
+        <v>1.5639499211663521E-2</v>
       </c>
       <c r="CF5">
-        <v>5.9393806270381239E-3</v>
+        <v>9.0450583471208962E-3</v>
       </c>
       <c r="CG5">
-        <v>-1.2026943162316228E-2</v>
+        <v>-1.1261130822566856E-2</v>
       </c>
       <c r="CH5">
-        <v>1.0348499685298856E-3</v>
+        <v>2.1757754240143215E-3</v>
       </c>
       <c r="CI5">
-        <v>1.943755772628819E-2</v>
+        <v>2.161476715080568E-2</v>
       </c>
       <c r="CJ5">
-        <v>2.153763104211498E-2</v>
+        <v>2.3779084377875181E-2</v>
       </c>
       <c r="CK5">
-        <v>-4.7633406160124212E-3</v>
+        <v>-3.7626398617543709E-3</v>
       </c>
       <c r="CL5">
-        <v>3.712515873267444E-3</v>
+        <v>3.834927007943665E-3</v>
       </c>
       <c r="CM5">
-        <v>-1.0548784352394213E-2</v>
+        <v>-9.0463133357279527E-3</v>
       </c>
       <c r="CN5">
-        <v>-4.4847418483654616E-3</v>
+        <v>-4.2061832215246116E-3</v>
       </c>
       <c r="CO5">
-        <v>-1.8680158773056198E-2</v>
+        <v>-1.6753750153296526E-2</v>
       </c>
       <c r="CP5">
-        <v>4.9166330949839722E-3</v>
+        <v>5.0204708019191621E-3</v>
       </c>
       <c r="CQ5">
-        <v>-3.3556071747729184E-3</v>
+        <v>-2.569234306471135E-3</v>
       </c>
       <c r="CR5">
-        <v>-1.0539703927622442E-3</v>
+        <v>-8.1264928625066415E-4</v>
       </c>
       <c r="CS5">
-        <v>-2.4346306869466341E-2</v>
+        <v>-2.2554983701115146E-2</v>
       </c>
       <c r="CT5">
         <v>9.1817427931723313E-3</v>
@@ -2319,295 +2319,295 @@
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.0456439396630673E-2</v>
+        <v>1.9260506222054573E-2</v>
       </c>
       <c r="B6">
-        <v>4.1656256613022469E-2</v>
+        <v>3.4815538808105395E-2</v>
       </c>
       <c r="C6">
-        <v>8.0260897414744681E-2</v>
+        <v>7.2526704058913871E-2</v>
       </c>
       <c r="D6">
-        <v>-7.4345867597018278E-2</v>
+        <v>-8.1224164352003858E-2</v>
       </c>
       <c r="E6">
-        <v>8.2358624342451364E-3</v>
+        <v>7.5312824456148647E-3</v>
       </c>
       <c r="F6">
-        <v>3.5312495950414772E-3</v>
+        <v>3.4961900543008591E-3</v>
       </c>
       <c r="G6">
-        <v>0.38567153748790006</v>
+        <v>0.3753120257305661</v>
       </c>
       <c r="H6">
-        <v>0.14139160714369331</v>
+        <v>0.1325447684097722</v>
       </c>
       <c r="I6">
-        <v>-1.1043633450418477E-2</v>
+        <v>-2.5463958989299873E-2</v>
       </c>
       <c r="J6">
-        <v>2.3728678710231016E-3</v>
+        <v>2.3663560926832031E-3</v>
       </c>
       <c r="K6">
-        <v>-2.3367573671532062E-2</v>
+        <v>-2.3579653261405237E-2</v>
       </c>
       <c r="L6">
-        <v>-2.6032236170420497E-2</v>
+        <v>-2.6244315760293672E-2</v>
       </c>
       <c r="M6">
-        <v>-1.3946715054094292</v>
+        <v>-1.4060336242431204</v>
       </c>
       <c r="N6">
-        <v>3.9190513594436809E-2</v>
+        <v>3.9018640241263725E-2</v>
       </c>
       <c r="O6">
-        <v>3.953576181912867E-2</v>
+        <v>3.9349463863956761E-2</v>
       </c>
       <c r="P6">
-        <v>-0.25842823481451699</v>
+        <v>-0.26330265057498198</v>
       </c>
       <c r="Q6">
         <v>1.5446877162536819E-2</v>
       </c>
       <c r="R6">
-        <v>-0.13876723847806777</v>
+        <v>-0.14306775684506462</v>
       </c>
       <c r="S6">
-        <v>0.16846971168118913</v>
+        <v>0.16622464167487511</v>
       </c>
       <c r="T6">
-        <v>0.21970678391000853</v>
+        <v>0.21428692922767567</v>
       </c>
       <c r="U6">
-        <v>5.3346365929976686E-2</v>
+        <v>5.0901211244497369E-2</v>
       </c>
       <c r="V6">
-        <v>0.26255956154878518</v>
+        <v>0.25722855893655094</v>
       </c>
       <c r="W6">
-        <v>0.21892863680707625</v>
+        <v>0.21333309764632297</v>
       </c>
       <c r="X6">
-        <v>0.74843959235183732</v>
+        <v>0.74338481336734885</v>
       </c>
       <c r="Y6">
-        <v>0.2126846903675137</v>
+        <v>0.19929426159072494</v>
       </c>
       <c r="Z6">
-        <v>0.24940029440727074</v>
+        <v>0.24413006614166866</v>
       </c>
       <c r="AA6">
-        <v>0.18654937679209799</v>
+        <v>0.18053733023241525</v>
       </c>
       <c r="AB6">
-        <v>-0.23633797877812951</v>
+        <v>-0.24023573387102004</v>
       </c>
       <c r="AC6">
-        <v>0.36844423040687491</v>
+        <v>0.36722688101189549</v>
       </c>
       <c r="AD6">
-        <v>0.36348765137952971</v>
+        <v>0.36231077981582244</v>
       </c>
       <c r="AE6">
-        <v>-3.8387206113406541E-2</v>
+        <v>-4.044822111555349E-2</v>
       </c>
       <c r="AF6">
-        <v>0.13969735400458227</v>
+        <v>0.13666354322473456</v>
       </c>
       <c r="AG6">
-        <v>-9.5145688339086876E-2</v>
+        <v>-9.8721130493737097E-2</v>
       </c>
       <c r="AH6">
-        <v>2.287219146206676E-2</v>
+        <v>2.0021160822574102E-2</v>
       </c>
       <c r="AI6">
-        <v>0.3685297072540647</v>
+        <v>0.36727100938998269</v>
       </c>
       <c r="AJ6">
-        <v>3.7100725037555904E-2</v>
+        <v>3.5262596501262233E-2</v>
       </c>
       <c r="AK6">
-        <v>0.25221720900182759</v>
+        <v>0.2454696997317003</v>
       </c>
       <c r="AL6">
-        <v>0.13564705020771056</v>
+        <v>0.1331169430004803</v>
       </c>
       <c r="AM6">
-        <v>0.1665648194679421</v>
+        <v>0.16339289347581365</v>
       </c>
       <c r="AN6">
-        <v>6.3683921781219843E-2</v>
+        <v>5.7460311039012502E-2</v>
       </c>
       <c r="AO6">
-        <v>0.25119744769203889</v>
+        <v>0.24823953074987432</v>
       </c>
       <c r="AP6">
-        <v>0.20257875106443979</v>
+        <v>0.19672536599148349</v>
       </c>
       <c r="AQ6">
-        <v>0.33569444118027758</v>
+        <v>0.33086181074822896</v>
       </c>
       <c r="AR6">
-        <v>0.20700427973419688</v>
+        <v>0.20452202296197053</v>
       </c>
       <c r="AS6">
-        <v>0.16871027904256053</v>
+        <v>0.16588310589666047</v>
       </c>
       <c r="AT6">
-        <v>3.0570651726122333E-2</v>
+        <v>2.8698201016766345E-2</v>
       </c>
       <c r="AU6">
-        <v>2.3252063465379003E-2</v>
+        <v>1.9484771446940052E-2</v>
       </c>
       <c r="AV6">
-        <v>-5.1701900670872603E-2</v>
+        <v>-5.6666711152965121E-2</v>
       </c>
       <c r="AW6">
-        <v>-0.15940694989874635</v>
+        <v>-0.163248771637891</v>
       </c>
       <c r="AX6">
-        <v>-4.1279546184784327E-2</v>
+        <v>-4.2766621411106182E-2</v>
       </c>
       <c r="AY6">
-        <v>-8.575014163679047E-2</v>
+        <v>-8.7663907996169979E-2</v>
       </c>
       <c r="AZ6">
-        <v>-0.18623737713084351</v>
+        <v>-0.18989469836937525</v>
       </c>
       <c r="BA6">
-        <v>1.0048557834671928E-2</v>
+        <v>9.5457948299807333E-3</v>
       </c>
       <c r="BB6">
-        <v>4.7483514576094621E-3</v>
+        <v>2.4743178125702925E-3</v>
       </c>
       <c r="BC6">
-        <v>1.3076291268510953E-2</v>
+        <v>2.8031899640867941E-3</v>
       </c>
       <c r="BD6">
-        <v>-7.3218126981080989E-2</v>
+        <v>-7.8506040177773129E-2</v>
       </c>
       <c r="BE6">
-        <v>0.13273413957538457</v>
+        <v>0.12958391983713771</v>
       </c>
       <c r="BF6">
-        <v>0.19783970221186886</v>
+        <v>0.18993449940108625</v>
       </c>
       <c r="BG6">
-        <v>8.7633202097000151E-2</v>
+        <v>8.0180914316854035E-2</v>
       </c>
       <c r="BH6">
-        <v>0.12435544626518252</v>
+        <v>0.1189482096244549</v>
       </c>
       <c r="BI6">
-        <v>3.466887514046102E-2</v>
+        <v>2.2797621972451498E-2</v>
       </c>
       <c r="BJ6">
-        <v>-4.7656078085156428E-2</v>
+        <v>-5.4177949332987252E-2</v>
       </c>
       <c r="BK6">
-        <v>2.6375402214783517E-2</v>
+        <v>1.7361573501067873E-2</v>
       </c>
       <c r="BL6">
-        <v>-6.201284009586654E-3</v>
+        <v>-6.3170885148091747E-3</v>
       </c>
       <c r="BM6">
-        <v>-3.6390892361130592E-2</v>
+        <v>-3.6961611042640424E-2</v>
       </c>
       <c r="BN6">
-        <v>-1.6851855077000301E-2</v>
+        <v>-1.7228701980338768E-2</v>
       </c>
       <c r="BO6">
-        <v>-2.5945131987524697E-2</v>
+        <v>-2.6392602598740773E-2</v>
       </c>
       <c r="BP6">
-        <v>-2.4747207454036496E-2</v>
+        <v>-2.5293063028128615E-2</v>
       </c>
       <c r="BQ6">
-        <v>-9.2538619470199784E-4</v>
+        <v>-1.2126538863456021E-3</v>
       </c>
       <c r="BR6">
-        <v>-2.7338754772999498E-2</v>
+        <v>-2.782305030550395E-2</v>
       </c>
       <c r="BS6">
-        <v>-1.5930591631387485E-2</v>
+        <v>-1.6342542282435674E-2</v>
       </c>
       <c r="BT6">
-        <v>-1.8307201781493039E-2</v>
+        <v>-1.8609871914960392E-2</v>
       </c>
       <c r="BU6">
-        <v>1.9185565905330541E-2</v>
+        <v>1.9025896506644845E-2</v>
       </c>
       <c r="BV6">
-        <v>3.8635213111781759E-2</v>
+        <v>3.8154211550229855E-2</v>
       </c>
       <c r="BW6">
-        <v>3.8737448414866232E-2</v>
+        <v>3.8171930361984602E-2</v>
       </c>
       <c r="BX6">
-        <v>3.621634070841695E-2</v>
+        <v>3.5503037964326842E-2</v>
       </c>
       <c r="BY6">
-        <v>8.09121779576642E-2</v>
+        <v>7.9973449694866444E-2</v>
       </c>
       <c r="BZ6">
-        <v>4.1815311093905461E-2</v>
+        <v>4.1407404104011045E-2</v>
       </c>
       <c r="CA6">
-        <v>0.10574178134223151</v>
+        <v>0.10437620395590587</v>
       </c>
       <c r="CB6">
-        <v>3.619045394309249E-2</v>
+        <v>3.5772061845143463E-2</v>
       </c>
       <c r="CC6">
-        <v>7.837138145073623E-2</v>
+        <v>7.7395654018600296E-2</v>
       </c>
       <c r="CD6">
-        <v>-1.6132803322423533E-3</v>
+        <v>-1.007113923116934E-3</v>
       </c>
       <c r="CE6">
-        <v>2.4590993724630389E-3</v>
+        <v>5.6884495385385592E-3</v>
       </c>
       <c r="CF6">
-        <v>9.2475049666090048E-3</v>
+        <v>1.4011545099586034E-2</v>
       </c>
       <c r="CG6">
-        <v>-3.1104594531532775E-2</v>
+        <v>-3.0031538291041437E-2</v>
       </c>
       <c r="CH6">
-        <v>5.1424489777992244E-3</v>
+        <v>6.9863186598468768E-3</v>
       </c>
       <c r="CI6">
-        <v>-8.354911822714306E-3</v>
+        <v>-6.7150479105279048E-3</v>
       </c>
       <c r="CJ6">
-        <v>5.8929474292537809E-4</v>
+        <v>3.8308431842240254E-3</v>
       </c>
       <c r="CK6">
-        <v>-3.2053217444606014E-4</v>
+        <v>4.7497464157114297E-5</v>
       </c>
       <c r="CL6">
-        <v>3.1170351463206372E-3</v>
+        <v>3.1792903449263739E-3</v>
       </c>
       <c r="CM6">
-        <v>-9.7912565441556042E-3</v>
+        <v>-9.0162025038894068E-3</v>
       </c>
       <c r="CN6">
-        <v>-2.1286264490027263E-3</v>
+        <v>-1.9987564863387262E-3</v>
       </c>
       <c r="CO6">
-        <v>-1.6876045904271261E-2</v>
+        <v>-1.5896389519721124E-2</v>
       </c>
       <c r="CP6">
-        <v>2.8622452380963354E-3</v>
+        <v>2.9421788306106442E-3</v>
       </c>
       <c r="CQ6">
-        <v>-2.7645011038452596E-3</v>
+        <v>-2.3809731274646081E-3</v>
       </c>
       <c r="CR6">
-        <v>-1.7833707270251634E-3</v>
+        <v>-1.6516179831374527E-3</v>
       </c>
       <c r="CS6">
-        <v>-2.0888656541369607E-2</v>
+        <v>-2.0014563189248109E-2</v>
       </c>
       <c r="CT6">
         <v>8.7021463164274615E-3</v>
@@ -2622,7 +2622,7 @@
         <v>6.3607166361838241E-3</v>
       </c>
       <c r="CX6">
-        <v>6.8290460499880155E-3</v>
+        <v>6.8290460499880121E-3</v>
       </c>
       <c r="CY6">
         <v>6.8290460499880138E-3</v>
@@ -2634,300 +2634,300 @@
         <v>6.8290460499880138E-3</v>
       </c>
       <c r="DB6">
-        <v>6.8290460499880121E-3</v>
+        <v>6.8290460499880155E-3</v>
       </c>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.2286474121161868E-2</v>
+        <v>2.9513656063929514E-2</v>
       </c>
       <c r="B7">
-        <v>1.5052486511841767E-3</v>
+        <v>-1.4355224372844144E-2</v>
       </c>
       <c r="C7">
-        <v>-5.9565919549094459E-2</v>
+        <v>-7.7497950745382127E-2</v>
       </c>
       <c r="D7">
-        <v>-0.14985050954604662</v>
+        <v>-0.16579811084240392</v>
       </c>
       <c r="E7">
-        <v>5.293238987546009E-3</v>
+        <v>3.6596425987418801E-3</v>
       </c>
       <c r="F7">
-        <v>5.1098172162873596E-3</v>
+        <v>5.0285302934805643E-3</v>
       </c>
       <c r="G7">
-        <v>0.27161637424909901</v>
+        <v>0.24759743918190535</v>
       </c>
       <c r="H7">
-        <v>6.242580672575454E-2</v>
+        <v>4.1914063501026499E-2</v>
       </c>
       <c r="I7">
-        <v>-2.8284158682389315E-2</v>
+        <v>-6.1718250064252578E-2</v>
       </c>
       <c r="J7">
-        <v>-1.6673753482902734E-5</v>
+        <v>-3.0916898332225746E-5</v>
       </c>
       <c r="K7">
-        <v>-1.424791379873939E-2</v>
+        <v>-1.4711793273819275E-2</v>
       </c>
       <c r="L7">
-        <v>-2.7029610087729115E-2</v>
+        <v>-2.7493489562809E-2</v>
       </c>
       <c r="M7">
-        <v>-1.4481056004907213</v>
+        <v>-1.4729578445162774</v>
       </c>
       <c r="N7">
-        <v>0.24663680869803695</v>
+        <v>0.24626087190516677</v>
       </c>
       <c r="O7">
-        <v>7.5293902819255298E-2</v>
+        <v>7.4886415244872107E-2</v>
       </c>
       <c r="P7">
-        <v>2.2101453921588576E-2</v>
+        <v>1.1439695165652575E-2</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>2.4359596591113974E-2</v>
+        <v>1.4953117618540901E-2</v>
       </c>
       <c r="S7">
-        <v>0.21805132484594067</v>
+        <v>0.21289616925879584</v>
       </c>
       <c r="T7">
-        <v>0.2214914665807835</v>
+        <v>0.20904633388177513</v>
       </c>
       <c r="U7">
-        <v>0.2860094117961155</v>
+        <v>0.28039481946588463</v>
       </c>
       <c r="V7">
-        <v>0.25947633800557929</v>
+        <v>0.24723522845253526</v>
       </c>
       <c r="W7">
-        <v>0.22619260278886782</v>
+        <v>0.21334406136854711</v>
       </c>
       <c r="X7">
-        <v>0.72729485524837356</v>
+        <v>0.71568801356843381</v>
       </c>
       <c r="Y7">
-        <v>0.15073982321600543</v>
+        <v>0.11999256654748758</v>
       </c>
       <c r="Z7">
-        <v>0.27054156713100563</v>
+        <v>0.25844000833215408</v>
       </c>
       <c r="AA7">
-        <v>0.19800470392183916</v>
+        <v>0.18419977341848776</v>
       </c>
       <c r="AB7">
-        <v>-8.0252081665323882E-2</v>
+        <v>-8.8247826630622861E-2</v>
       </c>
       <c r="AC7">
-        <v>0.22221957510848281</v>
+        <v>0.2197223388625037</v>
       </c>
       <c r="AD7">
-        <v>0.23882310571960849</v>
+        <v>0.23640890455610294</v>
       </c>
       <c r="AE7">
-        <v>-0.11077411311614518</v>
+        <v>-0.11500202121557401</v>
       </c>
       <c r="AF7">
-        <v>0.24562574883560023</v>
+        <v>0.23940227488956323</v>
       </c>
       <c r="AG7">
-        <v>-0.14592441584032595</v>
+        <v>-0.15325897712636094</v>
       </c>
       <c r="AH7">
-        <v>0.10713306519946342</v>
+        <v>0.10128454128291059</v>
       </c>
       <c r="AI7">
-        <v>0.22492038613918283</v>
+        <v>0.22233832880881774</v>
       </c>
       <c r="AJ7">
-        <v>2.038954983987662E-2</v>
+        <v>1.6618864755929275E-2</v>
       </c>
       <c r="AK7">
-        <v>0.23005579794297348</v>
+        <v>0.21422018978703972</v>
       </c>
       <c r="AL7">
-        <v>0.13876312606298261</v>
+        <v>0.13282526296087724</v>
       </c>
       <c r="AM7">
-        <v>0.1968749460672794</v>
+        <v>0.18943081000164344</v>
       </c>
       <c r="AN7">
-        <v>-1.4010704996015477E-2</v>
+        <v>-2.861678511879201E-2</v>
       </c>
       <c r="AO7">
-        <v>0.24533914561472989</v>
+        <v>0.23839726353962271</v>
       </c>
       <c r="AP7">
-        <v>0.21083860096266172</v>
+        <v>0.19710139680475203</v>
       </c>
       <c r="AQ7">
-        <v>0.27844935006133681</v>
+        <v>0.26710773661247994</v>
       </c>
       <c r="AR7">
-        <v>0.21798052957508546</v>
+        <v>0.21215496579832779</v>
       </c>
       <c r="AS7">
-        <v>0.1726884638864721</v>
+        <v>0.16605342207546506</v>
       </c>
       <c r="AT7">
-        <v>6.5822541576342763E-2</v>
+        <v>6.2976732899053228E-2</v>
       </c>
       <c r="AU7">
-        <v>0.11209455885348579</v>
+        <v>0.10636891157081596</v>
       </c>
       <c r="AV7">
-        <v>4.7381385312819713E-2</v>
+        <v>3.9835712318363969E-2</v>
       </c>
       <c r="AW7">
-        <v>-8.8874368493692069E-2</v>
+        <v>-9.4713288358032888E-2</v>
       </c>
       <c r="AX7">
-        <v>5.797964083020607E-3</v>
+        <v>3.5378610203852801E-3</v>
       </c>
       <c r="AY7">
-        <v>-5.5318822108968865E-2</v>
+        <v>-5.8227423592903435E-2</v>
       </c>
       <c r="AZ7">
-        <v>-9.8626992144783765E-2</v>
+        <v>-0.10418550242451702</v>
       </c>
       <c r="BA7">
-        <v>1.9267722786484073E-2</v>
+        <v>1.8503607974691534E-2</v>
       </c>
       <c r="BB7">
-        <v>6.569949699037908E-2</v>
+        <v>6.2243350109093959E-2</v>
       </c>
       <c r="BC7">
-        <v>7.406082644114842E-2</v>
+        <v>5.3940613291259987E-2</v>
       </c>
       <c r="BD7">
-        <v>-3.0141545279202986E-2</v>
+        <v>-4.0498100469575138E-2</v>
       </c>
       <c r="BE7">
-        <v>0.42636738420081816</v>
+        <v>0.42019757328157648</v>
       </c>
       <c r="BF7">
-        <v>0.21794661674298565</v>
+        <v>0.20246401213968568</v>
       </c>
       <c r="BG7">
-        <v>0.13492923915404476</v>
+        <v>0.12033368381514475</v>
       </c>
       <c r="BH7">
-        <v>0.21729798868547148</v>
+        <v>0.20670773453150199</v>
       </c>
       <c r="BI7">
-        <v>7.2090000367899365E-2</v>
+        <v>4.8839753240113692E-2</v>
       </c>
       <c r="BJ7">
-        <v>-1.7665717680543092E-2</v>
+        <v>-3.0439021063229765E-2</v>
       </c>
       <c r="BK7">
-        <v>5.4527167272072241E-2</v>
+        <v>3.6873281688520221E-2</v>
       </c>
       <c r="BL7">
-        <v>-2.0554789445758111E-3</v>
+        <v>-2.2942863028078322E-3</v>
       </c>
       <c r="BM7">
-        <v>-2.9031270399801849E-2</v>
+        <v>-3.0208183339096618E-2</v>
       </c>
       <c r="BN7">
-        <v>-5.7894565633356959E-3</v>
+        <v>-6.5665749774357907E-3</v>
       </c>
       <c r="BO7">
-        <v>-2.1223798190002266E-2</v>
+        <v>-2.2146553952790929E-2</v>
       </c>
       <c r="BP7">
-        <v>-2.0600947306973205E-2</v>
+        <v>-2.172658855361273E-2</v>
       </c>
       <c r="BQ7">
-        <v>3.2041906562797345E-3</v>
+        <v>2.6117988627567396E-3</v>
       </c>
       <c r="BR7">
-        <v>-4.0757075728507369E-3</v>
+        <v>-5.0744021961619604E-3</v>
       </c>
       <c r="BS7">
-        <v>3.74222318279573E-2</v>
+        <v>3.6572723887746024E-2</v>
       </c>
       <c r="BT7">
-        <v>3.0088371474286391E-5</v>
+        <v>-5.9406571346549281E-4</v>
       </c>
       <c r="BU7">
-        <v>2.1502085653569501E-2</v>
+        <v>2.1157410905281129E-2</v>
       </c>
       <c r="BV7">
-        <v>3.4166440683237265E-2</v>
+        <v>3.3128113470902054E-2</v>
       </c>
       <c r="BW7">
-        <v>3.7740721533522384E-2</v>
+        <v>3.6519950517031462E-2</v>
       </c>
       <c r="BX7">
-        <v>2.4521673120707424E-2</v>
+        <v>2.2981882667134246E-2</v>
       </c>
       <c r="BY7">
-        <v>8.4642520254512577E-2</v>
+        <v>8.2616108762906343E-2</v>
       </c>
       <c r="BZ7">
-        <v>3.7861468996519668E-2</v>
+        <v>3.6980929346568894E-2</v>
       </c>
       <c r="CA7">
-        <v>0.11947403238390931</v>
+        <v>0.1165261914000071</v>
       </c>
       <c r="CB7">
-        <v>3.7727654872282003E-2</v>
+        <v>3.682448129562086E-2</v>
       </c>
       <c r="CC7">
-        <v>7.7302636486763693E-2</v>
+        <v>7.5196355736583856E-2</v>
       </c>
       <c r="CD7">
-        <v>-7.5886066669038771E-3</v>
+        <v>-7.805969399072063E-3</v>
       </c>
       <c r="CE7">
-        <v>-2.090890703184356E-3</v>
+        <v>-3.1085933227598672E-3</v>
       </c>
       <c r="CF7">
-        <v>-4.1032300221044427E-3</v>
+        <v>-5.5131425325128935E-3</v>
       </c>
       <c r="CG7">
-        <v>-1.1255664712221503E-2</v>
+        <v>-1.1908476233747523E-2</v>
       </c>
       <c r="CH7">
-        <v>2.3250528520887687E-3</v>
+        <v>1.5172780950993003E-3</v>
       </c>
       <c r="CI7">
-        <v>1.6905561195911245E-3</v>
+        <v>-5.7388037379763057E-4</v>
       </c>
       <c r="CJ7">
-        <v>1.2883791962725072E-2</v>
+        <v>1.1800427381247841E-2</v>
       </c>
       <c r="CK7">
-        <v>1.2517513997250731E-3</v>
+        <v>1.8801340884030422E-3</v>
       </c>
       <c r="CL7">
-        <v>3.6287698303963537E-3</v>
+        <v>3.7483797792092874E-3</v>
       </c>
       <c r="CM7">
-        <v>-6.6428338312004001E-3</v>
+        <v>-5.3233690413572047E-3</v>
       </c>
       <c r="CN7">
-        <v>-3.2762482709359679E-3</v>
+        <v>-2.9915635276694602E-3</v>
       </c>
       <c r="CO7">
-        <v>-1.2139367585038901E-2</v>
+        <v>-1.0512936469786443E-2</v>
       </c>
       <c r="CP7">
-        <v>-8.0370351742093272E-4</v>
+        <v>-4.7501409159492278E-4</v>
       </c>
       <c r="CQ7">
-        <v>-4.1982103865357721E-3</v>
+        <v>-3.274901250806035E-3</v>
       </c>
       <c r="CR7">
-        <v>-1.9224667087817124E-3</v>
+        <v>-1.6366685546919295E-3</v>
       </c>
       <c r="CS7">
-        <v>-1.9586003000948531E-2</v>
+        <v>-1.7854123492482943E-2</v>
       </c>
       <c r="CT7">
         <v>8.7654111001774851E-3</v>
@@ -2959,295 +2959,295 @@
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.1975556095312551E-2</v>
+        <v>6.0830006766865813E-2</v>
       </c>
       <c r="B8">
-        <v>-7.9324294935579576E-2</v>
+        <v>-8.5876817981270726E-2</v>
       </c>
       <c r="C8">
-        <v>-2.9750094056415932E-2</v>
+        <v>-3.7158451139569615E-2</v>
       </c>
       <c r="D8">
-        <v>-4.6488836145377577E-2</v>
+        <v>-5.3077354965690438E-2</v>
       </c>
       <c r="E8">
-        <v>1.5206652478630414E-2</v>
+        <v>1.4531755962695479E-2</v>
       </c>
       <c r="F8">
-        <v>4.0168585521750937E-3</v>
+        <v>3.9832760458905769E-3</v>
       </c>
       <c r="G8">
-        <v>6.1433935118099914E-2</v>
+        <v>5.1510862500889099E-2</v>
       </c>
       <c r="H8">
-        <v>8.3110480715923085E-2</v>
+        <v>7.463635324294593E-2</v>
       </c>
       <c r="I8">
-        <v>-0.15247059846362343</v>
+        <v>-0.16628340555705023</v>
       </c>
       <c r="J8">
-        <v>3.3384460648959316E-5</v>
+        <v>2.7907096378367068E-5</v>
       </c>
       <c r="K8">
-        <v>-1.7396496405881257E-2</v>
+        <v>-1.7574886564062125E-2</v>
       </c>
       <c r="L8">
-        <v>-2.8149488156261716E-2</v>
+        <v>-2.8327878314442584E-2</v>
       </c>
       <c r="M8">
-        <v>-1.5081028293684331</v>
+        <v>-1.5176600440783645</v>
       </c>
       <c r="N8">
-        <v>0.21190174130572628</v>
+        <v>0.21175717051191273</v>
       </c>
       <c r="O8">
-        <v>9.5540203101398047E-2</v>
+        <v>9.5383499093663199E-2</v>
       </c>
       <c r="P8">
-        <v>-7.726371394986975E-2</v>
+        <v>-8.1363815232924463E-2</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>-4.2507141228770973E-2</v>
+        <v>-4.612451031274134E-2</v>
       </c>
       <c r="S8">
-        <v>0.1294566177956554</v>
+        <v>0.12699925238324414</v>
       </c>
       <c r="T8">
-        <v>0.19307781623995618</v>
+        <v>0.18714545626935264</v>
       </c>
       <c r="U8">
-        <v>7.5407708335515466E-2</v>
+        <v>7.2731338095303133E-2</v>
       </c>
       <c r="V8">
-        <v>0.27932339196550943</v>
+        <v>0.27348828597953323</v>
       </c>
       <c r="W8">
-        <v>0.14355040309420153</v>
+        <v>0.13742574579676464</v>
       </c>
       <c r="X8">
-        <v>0.64998050614704317</v>
+        <v>0.64444774369022406</v>
       </c>
       <c r="Y8">
-        <v>-4.1613047948505621E-2</v>
+        <v>-5.6269685131709046E-2</v>
       </c>
       <c r="Z8">
-        <v>0.21523374286285707</v>
+        <v>0.209465158088672</v>
       </c>
       <c r="AA8">
-        <v>0.11924965150966488</v>
+        <v>0.11266910157936394</v>
       </c>
       <c r="AB8">
-        <v>-0.22069693221463738</v>
+        <v>-0.22353544813348686</v>
       </c>
       <c r="AC8">
-        <v>0.29523637838106104</v>
+        <v>0.29434985125093083</v>
       </c>
       <c r="AD8">
-        <v>0.23447911058457618</v>
+        <v>0.23362206118346893</v>
       </c>
       <c r="AE8">
-        <v>-4.9323441272673962E-2</v>
+        <v>-5.0824362637192838E-2</v>
       </c>
       <c r="AF8">
-        <v>0.30788084253469522</v>
+        <v>0.30567148869174005</v>
       </c>
       <c r="AG8">
-        <v>-9.7796767167163789E-2</v>
+        <v>-0.10040056069216263</v>
       </c>
       <c r="AH8">
-        <v>9.6543510763620444E-2</v>
+        <v>9.4467265421759761E-2</v>
       </c>
       <c r="AI8">
-        <v>0.26140593236623522</v>
+        <v>0.26048929347049354</v>
       </c>
       <c r="AJ8">
-        <v>4.1869059206944031E-2</v>
+        <v>4.0530453525771892E-2</v>
       </c>
       <c r="AK8">
-        <v>-6.8534209337820229E-2</v>
+        <v>-7.519061730342641E-2</v>
       </c>
       <c r="AL8">
-        <v>3.2728443234073173E-2</v>
+        <v>3.0232496197348663E-2</v>
       </c>
       <c r="AM8">
-        <v>4.4531492149689517E-2</v>
+        <v>4.1402391826138751E-2</v>
       </c>
       <c r="AN8">
-        <v>0.10486354591051578</v>
+        <v>9.872396307175374E-2</v>
       </c>
       <c r="AO8">
-        <v>0.21963751292343645</v>
+        <v>0.21671953221274756</v>
       </c>
       <c r="AP8">
-        <v>0.29539863382589743</v>
+        <v>0.28962427806504176</v>
       </c>
       <c r="AQ8">
-        <v>0.28106908577084139</v>
+        <v>0.27630170296113798</v>
       </c>
       <c r="AR8">
-        <v>0.27590443015944327</v>
+        <v>0.27345568750643529</v>
       </c>
       <c r="AS8">
-        <v>0.18156852754041017</v>
+        <v>0.17877952539233874</v>
       </c>
       <c r="AT8">
-        <v>6.1800216369650551E-2</v>
+        <v>6.0725880224089979E-2</v>
       </c>
       <c r="AU8">
-        <v>6.7215360770316812E-2</v>
+        <v>6.5053841662728207E-2</v>
       </c>
       <c r="AV8">
-        <v>1.0185720812398324E-2</v>
+        <v>7.3371142615724638E-3</v>
       </c>
       <c r="AW8">
-        <v>-7.4879988514926304E-2</v>
+        <v>-7.7084269748360273E-2</v>
       </c>
       <c r="AX8">
-        <v>2.8722726732085965E-2</v>
+        <v>2.7869503382161431E-2</v>
       </c>
       <c r="AY8">
-        <v>-2.9614832076373263E-2</v>
+        <v>-3.071287346339939E-2</v>
       </c>
       <c r="AZ8">
-        <v>-6.4649698817205226E-2</v>
+        <v>-6.6748121159031448E-2</v>
       </c>
       <c r="BA8">
-        <v>3.1605615347102829E-2</v>
+        <v>3.1317150360605978E-2</v>
       </c>
       <c r="BB8">
-        <v>4.3565342148566527E-2</v>
+        <v>4.2260594029494974E-2</v>
       </c>
       <c r="BC8">
-        <v>0.20980033235580486</v>
+        <v>0.20218816503547538</v>
       </c>
       <c r="BD8">
-        <v>-1.8331898049071343E-2</v>
+        <v>-2.2250138396926605E-2</v>
       </c>
       <c r="BE8">
-        <v>0.57397117329813307</v>
+        <v>0.57163692203040617</v>
       </c>
       <c r="BF8">
-        <v>0.19325020662552023</v>
+        <v>0.18739260581797229</v>
       </c>
       <c r="BG8">
-        <v>0.14689814143991037</v>
+        <v>0.14137614181967012</v>
       </c>
       <c r="BH8">
-        <v>0.22624263553060947</v>
+        <v>0.22223597884241836</v>
       </c>
       <c r="BI8">
-        <v>7.1929240801529848E-2</v>
+        <v>6.3132874179703369E-2</v>
       </c>
       <c r="BJ8">
-        <v>6.054584219882958E-2</v>
+        <v>5.571326304780394E-2</v>
       </c>
       <c r="BK8">
-        <v>6.1362805199436377E-2</v>
+        <v>5.4683734261428196E-2</v>
       </c>
       <c r="BL8">
-        <v>-1.8735629878368302E-3</v>
+        <v>-1.9647472167273992E-3</v>
       </c>
       <c r="BM8">
-        <v>2.5884260608987214E-3</v>
+        <v>2.1390433465827419E-3</v>
       </c>
       <c r="BN8">
-        <v>8.7386566565781712E-3</v>
+        <v>8.441928181078126E-3</v>
       </c>
       <c r="BO8">
-        <v>-6.3349890304244608E-3</v>
+        <v>-6.6873264680442218E-3</v>
       </c>
       <c r="BP8">
-        <v>1.1756020833046485E-2</v>
+        <v>1.1326215278300883E-2</v>
       </c>
       <c r="BQ8">
-        <v>1.714977679037781E-2</v>
+        <v>1.6923582801660689E-2</v>
       </c>
       <c r="BR8">
-        <v>1.764585875399266E-2</v>
+        <v>1.7264525449198417E-2</v>
       </c>
       <c r="BS8">
-        <v>8.5338729790566614E-2</v>
+        <v>8.5014360696422847E-2</v>
       </c>
       <c r="BT8">
-        <v>1.2154945055161549E-2</v>
+        <v>1.19166232154767E-2</v>
       </c>
       <c r="BU8">
-        <v>3.0484570348710448E-2</v>
+        <v>3.0347698043639737E-2</v>
       </c>
       <c r="BV8">
-        <v>1.4948574209099993E-2</v>
+        <v>1.4536248470095256E-2</v>
       </c>
       <c r="BW8">
-        <v>6.6950071756646856E-2</v>
+        <v>6.6465296604263979E-2</v>
       </c>
       <c r="BX8">
-        <v>1.3153203827979978E-2</v>
+        <v>1.2541744151612091E-2</v>
       </c>
       <c r="BY8">
-        <v>9.7098617041363147E-2</v>
+        <v>9.6293917416075653E-2</v>
       </c>
       <c r="BZ8">
-        <v>3.5562320636807712E-2</v>
+        <v>3.5212653277742659E-2</v>
       </c>
       <c r="CA8">
-        <v>0.11700856861504401</v>
+        <v>0.11583796404055755</v>
       </c>
       <c r="CB8">
-        <v>4.6889202812372355E-2</v>
+        <v>4.6530547407450273E-2</v>
       </c>
       <c r="CC8">
-        <v>7.460464971234429E-2</v>
+        <v>7.3768233522706742E-2</v>
       </c>
       <c r="CD8">
-        <v>-4.9101484504329856E-3</v>
+        <v>-4.4034080466082842E-3</v>
       </c>
       <c r="CE8">
-        <v>-3.6415295833200079E-3</v>
+        <v>-2.1607264238586443E-3</v>
       </c>
       <c r="CF8">
-        <v>-1.3202673798657999E-2</v>
+        <v>-1.0400335729941118E-2</v>
       </c>
       <c r="CG8">
-        <v>-2.5502653364588929E-2</v>
+        <v>-2.4828225780212959E-2</v>
       </c>
       <c r="CH8">
-        <v>1.3895037062221019E-2</v>
+        <v>1.4939310056261909E-2</v>
       </c>
       <c r="CI8">
-        <v>-4.261964691941178E-3</v>
+        <v>-2.2913967712511751E-3</v>
       </c>
       <c r="CJ8">
-        <v>3.7128232209081569E-3</v>
+        <v>5.7948722215454829E-3</v>
       </c>
       <c r="CK8">
-        <v>2.9055473785614683E-3</v>
+        <v>3.0927831348254841E-3</v>
       </c>
       <c r="CL8">
-        <v>4.2573660677378694E-3</v>
+        <v>4.2986234361569444E-3</v>
       </c>
       <c r="CM8">
-        <v>1.6330989093661132E-4</v>
+        <v>4.3845065621665388E-4</v>
       </c>
       <c r="CN8">
-        <v>-4.059696058756097E-3</v>
+        <v>-3.9441212121033038E-3</v>
       </c>
       <c r="CO8">
-        <v>-7.0077532004177885E-3</v>
+        <v>-6.5416501368183999E-3</v>
       </c>
       <c r="CP8">
-        <v>-8.1577963245068989E-5</v>
+        <v>3.6237804513014962E-5</v>
       </c>
       <c r="CQ8">
-        <v>-3.138845513440602E-3</v>
+        <v>-2.8089928447751419E-3</v>
       </c>
       <c r="CR8">
-        <v>-9.9516965168069092E-4</v>
+        <v>-8.9487464700557275E-4</v>
       </c>
       <c r="CS8">
-        <v>-1.542874686040834E-2</v>
+        <v>-1.4865978077343233E-2</v>
       </c>
       <c r="CT8">
         <v>8.7743291570530468E-3</v>
@@ -3279,295 +3279,295 @@
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4.8334984122263919E-2</v>
+        <v>4.767907676535682E-2</v>
       </c>
       <c r="B9">
-        <v>-5.2487686678872048E-2</v>
+        <v>-5.6239465816833367E-2</v>
       </c>
       <c r="C9">
-        <v>7.0550352671182315E-2</v>
+        <v>6.6308548505469189E-2</v>
       </c>
       <c r="D9">
-        <v>-4.093882755631606E-3</v>
+        <v>-7.8662719998586761E-3</v>
       </c>
       <c r="E9">
-        <v>2.694903928344853E-2</v>
+        <v>2.6562613680499669E-2</v>
       </c>
       <c r="F9">
-        <v>3.8488898956705849E-3</v>
+        <v>3.8296615548314684E-3</v>
       </c>
       <c r="G9">
-        <v>0.28660032944661995</v>
+        <v>0.28091867421700456</v>
       </c>
       <c r="H9">
-        <v>7.6568218602236227E-2</v>
+        <v>7.1716186118894298E-2</v>
       </c>
       <c r="I9">
-        <v>-2.6921592730584143E-2</v>
+        <v>-3.4830393833371609E-2</v>
       </c>
       <c r="J9">
-        <v>2.1700929288998971E-4</v>
+        <v>2.1371861808926781E-4</v>
       </c>
       <c r="K9">
-        <v>-1.7102700381550734E-2</v>
+        <v>-1.7209873096240218E-2</v>
       </c>
       <c r="L9">
-        <v>-2.5037368869712046E-2</v>
+        <v>-2.514454158440153E-2</v>
       </c>
       <c r="M9">
-        <v>-1.3413717017783353</v>
+        <v>-1.3471134571295191</v>
       </c>
       <c r="N9">
-        <v>0.22958607752535895</v>
+        <v>0.22949922270895085</v>
       </c>
       <c r="O9">
-        <v>0.11228577207801259</v>
+        <v>0.11219162790502163</v>
       </c>
       <c r="P9">
-        <v>1.028958214854192E-2</v>
+        <v>7.8263353557380677E-3</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>-2.2177441894433159E-3</v>
+        <v>-4.3909765511178644E-3</v>
       </c>
       <c r="S9">
-        <v>0.19529583830466327</v>
+        <v>0.19315930436343651</v>
       </c>
       <c r="T9">
-        <v>0.15382101377106772</v>
+        <v>0.1486631775108378</v>
       </c>
       <c r="U9">
-        <v>0.546330248785446</v>
+        <v>0.54400330309449485</v>
       </c>
       <c r="V9">
-        <v>0.23197266218998747</v>
+        <v>0.22689938251952096</v>
       </c>
       <c r="W9">
-        <v>0.14469332021221659</v>
+        <v>0.13936829279534735</v>
       </c>
       <c r="X9">
-        <v>0.21795616062633427</v>
+        <v>0.21314575077925324</v>
       </c>
       <c r="Y9">
-        <v>-0.29146073537257711</v>
+        <v>-0.30420381487064585</v>
       </c>
       <c r="Z9">
-        <v>0.21272151356804975</v>
+        <v>0.20770607015835479</v>
       </c>
       <c r="AA9">
-        <v>8.4276035550049144E-2</v>
+        <v>7.8554636442282777E-2</v>
       </c>
       <c r="AB9">
-        <v>-0.25467329101344338</v>
+        <v>-0.25673624471211837</v>
       </c>
       <c r="AC9">
-        <v>0.14255203647410122</v>
+        <v>0.14190773343886609</v>
       </c>
       <c r="AD9">
-        <v>0.16492549689875377</v>
+        <v>0.16430261744959498</v>
       </c>
       <c r="AE9">
-        <v>-9.9315617606820006E-2</v>
+        <v>-0.10040644512686067</v>
       </c>
       <c r="AF9">
-        <v>0.23170516082453479</v>
+        <v>0.23009946446336987</v>
       </c>
       <c r="AG9">
-        <v>-0.10620868586016141</v>
+        <v>-0.10810104991114755</v>
       </c>
       <c r="AH9">
-        <v>6.1342194768765734E-2</v>
+        <v>5.9833237930121685E-2</v>
       </c>
       <c r="AI9">
-        <v>0.13716981423093255</v>
+        <v>0.13650362680962469</v>
       </c>
       <c r="AJ9">
-        <v>2.4459856746556485E-2</v>
+        <v>2.3486995709313951E-2</v>
       </c>
       <c r="AK9">
-        <v>-0.17196860873625408</v>
+        <v>-0.17663473061259771</v>
       </c>
       <c r="AL9">
-        <v>2.1409116516309112E-3</v>
+        <v>3.9126031859479382E-4</v>
       </c>
       <c r="AM9">
-        <v>6.092184010363344E-2</v>
+        <v>5.8728350229149129E-2</v>
       </c>
       <c r="AN9">
-        <v>2.383782665493589E-2</v>
+        <v>1.9533997631294819E-2</v>
       </c>
       <c r="AO9">
-        <v>0.23355977213900531</v>
+        <v>0.23151427647539119</v>
       </c>
       <c r="AP9">
-        <v>0.2869159602897452</v>
+        <v>0.28286815434444573</v>
       </c>
       <c r="AQ9">
-        <v>0.24282764734629081</v>
+        <v>0.23948572639790505</v>
       </c>
       <c r="AR9">
-        <v>0.34475348887991641</v>
+        <v>0.34303692767727145</v>
       </c>
       <c r="AS9">
-        <v>0.16773367022299729</v>
+        <v>0.16577858814216209</v>
       </c>
       <c r="AT9">
-        <v>6.3020451775314651E-2</v>
+        <v>6.2262819779276085E-2</v>
       </c>
       <c r="AU9">
-        <v>0.11185702936130054</v>
+        <v>0.1103327056729233</v>
       </c>
       <c r="AV9">
-        <v>5.7333051373922472E-2</v>
+        <v>5.5324187131619018E-2</v>
       </c>
       <c r="AW9">
-        <v>-6.0802702458559649E-2</v>
+        <v>-6.2357182401934913E-2</v>
       </c>
       <c r="AX9">
-        <v>4.4907741247768931E-2</v>
+        <v>4.4306040083434806E-2</v>
       </c>
       <c r="AY9">
-        <v>8.0945269978077439E-3</v>
+        <v>7.3201778416118468E-3</v>
       </c>
       <c r="AZ9">
-        <v>-0.11241463030696541</v>
+        <v>-0.11389445756023187</v>
       </c>
       <c r="BA9">
-        <v>1.7870867003247248E-2</v>
+        <v>1.7667438770463728E-2</v>
       </c>
       <c r="BB9">
-        <v>3.013241034549749E-2</v>
+        <v>2.9212289649694273E-2</v>
       </c>
       <c r="BC9">
-        <v>0.17586585830324686</v>
+        <v>0.17039095149985894</v>
       </c>
       <c r="BD9">
-        <v>-7.8971468170106751E-2</v>
+        <v>-8.1789588139762504E-2</v>
       </c>
       <c r="BE9">
-        <v>0.48042506997167173</v>
+        <v>0.47874620407071278</v>
       </c>
       <c r="BF9">
-        <v>0.16976057170311487</v>
+        <v>0.16554760354789227</v>
       </c>
       <c r="BG9">
-        <v>0.11808564635409063</v>
+        <v>0.11411405298035882</v>
       </c>
       <c r="BH9">
-        <v>0.24114929125368351</v>
+        <v>0.23826757951011301</v>
       </c>
       <c r="BI9">
-        <v>3.2362169822609088E-2</v>
+        <v>2.603555015749548E-2</v>
       </c>
       <c r="BJ9">
-        <v>2.3863836736125965E-2</v>
+        <v>2.038809594398644E-2</v>
       </c>
       <c r="BK9">
-        <v>2.1875378851538563E-2</v>
+        <v>1.7071583903265075E-2</v>
       </c>
       <c r="BL9">
-        <v>4.1649904931245242E-4</v>
+        <v>3.5546077313531634E-4</v>
       </c>
       <c r="BM9">
-        <v>-6.1532666078215198E-3</v>
+        <v>-6.4540811956003558E-3</v>
       </c>
       <c r="BN9">
-        <v>6.5054191668765804E-3</v>
+        <v>6.3067905788240716E-3</v>
       </c>
       <c r="BO9">
-        <v>9.2454788146750372E-3</v>
+        <v>9.0096258597656131E-3</v>
       </c>
       <c r="BP9">
-        <v>6.1222420580964443E-3</v>
+        <v>5.8345323250404008E-3</v>
       </c>
       <c r="BQ9">
-        <v>8.609035323634287E-3</v>
+        <v>8.4576221755394351E-3</v>
       </c>
       <c r="BR9">
-        <v>1.3358390761106537E-2</v>
+        <v>1.3103128114739224E-2</v>
       </c>
       <c r="BS9">
-        <v>5.1567949028635617E-2</v>
+        <v>5.1350817945853368E-2</v>
       </c>
       <c r="BT9">
-        <v>7.1278474191384181E-3</v>
+        <v>6.968315947010896E-3</v>
       </c>
       <c r="BU9">
-        <v>3.7933382579457123E-2</v>
+        <v>3.7833894552523381E-2</v>
       </c>
       <c r="BV9">
-        <v>1.5992948135909422E-2</v>
+        <v>1.5693241978712122E-2</v>
       </c>
       <c r="BW9">
-        <v>4.1065267560079909E-2</v>
+        <v>4.07129002490094E-2</v>
       </c>
       <c r="BX9">
-        <v>4.0417883631682944E-2</v>
+        <v>3.9973433524552536E-2</v>
       </c>
       <c r="BY9">
-        <v>0.10305910577478847</v>
+        <v>0.10247419580706614</v>
       </c>
       <c r="BZ9">
-        <v>3.7842636853604249E-2</v>
+        <v>3.7588475026025095E-2</v>
       </c>
       <c r="CA9">
-        <v>0.11207494810668525</v>
+        <v>0.11122407375608304</v>
       </c>
       <c r="CB9">
-        <v>4.1423049870913567E-2</v>
+        <v>4.1162354916061787E-2</v>
       </c>
       <c r="CC9">
-        <v>6.9569801496146597E-2</v>
+        <v>6.8961837790887812E-2</v>
       </c>
       <c r="CD9">
-        <v>-9.792201428973496E-3</v>
+        <v>-9.253677123044951E-3</v>
       </c>
       <c r="CE9">
-        <v>-2.5055766440719843E-2</v>
+        <v>-2.3406267204860234E-2</v>
       </c>
       <c r="CF9">
-        <v>-2.9752374196584774E-2</v>
+        <v>-2.6754616508867624E-2</v>
       </c>
       <c r="CG9">
-        <v>-4.4734839432408496E-2</v>
+        <v>-4.4090517128671264E-2</v>
       </c>
       <c r="CH9">
-        <v>1.0095430810280331E-3</v>
+        <v>2.2556520872872021E-3</v>
       </c>
       <c r="CI9">
-        <v>3.1410891441649436E-3</v>
+        <v>5.460288057715923E-3</v>
       </c>
       <c r="CJ9">
-        <v>-1.2838524614332353E-2</v>
+        <v>-1.0797587419838439E-2</v>
       </c>
       <c r="CK9">
-        <v>5.7222692062186206E-4</v>
+        <v>7.5032717988778204E-4</v>
       </c>
       <c r="CL9">
-        <v>3.2246778762051618E-3</v>
+        <v>3.2603665751502831E-3</v>
       </c>
       <c r="CM9">
-        <v>3.4855297467333837E-3</v>
+        <v>3.5897186343906255E-3</v>
       </c>
       <c r="CN9">
-        <v>-3.2861545401942898E-3</v>
+        <v>-3.2185175427759359E-3</v>
       </c>
       <c r="CO9">
-        <v>-6.0536562630172826E-3</v>
+        <v>-5.76131576723375E-3</v>
       </c>
       <c r="CP9">
-        <v>4.0687292346614813E-4</v>
+        <v>4.7982282350070293E-4</v>
       </c>
       <c r="CQ9">
-        <v>-2.018556897708473E-3</v>
+        <v>-1.8215942517703122E-3</v>
       </c>
       <c r="CR9">
-        <v>-1.3091660063231456E-3</v>
+        <v>-1.239977886354297E-3</v>
       </c>
       <c r="CS9">
-        <v>-1.2468967652397403E-2</v>
+        <v>-1.2139109582259699E-2</v>
       </c>
       <c r="CT9">
         <v>8.7854586352278143E-3</v>
@@ -3599,295 +3599,295 @@
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2.2760697550896526E-2</v>
+        <v>2.2718993490140109E-2</v>
       </c>
       <c r="B10">
-        <v>-2.7433728839968974E-2</v>
+        <v>-2.7672275371680377E-2</v>
       </c>
       <c r="C10">
-        <v>0.12205238495194071</v>
+        <v>0.121782681529985</v>
       </c>
       <c r="D10">
-        <v>2.2249808830272E-2</v>
+        <v>2.200995186178184E-2</v>
       </c>
       <c r="E10">
-        <v>1.9129269087999556E-2</v>
+        <v>1.9104699281526874E-2</v>
       </c>
       <c r="F10">
-        <v>1.1334550402176224E-3</v>
+        <v>1.1322324591836455E-3</v>
       </c>
       <c r="G10">
-        <v>0.14282279014963617</v>
+        <v>0.14246153776788173</v>
       </c>
       <c r="H10">
-        <v>9.4953215177962125E-2</v>
+        <v>9.4644712071011716E-2</v>
       </c>
       <c r="I10">
-        <v>6.4192236099326339E-3</v>
+        <v>5.9163642987388743E-3</v>
       </c>
       <c r="J10">
-        <v>-2.1428307647102299E-4</v>
+        <v>-2.1445483323028749E-4</v>
       </c>
       <c r="K10">
-        <v>-1.167373435982043E-2</v>
+        <v>-1.1679328239274154E-2</v>
       </c>
       <c r="L10">
-        <v>-1.9702429890544309E-2</v>
+        <v>-1.9708023769998032E-2</v>
       </c>
       <c r="M10">
-        <v>-1.055553482834944</v>
+        <v>-1.0558531737346322</v>
       </c>
       <c r="N10">
-        <v>0.27743099974071822</v>
+        <v>0.27742646635389145</v>
       </c>
       <c r="O10">
-        <v>0.14110217419644078</v>
+        <v>0.14109726034167366</v>
       </c>
       <c r="P10">
-        <v>0.11093964571852594</v>
+        <v>0.11081107656112749</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.1004653898564794</v>
+        <v>0.10035195800125984</v>
       </c>
       <c r="S10">
-        <v>0.13041729693805282</v>
+        <v>0.13021886861814291</v>
       </c>
       <c r="T10">
-        <v>1.7372494487710055E-2</v>
+        <v>1.6893465924793571E-2</v>
       </c>
       <c r="U10">
-        <v>0.55637347381787161</v>
+        <v>0.55615736120900183</v>
       </c>
       <c r="V10">
-        <v>8.0828295247554194E-2</v>
+        <v>8.0357119788078024E-2</v>
       </c>
       <c r="W10">
-        <v>-4.1445048990834787E-2</v>
+        <v>-4.1939605254798118E-2</v>
       </c>
       <c r="X10">
-        <v>0.36863595966292173</v>
+        <v>0.36818919795901617</v>
       </c>
       <c r="Y10">
-        <v>-0.78956871080757629</v>
+        <v>-0.79075221077754587</v>
       </c>
       <c r="Z10">
-        <v>1.6969759352646996E-2</v>
+        <v>1.6503955374443935E-2</v>
       </c>
       <c r="AA10">
-        <v>-0.13536822518555625</v>
+        <v>-0.13589959404920116</v>
       </c>
       <c r="AB10">
-        <v>-0.25262113635535893</v>
+        <v>-0.25276222250920494</v>
       </c>
       <c r="AC10">
-        <v>0.12357825427793293</v>
+        <v>0.12353419015898978</v>
       </c>
       <c r="AD10">
-        <v>0.12372515678623444</v>
+        <v>0.12368255783413581</v>
       </c>
       <c r="AE10">
-        <v>-6.7567938055342863E-2</v>
+        <v>-6.7642540146223923E-2</v>
       </c>
       <c r="AF10">
-        <v>0.29662829750335645</v>
+        <v>0.29651848334514869</v>
       </c>
       <c r="AG10">
-        <v>-0.12929205348413886</v>
+        <v>-0.12942147294992806</v>
       </c>
       <c r="AH10">
-        <v>0.11286530153565849</v>
+        <v>0.11276210342858478</v>
       </c>
       <c r="AI10">
-        <v>0.18027811349973982</v>
+        <v>0.18023255269967275</v>
       </c>
       <c r="AJ10">
-        <v>3.5482549940828084E-2</v>
+        <v>3.5416015620615582E-2</v>
       </c>
       <c r="AK10">
-        <v>-0.13811494901570281</v>
+        <v>-0.13842959950505612</v>
       </c>
       <c r="AL10">
-        <v>1.2312825103339337E-2</v>
+        <v>1.2194840905170701E-2</v>
       </c>
       <c r="AM10">
-        <v>-1.0850773999076524E-3</v>
+        <v>-1.2329909522512117E-3</v>
       </c>
       <c r="AN10">
-        <v>0.10933737292256046</v>
+        <v>0.10904715291882522</v>
       </c>
       <c r="AO10">
-        <v>0.23938806202581978</v>
+        <v>0.23925012816369989</v>
       </c>
       <c r="AP10">
-        <v>0.19286362328921158</v>
+        <v>0.19259066768383987</v>
       </c>
       <c r="AQ10">
-        <v>0.22228279770746184</v>
+        <v>0.22205744202887989</v>
       </c>
       <c r="AR10">
-        <v>0.3231961444669772</v>
+        <v>0.3230803916348115</v>
       </c>
       <c r="AS10">
-        <v>0.16884846941119466</v>
+        <v>0.16871663240612639</v>
       </c>
       <c r="AT10">
-        <v>5.8532544921062191E-2</v>
+        <v>5.8476359162109498E-2</v>
       </c>
       <c r="AU10">
-        <v>3.7798821676034988E-2</v>
+        <v>3.7685778293800765E-2</v>
       </c>
       <c r="AV10">
-        <v>-3.3316092441861345E-2</v>
+        <v>-3.346506920456005E-2</v>
       </c>
       <c r="AW10">
-        <v>-0.10169304545783941</v>
+        <v>-0.10180832521879457</v>
       </c>
       <c r="AX10">
-        <v>3.4235651815385765E-2</v>
+        <v>3.4191029839601261E-2</v>
       </c>
       <c r="AY10">
-        <v>-4.380020619155596E-2</v>
+        <v>-4.3857631690033774E-2</v>
       </c>
       <c r="AZ10">
-        <v>-0.15092420264993808</v>
+        <v>-0.15103394619004515</v>
       </c>
       <c r="BA10">
-        <v>4.4943246749908419E-2</v>
+        <v>4.4928160573887467E-2</v>
       </c>
       <c r="BB10">
-        <v>9.5108315887591499E-3</v>
+        <v>9.4425957171327124E-3</v>
       </c>
       <c r="BC10">
-        <v>0.26835905034967433</v>
+        <v>0.26799248092426631</v>
       </c>
       <c r="BD10">
-        <v>-4.4852144299610985E-2</v>
+        <v>-4.5040829998766296E-2</v>
       </c>
       <c r="BE10">
-        <v>0.48275016776905577</v>
+        <v>0.48263776021021465</v>
       </c>
       <c r="BF10">
-        <v>0.18807516451061024</v>
+        <v>0.18779308750521423</v>
       </c>
       <c r="BG10">
-        <v>0.14890050981151476</v>
+        <v>0.14863459392413159</v>
       </c>
       <c r="BH10">
-        <v>0.30642452810091786</v>
+        <v>0.30623158464891642</v>
       </c>
       <c r="BI10">
-        <v>2.5273804918485743E-2</v>
+        <v>2.4850209518837874E-2</v>
       </c>
       <c r="BJ10">
-        <v>-8.7873117342007756E-3</v>
+        <v>-9.0200280800302735E-3</v>
       </c>
       <c r="BK10">
-        <v>2.7909381555396795E-2</v>
+        <v>2.7587746061459917E-2</v>
       </c>
       <c r="BL10">
-        <v>2.0802104928836079E-4</v>
+        <v>2.0405887266219253E-4</v>
       </c>
       <c r="BM10">
-        <v>-9.0272882368149926E-3</v>
+        <v>-9.0468150092462563E-3</v>
       </c>
       <c r="BN10">
-        <v>-7.1192213843975644E-4</v>
+        <v>-7.2481571273706052E-4</v>
       </c>
       <c r="BO10">
-        <v>1.3935567738664993E-2</v>
+        <v>1.392025781964891E-2</v>
       </c>
       <c r="BP10">
-        <v>-2.813206075253788E-3</v>
+        <v>-2.8318821724640925E-3</v>
       </c>
       <c r="BQ10">
-        <v>8.8469744166943948E-3</v>
+        <v>8.8371457374811294E-3</v>
       </c>
       <c r="BR10">
-        <v>6.6534517470044768E-3</v>
+        <v>6.6368818870032736E-3</v>
       </c>
       <c r="BS10">
-        <v>3.7057968111359856E-2</v>
+        <v>3.7043873484923856E-2</v>
       </c>
       <c r="BT10">
-        <v>2.1730775189989504E-3</v>
+        <v>2.1627218551501515E-3</v>
       </c>
       <c r="BU10">
-        <v>3.8621780749682255E-2</v>
+        <v>3.8614761633923605E-2</v>
       </c>
       <c r="BV10">
-        <v>2.9222893960518637E-2</v>
+        <v>2.9201748998788697E-2</v>
       </c>
       <c r="BW10">
-        <v>3.3986863478637136E-2</v>
+        <v>3.3962003153055711E-2</v>
       </c>
       <c r="BX10">
-        <v>4.7137377478700844E-2</v>
+        <v>4.7106020507934776E-2</v>
       </c>
       <c r="BY10">
-        <v>0.12154504075200658</v>
+        <v>0.1215037740300785</v>
       </c>
       <c r="BZ10">
-        <v>3.3651282856665264E-2</v>
+        <v>3.3633351149075716E-2</v>
       </c>
       <c r="CA10">
-        <v>0.11328978378091335</v>
+        <v>0.11322975271383387</v>
       </c>
       <c r="CB10">
-        <v>3.6318752748575059E-2</v>
+        <v>3.6300360113849565E-2</v>
       </c>
       <c r="CC10">
-        <v>6.8585398602287365E-2</v>
+        <v>6.8542505391286437E-2</v>
       </c>
       <c r="CD10">
-        <v>-4.5329343059430649E-3</v>
+        <v>-3.8364354138571838E-3</v>
       </c>
       <c r="CE10">
-        <v>-2.1286410485362617E-2</v>
+        <v>-1.839197722817193E-2</v>
       </c>
       <c r="CF10">
-        <v>-2.047689786637788E-2</v>
+        <v>-1.5638246941861583E-2</v>
       </c>
       <c r="CG10">
-        <v>-2.2230048871330899E-2</v>
+        <v>-2.1386288592359332E-2</v>
       </c>
       <c r="CH10">
-        <v>3.9233094695992898E-3</v>
+        <v>5.9239024715554423E-3</v>
       </c>
       <c r="CI10">
-        <v>2.4970827060371625E-2</v>
+        <v>2.840225667916435E-2</v>
       </c>
       <c r="CJ10">
-        <v>1.1600555498933018E-2</v>
+        <v>1.4589485660054219E-2</v>
       </c>
       <c r="CK10">
-        <v>-2.6845265456075691E-4</v>
+        <v>-2.5549007274567638E-4</v>
       </c>
       <c r="CL10">
-        <v>5.4214985538357692E-4</v>
+        <v>5.4607480125134361E-4</v>
       </c>
       <c r="CM10">
-        <v>5.888888283615802E-3</v>
+        <v>5.8920895390156894E-3</v>
       </c>
       <c r="CN10">
-        <v>-2.7308870031797989E-3</v>
+        <v>-2.7266419354212432E-3</v>
       </c>
       <c r="CO10">
-        <v>-5.5982148398376081E-3</v>
+        <v>-5.5793647141032573E-3</v>
       </c>
       <c r="CP10">
-        <v>1.7617687947242156E-3</v>
+        <v>1.7656241016293737E-3</v>
       </c>
       <c r="CQ10">
-        <v>-1.8643010976984887E-3</v>
+        <v>-1.8514047152964203E-3</v>
       </c>
       <c r="CR10">
-        <v>-1.7621857695565655E-3</v>
+        <v>-1.7573656421205168E-3</v>
       </c>
       <c r="CS10">
-        <v>-1.0211466586819583E-2</v>
+        <v>-1.019198328166415E-2</v>
       </c>
       <c r="CT10">
         <v>8.634653785119295E-3</v>
@@ -3919,295 +3919,295 @@
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2.17546005688459E-2</v>
+        <v>2.1653006105809253E-2</v>
       </c>
       <c r="B11">
-        <v>-5.310011096165973E-2</v>
+        <v>-5.3681229595167135E-2</v>
       </c>
       <c r="C11">
-        <v>-0.16095098565703458</v>
+        <v>-0.16160800499365913</v>
       </c>
       <c r="D11">
-        <v>-8.1141798185760616E-2</v>
+        <v>-8.1726109149186432E-2</v>
       </c>
       <c r="E11">
-        <v>9.6681883545310446E-3</v>
+        <v>9.6083343199303006E-3</v>
       </c>
       <c r="F11">
-        <v>1.064504809349884E-3</v>
+        <v>1.0615265031271174E-3</v>
       </c>
       <c r="G11">
-        <v>0.12979176369947798</v>
+        <v>0.12891172369667336</v>
       </c>
       <c r="H11">
-        <v>3.6568610596987794E-2</v>
+        <v>3.5817072091449464E-2</v>
       </c>
       <c r="I11">
-        <v>-0.16020919697800573</v>
+        <v>-0.16143420290733423</v>
       </c>
       <c r="J11">
-        <v>1.2853478592259335E-3</v>
+        <v>1.284916574537933E-3</v>
       </c>
       <c r="K11">
-        <v>-1.5897879529649793E-2</v>
+        <v>-1.5911925873824215E-2</v>
       </c>
       <c r="L11">
-        <v>-2.3590122100445553E-2</v>
+        <v>-2.3604168444619975E-2</v>
       </c>
       <c r="M11">
-        <v>-1.263835764520463</v>
+        <v>-1.264588294416358</v>
       </c>
       <c r="N11">
-        <v>-1.911788583517408E-2</v>
+        <v>-1.9129269260964959E-2</v>
       </c>
       <c r="O11">
-        <v>0.20191474165476325</v>
+        <v>0.20190240286629754</v>
       </c>
       <c r="P11">
-        <v>-1.2182217367297854E-2</v>
+        <v>-1.2505057115628548E-2</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>9.0501218560672947E-3</v>
+        <v>8.7652921789286298E-3</v>
       </c>
       <c r="S11">
-        <v>0.15040691717609167</v>
+        <v>0.15003117816227551</v>
       </c>
       <c r="T11">
-        <v>1.1001344439973137E-2</v>
+        <v>1.0094267668362744E-2</v>
       </c>
       <c r="U11">
-        <v>0.59527167967056593</v>
+        <v>0.59486245411966276</v>
       </c>
       <c r="V11">
-        <v>-2.2802169840856035E-2</v>
+        <v>-2.3694376167847642E-2</v>
       </c>
       <c r="W11">
-        <v>-1.5846111390163453E-2</v>
+        <v>-1.6782591036730521E-2</v>
       </c>
       <c r="X11">
-        <v>3.0485881093883282E-2</v>
+        <v>2.9639904057377153E-2</v>
       </c>
       <c r="Y11">
-        <v>-0.68345210841119974</v>
+        <v>-0.68569315501064487</v>
       </c>
       <c r="Z11">
-        <v>1.769142627544984E-2</v>
+        <v>1.6809391254032136E-2</v>
       </c>
       <c r="AA11">
-        <v>-6.7781968621129729E-2</v>
+        <v>-6.8788155706164589E-2</v>
       </c>
       <c r="AB11">
-        <v>-0.14860904431994304</v>
+        <v>-0.1488796370543003</v>
       </c>
       <c r="AC11">
-        <v>0.19646150664712542</v>
+        <v>0.19637699494908245</v>
       </c>
       <c r="AD11">
-        <v>0.23708138416260344</v>
+        <v>0.23699968254543621</v>
       </c>
       <c r="AE11">
-        <v>0.14771706534843715</v>
+        <v>0.1475739840948202</v>
       </c>
       <c r="AF11">
-        <v>0.31299349837138152</v>
+        <v>0.31278288299538232</v>
       </c>
       <c r="AG11">
-        <v>-0.16396567341534102</v>
+        <v>-0.16421389031099154</v>
       </c>
       <c r="AH11">
-        <v>0.10485468729969138</v>
+        <v>0.10465676101697452</v>
       </c>
       <c r="AI11">
-        <v>0.19850127018974256</v>
+        <v>0.1984138879687834</v>
       </c>
       <c r="AJ11">
-        <v>6.1605220967265617E-2</v>
+        <v>6.1477613096867806E-2</v>
       </c>
       <c r="AK11">
-        <v>-0.15280075234348656</v>
+        <v>-0.15349453846364358</v>
       </c>
       <c r="AL11">
-        <v>2.7475000272987743E-2</v>
+        <v>2.7214851943787671E-2</v>
       </c>
       <c r="AM11">
-        <v>-5.8610317114523913E-2</v>
+        <v>-5.8936457937663861E-2</v>
       </c>
       <c r="AN11">
-        <v>0.32990212359994719</v>
+        <v>0.32926220528678241</v>
       </c>
       <c r="AO11">
-        <v>0.24526893598533567</v>
+        <v>0.24496479980161281</v>
       </c>
       <c r="AP11">
-        <v>0.21719751576736684</v>
+        <v>0.21659566445350048</v>
       </c>
       <c r="AQ11">
-        <v>0.22300393426481674</v>
+        <v>0.22250703803490746</v>
       </c>
       <c r="AR11">
-        <v>0.26273402331760642</v>
+        <v>0.26247879502131333</v>
       </c>
       <c r="AS11">
-        <v>0.19550047224002451</v>
+        <v>0.19520977927327457</v>
       </c>
       <c r="AT11">
-        <v>0.1390022575330834</v>
+        <v>0.13889844487689451</v>
       </c>
       <c r="AU11">
-        <v>0.13690160236680027</v>
+        <v>0.13669273567187512</v>
       </c>
       <c r="AV11">
-        <v>8.1798964307674693E-2</v>
+        <v>8.1523704638063521E-2</v>
       </c>
       <c r="AW11">
-        <v>-1.8678665336804678E-2</v>
+        <v>-1.8891664118215634E-2</v>
       </c>
       <c r="AX11">
-        <v>6.2195285567712644E-2</v>
+        <v>6.2112838949264532E-2</v>
       </c>
       <c r="AY11">
-        <v>1.0981477938743184E-2</v>
+        <v>1.0875374654902681E-2</v>
       </c>
       <c r="AZ11">
-        <v>-9.1490342103147493E-2</v>
+        <v>-9.1693111783764991E-2</v>
       </c>
       <c r="BA11">
-        <v>7.789976999534047E-2</v>
+        <v>7.7871895743329617E-2</v>
       </c>
       <c r="BB11">
-        <v>0.13222122357991328</v>
+        <v>0.13209514631028219</v>
       </c>
       <c r="BC11">
-        <v>0.21384885583065694</v>
+        <v>0.21309428108298323</v>
       </c>
       <c r="BD11">
-        <v>-5.1899926845010991E-3</v>
+        <v>-5.5783978649694421E-3</v>
       </c>
       <c r="BE11">
-        <v>0.42014593268763195</v>
+        <v>0.41991454430805075</v>
       </c>
       <c r="BF11">
-        <v>0.1823113052658486</v>
+        <v>0.18173065622526269</v>
       </c>
       <c r="BG11">
-        <v>0.15878010018612393</v>
+        <v>0.15823271843599213</v>
       </c>
       <c r="BH11">
-        <v>0.36825024959088748</v>
+        <v>0.36785307992392119</v>
       </c>
       <c r="BI11">
-        <v>1.8348266644372169E-2</v>
+        <v>1.7476305237745682E-2</v>
       </c>
       <c r="BJ11">
-        <v>7.1501033258353774E-3</v>
+        <v>6.6710620699029222E-3</v>
       </c>
       <c r="BK11">
-        <v>2.3575460898425771E-2</v>
+        <v>2.2913381617235662E-2</v>
       </c>
       <c r="BL11">
-        <v>8.4140260159200862E-4</v>
+        <v>8.3341986521682718E-4</v>
       </c>
       <c r="BM11">
-        <v>-2.6167068180168639E-2</v>
+        <v>-2.6206409454242012E-2</v>
       </c>
       <c r="BN11">
-        <v>5.1955352580499714E-3</v>
+        <v>5.1695581211728195E-3</v>
       </c>
       <c r="BO11">
-        <v>1.0564842938055277E-2</v>
+        <v>1.0533997506626529E-2</v>
       </c>
       <c r="BP11">
-        <v>3.0590776801765168E-2</v>
+        <v>3.0553149412929734E-2</v>
       </c>
       <c r="BQ11">
-        <v>2.5788792675989672E-2</v>
+        <v>2.5768990490857978E-2</v>
       </c>
       <c r="BR11">
-        <v>2.842962154200649E-2</v>
+        <v>2.839623766323391E-2</v>
       </c>
       <c r="BS11">
-        <v>-9.9554728496940165E-3</v>
+        <v>-9.9838697884883087E-3</v>
       </c>
       <c r="BT11">
-        <v>8.2137379292697293E-3</v>
+        <v>8.1928740096884542E-3</v>
       </c>
       <c r="BU11">
-        <v>3.081826890042217E-2</v>
+        <v>3.0802423628574153E-2</v>
       </c>
       <c r="BV11">
-        <v>1.2329408408904799E-2</v>
+        <v>1.228167479460985E-2</v>
       </c>
       <c r="BW11">
-        <v>4.3991678441535294E-2</v>
+        <v>4.3935557588798774E-2</v>
       </c>
       <c r="BX11">
-        <v>0.11331586439762188</v>
+        <v>0.1132450777070633</v>
       </c>
       <c r="BY11">
-        <v>0.11807695785327334</v>
+        <v>0.11798380040852004</v>
       </c>
       <c r="BZ11">
-        <v>4.4761822128006411E-2</v>
+        <v>4.4721342264859423E-2</v>
       </c>
       <c r="CA11">
-        <v>0.12545053078652163</v>
+        <v>0.12531501377147458</v>
       </c>
       <c r="CB11">
-        <v>5.2578774404077981E-2</v>
+        <v>5.2537254022377008E-2</v>
       </c>
       <c r="CC11">
-        <v>8.4597638595542576E-2</v>
+        <v>8.4500809434385871E-2</v>
       </c>
       <c r="CD11">
-        <v>-8.3603257667304309E-4</v>
+        <v>-3.2144391437070874E-4</v>
       </c>
       <c r="CE11">
-        <v>-1.6947444274351853E-2</v>
+        <v>-1.5267252514170937E-2</v>
       </c>
       <c r="CF11">
-        <v>-1.0861305848875652E-2</v>
+        <v>-8.3689698646875754E-3</v>
       </c>
       <c r="CG11">
-        <v>-3.076454612184773E-2</v>
+        <v>-3.0618205966625123E-2</v>
       </c>
       <c r="CH11">
-        <v>-2.7818507476177617E-3</v>
+        <v>-1.7349204623442471E-3</v>
       </c>
       <c r="CI11">
-        <v>3.109185771080103E-3</v>
+        <v>4.5376404046627017E-3</v>
       </c>
       <c r="CJ11">
-        <v>3.7460681693988751E-3</v>
+        <v>5.2612830554308043E-3</v>
       </c>
       <c r="CK11">
-        <v>2.0596610755161436E-3</v>
+        <v>2.0796399854798742E-3</v>
       </c>
       <c r="CL11">
-        <v>2.5817032639200649E-3</v>
+        <v>2.5873556583966241E-3</v>
       </c>
       <c r="CM11">
-        <v>5.3563216570101345E-3</v>
+        <v>5.3648134550973708E-3</v>
       </c>
       <c r="CN11">
-        <v>-3.5764378425008157E-3</v>
+        <v>-3.5657979379163703E-3</v>
       </c>
       <c r="CO11">
-        <v>-4.3762197107393014E-3</v>
+        <v>-4.3406175551198196E-3</v>
       </c>
       <c r="CP11">
-        <v>8.2278338640272806E-5</v>
+        <v>9.2810377165357567E-5</v>
       </c>
       <c r="CQ11">
-        <v>-2.2510376662177693E-3</v>
+        <v>-2.2229714736549718E-3</v>
       </c>
       <c r="CR11">
-        <v>-2.5457660509200994E-3</v>
+        <v>-2.5348179399752573E-3</v>
       </c>
       <c r="CS11">
-        <v>-7.8997959050859014E-3</v>
+        <v>-7.8644819190233119E-3</v>
       </c>
       <c r="CT11">
         <v>8.6089864611967569E-3</v>
@@ -4239,295 +4239,295 @@
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4.9742693738037684E-2</v>
+        <v>4.9193056802060368E-2</v>
       </c>
       <c r="B12">
-        <v>0.10109153405448684</v>
+        <v>9.7947619951165243E-2</v>
       </c>
       <c r="C12">
-        <v>-9.7936404996127657E-2</v>
+        <v>-0.10149095003988534</v>
       </c>
       <c r="D12">
-        <v>-6.1646190582662685E-2</v>
+        <v>-6.4807375533061651E-2</v>
       </c>
       <c r="E12">
-        <v>2.5212397692418918E-2</v>
+        <v>2.4888580948863044E-2</v>
       </c>
       <c r="F12">
-        <v>3.247635839023026E-3</v>
+        <v>3.2315228830827637E-3</v>
       </c>
       <c r="G12">
-        <v>0.19682805014009674</v>
+        <v>0.19206693938443925</v>
       </c>
       <c r="H12">
-        <v>0.1852784271479801</v>
+        <v>0.1812125232679232</v>
       </c>
       <c r="I12">
-        <v>-4.8725937198459413E-2</v>
+        <v>-5.535335059703439E-2</v>
       </c>
       <c r="J12">
-        <v>4.9620834811947513E-4</v>
+        <v>4.9356539065318337E-4</v>
       </c>
       <c r="K12">
-        <v>-1.5616671823964048E-2</v>
+        <v>-1.570274928333781E-2</v>
       </c>
       <c r="L12">
-        <v>-2.1734833471841054E-2</v>
+        <v>-2.1820910931214816E-2</v>
       </c>
       <c r="M12">
-        <v>-1.1644390716015147</v>
+        <v>-1.1690506531445179</v>
       </c>
       <c r="N12">
-        <v>-1.7614324469873332E-2</v>
+        <v>-1.7684083288173721E-2</v>
       </c>
       <c r="O12">
-        <v>0.21748826720237027</v>
+        <v>0.21741265382214206</v>
       </c>
       <c r="P12">
-        <v>6.5662630819131262E-2</v>
+        <v>6.3684235232629449E-2</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>7.3237064189326573E-2</v>
+        <v>7.1491598276069102E-2</v>
       </c>
       <c r="S12">
-        <v>0.23727360838862122</v>
+        <v>0.23577539083383128</v>
       </c>
       <c r="T12">
-        <v>0.27340103794706161</v>
+        <v>0.26978417014042549</v>
       </c>
       <c r="U12">
-        <v>0.43270539205098241</v>
+        <v>0.43107365065153425</v>
       </c>
       <c r="V12">
-        <v>0.28360101848332414</v>
+        <v>0.28004344492177918</v>
       </c>
       <c r="W12">
-        <v>0.25680373526459538</v>
+        <v>0.25306962676215317</v>
       </c>
       <c r="X12">
-        <v>0.33390665724651664</v>
+        <v>0.33053341784246909</v>
       </c>
       <c r="Y12">
-        <v>-0.22465390606777158</v>
+        <v>-0.23358983029424452</v>
       </c>
       <c r="Z12">
-        <v>0.30298331709243603</v>
+        <v>0.29946630048134215</v>
       </c>
       <c r="AA12">
-        <v>0.23155390059534059</v>
+        <v>0.22754184142988076</v>
       </c>
       <c r="AB12">
-        <v>-0.17053172035285719</v>
+        <v>-0.17247720779036763</v>
       </c>
       <c r="AC12">
-        <v>8.2759520604040043E-2</v>
+        <v>8.2151904707568502E-2</v>
       </c>
       <c r="AD12">
-        <v>3.8977100416069721E-2</v>
+        <v>3.8389688229261976E-2</v>
       </c>
       <c r="AE12">
-        <v>-9.7374196844573574E-2</v>
+        <v>-9.8402911758579098E-2</v>
       </c>
       <c r="AF12">
-        <v>0.22824592927979909</v>
+        <v>0.22673166257516614</v>
       </c>
       <c r="AG12">
-        <v>-0.19157402672473806</v>
+        <v>-0.19335863802781988</v>
       </c>
       <c r="AH12">
-        <v>9.8511210566828766E-2</v>
+        <v>9.7088174957637385E-2</v>
       </c>
       <c r="AI12">
-        <v>9.9665368590751147E-2</v>
+        <v>9.903711442294591E-2</v>
       </c>
       <c r="AJ12">
-        <v>2.5276564587221662E-2</v>
+        <v>2.4359099048555238E-2</v>
       </c>
       <c r="AK12">
-        <v>-0.15213663140890671</v>
+        <v>-0.15687756838847777</v>
       </c>
       <c r="AL12">
-        <v>4.641864666682638E-2</v>
+        <v>4.4640941984871785E-2</v>
       </c>
       <c r="AM12">
-        <v>8.8766980733188117E-3</v>
+        <v>6.6480384849399721E-3</v>
       </c>
       <c r="AN12">
-        <v>0.22333721841764159</v>
+        <v>0.21896438317830147</v>
       </c>
       <c r="AO12">
-        <v>0.27457374000874635</v>
+        <v>0.2724954475230002</v>
       </c>
       <c r="AP12">
-        <v>0.23430944862581232</v>
+        <v>0.230196741456827</v>
       </c>
       <c r="AQ12">
-        <v>0.29145111189873368</v>
+        <v>0.28805560766055027</v>
       </c>
       <c r="AR12">
-        <v>0.27687020589859951</v>
+        <v>0.27512612190358532</v>
       </c>
       <c r="AS12">
-        <v>0.21250394894238975</v>
+        <v>0.21051751970184202</v>
       </c>
       <c r="AT12">
-        <v>0.16333432854150839</v>
+        <v>0.16273629976131107</v>
       </c>
       <c r="AU12">
-        <v>0.23507580632593333</v>
+        <v>0.2338725975903565</v>
       </c>
       <c r="AV12">
-        <v>0.20983000598240181</v>
+        <v>0.20824433029989592</v>
       </c>
       <c r="AW12">
-        <v>6.0633909219013293E-2</v>
+        <v>5.9406896963408118E-2</v>
       </c>
       <c r="AX12">
-        <v>7.0873268240697396E-2</v>
+        <v>7.0398321808614911E-2</v>
       </c>
       <c r="AY12">
-        <v>6.9210188085917029E-2</v>
+        <v>6.8598963792661227E-2</v>
       </c>
       <c r="AZ12">
-        <v>-5.0593194391701124E-2</v>
+        <v>-5.1761280338177756E-2</v>
       </c>
       <c r="BA12">
-        <v>6.432495745343654E-2</v>
+        <v>6.4164383535564362E-2</v>
       </c>
       <c r="BB12">
-        <v>0.14762809554044248</v>
+        <v>0.14690180802853345</v>
       </c>
       <c r="BC12">
-        <v>0.2416918020280322</v>
+        <v>0.2368644556392232</v>
       </c>
       <c r="BD12">
-        <v>-4.7443557146959747E-3</v>
+        <v>-7.2291544057585255E-3</v>
       </c>
       <c r="BE12">
-        <v>0.4299888725499772</v>
+        <v>0.42850857936228792</v>
       </c>
       <c r="BF12">
-        <v>0.21082447523980807</v>
+        <v>0.20710980806087159</v>
       </c>
       <c r="BG12">
-        <v>0.17170672506318024</v>
+        <v>0.16820488336632461</v>
       </c>
       <c r="BH12">
-        <v>0.36646996912177876</v>
+        <v>0.36392910015752433</v>
       </c>
       <c r="BI12">
-        <v>5.3163997870478763E-2</v>
+        <v>4.7585677418547911E-2</v>
       </c>
       <c r="BJ12">
-        <v>6.6436523330946629E-2</v>
+        <v>6.3371885819493878E-2</v>
       </c>
       <c r="BK12">
-        <v>4.7735137208219369E-2</v>
+        <v>4.3499524981582549E-2</v>
       </c>
       <c r="BL12">
-        <v>5.6376608909002469E-3</v>
+        <v>5.5833816911372239E-3</v>
       </c>
       <c r="BM12">
-        <v>-9.9879513394974112E-3</v>
+        <v>-1.025545520959846E-2</v>
       </c>
       <c r="BN12">
-        <v>1.7880697952638115E-2</v>
+        <v>1.7704064510725988E-2</v>
       </c>
       <c r="BO12">
-        <v>1.5532772867600589E-2</v>
+        <v>1.5323037100865022E-2</v>
       </c>
       <c r="BP12">
-        <v>5.1418243289533816E-2</v>
+        <v>5.1162393107444859E-2</v>
       </c>
       <c r="BQ12">
-        <v>4.1491294972930623E-2</v>
+        <v>4.1356648566987918E-2</v>
       </c>
       <c r="BR12">
-        <v>4.2497066328767104E-2</v>
+        <v>4.2270070203679934E-2</v>
       </c>
       <c r="BS12">
-        <v>-1.1838393780372963E-2</v>
+        <v>-1.2031480842381356E-2</v>
       </c>
       <c r="BT12">
-        <v>1.8014952728009369E-2</v>
+        <v>1.787308698103169E-2</v>
       </c>
       <c r="BU12">
-        <v>3.581048588718095E-2</v>
+        <v>3.5700951660664601E-2</v>
       </c>
       <c r="BV12">
-        <v>2.0273208736091439E-2</v>
+        <v>1.9943238651079283E-2</v>
       </c>
       <c r="BW12">
-        <v>3.9894225074983011E-2</v>
+        <v>3.9506276164777233E-2</v>
       </c>
       <c r="BX12">
-        <v>0.16845969299466393</v>
+        <v>0.16797036289780945</v>
       </c>
       <c r="BY12">
-        <v>0.12664337060917746</v>
+        <v>0.12599939716855113</v>
       </c>
       <c r="BZ12">
-        <v>3.8833870687168093E-2</v>
+        <v>3.8554043915268205E-2</v>
       </c>
       <c r="CA12">
-        <v>0.15213709733237957</v>
+        <v>0.1512003028035532</v>
       </c>
       <c r="CB12">
-        <v>5.9358450082416359E-2</v>
+        <v>5.9071430474107262E-2</v>
       </c>
       <c r="CC12">
-        <v>9.6264523971991478E-2</v>
+        <v>9.5595168883453374E-2</v>
       </c>
       <c r="CD12">
-        <v>3.2167752358280288E-3</v>
+        <v>3.4093637597611692E-3</v>
       </c>
       <c r="CE12">
-        <v>-6.0052022930872362E-3</v>
+        <v>-6.903762764848026E-3</v>
       </c>
       <c r="CF12">
-        <v>-3.3338171954768181E-3</v>
+        <v>-5.6268723224512374E-3</v>
       </c>
       <c r="CG12">
-        <v>-4.7531014845089398E-2</v>
+        <v>-4.8125689803431571E-2</v>
       </c>
       <c r="CH12">
-        <v>-3.820833922673017E-3</v>
+        <v>-4.4575649000125617E-3</v>
       </c>
       <c r="CI12">
-        <v>1.1582028252696497E-2</v>
+        <v>1.1071378933032949E-2</v>
       </c>
       <c r="CJ12">
-        <v>7.4184601357269453E-3</v>
+        <v>6.1360775930792699E-3</v>
       </c>
       <c r="CK12">
-        <v>-1.5148279713319609E-3</v>
+        <v>-1.312805110272602E-3</v>
       </c>
       <c r="CL12">
-        <v>1.741633856781887E-3</v>
+        <v>1.785998781772268E-3</v>
       </c>
       <c r="CM12">
-        <v>-1.1824866461951355E-4</v>
+        <v>6.4476073950773399E-5</v>
       </c>
       <c r="CN12">
-        <v>-2.6628253765043457E-3</v>
+        <v>-2.6025657056456038E-3</v>
       </c>
       <c r="CO12">
-        <v>-3.795088408002141E-3</v>
+        <v>-3.5723901967998403E-3</v>
       </c>
       <c r="CP12">
-        <v>-2.3900359530225086E-3</v>
+        <v>-2.2959161519258055E-3</v>
       </c>
       <c r="CQ12">
-        <v>-3.05829021935595E-3</v>
+        <v>-2.8574379277016733E-3</v>
       </c>
       <c r="CR12">
-        <v>-2.1175004152662186E-3</v>
+        <v>-2.0481754736222779E-3</v>
       </c>
       <c r="CS12">
-        <v>-6.834457228548689E-3</v>
+        <v>-6.6178847753818239E-3</v>
       </c>
       <c r="CT12">
         <v>8.5449654085247764E-3</v>
@@ -4559,295 +4559,295 @@
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2.8007758518473577E-2</v>
+        <v>2.7008267452004936E-2</v>
       </c>
       <c r="B13">
-        <v>1.0520807116164765E-2</v>
+        <v>4.803734892065703E-3</v>
       </c>
       <c r="C13">
-        <v>-7.377297805156352E-2</v>
+        <v>-8.0236764933496962E-2</v>
       </c>
       <c r="D13">
-        <v>-1.4459511969170835E-2</v>
+        <v>-2.0207990483921578E-2</v>
       </c>
       <c r="E13">
-        <v>2.970408030667706E-2</v>
+        <v>2.9115233522241844E-2</v>
       </c>
       <c r="F13">
-        <v>3.8243386387646163E-4</v>
+        <v>3.5313314832673137E-4</v>
       </c>
       <c r="G13">
-        <v>5.4039204153507936E-2</v>
+        <v>4.5381329554367245E-2</v>
       </c>
       <c r="H13">
-        <v>0.23512430256640104</v>
+        <v>0.22773063169162405</v>
       </c>
       <c r="I13">
-        <v>-8.2366992925233751E-2</v>
+        <v>-9.4418658401267064E-2</v>
       </c>
       <c r="J13">
-        <v>6.3151093535384196E-4</v>
+        <v>6.2779614341902808E-4</v>
       </c>
       <c r="K13">
-        <v>-1.2981804198658672E-2</v>
+        <v>-1.3102789820231883E-2</v>
       </c>
       <c r="L13">
-        <v>-1.8701982119448436E-2</v>
+        <v>-1.8822967741021646E-2</v>
       </c>
       <c r="M13">
-        <v>-0.90584062727771786</v>
+        <v>-0.91232240617169269</v>
       </c>
       <c r="N13">
-        <v>-1.1748930492973011E-2</v>
+        <v>-1.1846979553129862E-2</v>
       </c>
       <c r="O13">
-        <v>0.18190365507579409</v>
+        <v>0.18179737717362646</v>
       </c>
       <c r="P13">
-        <v>7.2638985024045644E-2</v>
+        <v>6.9858263781898966E-2</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>9.5278326260637425E-2</v>
+        <v>9.2824997828470701E-2</v>
       </c>
       <c r="S13">
-        <v>0.35743145720607916</v>
+        <v>0.35524104476512652</v>
       </c>
       <c r="T13">
-        <v>0.31997045996710555</v>
+        <v>0.31468255487240954</v>
       </c>
       <c r="U13">
-        <v>0.42978525892263691</v>
+        <v>0.42739963298310524</v>
       </c>
       <c r="V13">
-        <v>0.3093605522072882</v>
+        <v>0.30415933602616779</v>
       </c>
       <c r="W13">
-        <v>0.29225581151101648</v>
+        <v>0.28679649908107829</v>
       </c>
       <c r="X13">
-        <v>0.33767710371476922</v>
+        <v>0.33274538633279444</v>
       </c>
       <c r="Y13">
-        <v>-8.4350698931832224E-2</v>
+        <v>-9.7415129751307172E-2</v>
       </c>
       <c r="Z13">
-        <v>0.32600149640642023</v>
+        <v>0.32085957498429601</v>
       </c>
       <c r="AA13">
-        <v>0.27306338398187069</v>
+        <v>0.26719770427349659</v>
       </c>
       <c r="AB13">
-        <v>-8.0763897239550797E-3</v>
+        <v>-1.1390929007183082E-2</v>
       </c>
       <c r="AC13">
-        <v>0.16740794758548017</v>
+        <v>0.16637274852989231</v>
       </c>
       <c r="AD13">
-        <v>0.17300972973870429</v>
+        <v>0.17200895187137832</v>
       </c>
       <c r="AE13">
-        <v>0.13404497492158651</v>
+        <v>0.13229234679972252</v>
       </c>
       <c r="AF13">
-        <v>0.33328028761316991</v>
+        <v>0.33070042182682852</v>
       </c>
       <c r="AG13">
-        <v>-0.26174717011714338</v>
+        <v>-0.26478762371006248</v>
       </c>
       <c r="AH13">
-        <v>0.11578393363528661</v>
+        <v>0.11335949884472685</v>
       </c>
       <c r="AI13">
-        <v>0.17271493385246134</v>
+        <v>0.17164457324313914</v>
       </c>
       <c r="AJ13">
-        <v>3.8077568971386921E-2</v>
+        <v>3.651447711569783E-2</v>
       </c>
       <c r="AK13">
-        <v>-0.16355857968791443</v>
+        <v>-0.17146491014040893</v>
       </c>
       <c r="AL13">
-        <v>0.10403658339595329</v>
+        <v>0.10107195409945685</v>
       </c>
       <c r="AM13">
-        <v>3.9814247651910883E-3</v>
+        <v>2.6475035087777932E-4</v>
       </c>
       <c r="AN13">
-        <v>0.10835635541494665</v>
+        <v>0.1010638981294959</v>
       </c>
       <c r="AO13">
-        <v>0.29356039359274816</v>
+        <v>0.29009448226761347</v>
       </c>
       <c r="AP13">
-        <v>0.13907362643868532</v>
+        <v>0.13221497759512207</v>
       </c>
       <c r="AQ13">
-        <v>0.28491801690347529</v>
+        <v>0.27925542769893519</v>
       </c>
       <c r="AR13">
-        <v>0.29681650079939048</v>
+        <v>0.29390793979954855</v>
       </c>
       <c r="AS13">
-        <v>0.20611023368046194</v>
+        <v>0.20279752016751218</v>
       </c>
       <c r="AT13">
-        <v>0.11941589582181261</v>
+        <v>0.11846884993394831</v>
       </c>
       <c r="AU13">
-        <v>0.14044952160842844</v>
+        <v>0.13854410514185889</v>
       </c>
       <c r="AV13">
-        <v>4.7014385933365099E-2</v>
+        <v>4.4503290005660445E-2</v>
       </c>
       <c r="AW13">
-        <v>2.6701728318286488E-2</v>
+        <v>2.4758616298415914E-2</v>
       </c>
       <c r="AX13">
-        <v>7.6861816214037912E-2</v>
+        <v>7.6109685078624797E-2</v>
       </c>
       <c r="AY13">
-        <v>5.1266893861251064E-2</v>
+        <v>5.0298951393165037E-2</v>
       </c>
       <c r="AZ13">
-        <v>-9.1471476393168993E-3</v>
+        <v>-1.0996943215907357E-2</v>
       </c>
       <c r="BA13">
-        <v>6.480464056595181E-2</v>
+        <v>6.4550353692719858E-2</v>
       </c>
       <c r="BB13">
-        <v>0.1605621978076919</v>
+        <v>0.15941203978129442</v>
       </c>
       <c r="BC13">
-        <v>0.27600751862444128</v>
+        <v>0.26831184510037542</v>
       </c>
       <c r="BD13">
-        <v>1.1364234504255388E-2</v>
+        <v>7.4030106849383437E-3</v>
       </c>
       <c r="BE13">
-        <v>0.53584261722635351</v>
+        <v>0.53348275899890907</v>
       </c>
       <c r="BF13">
-        <v>0.24527063974640784</v>
+        <v>0.23934878049762265</v>
       </c>
       <c r="BG13">
-        <v>0.1842859314312929</v>
+        <v>0.17870335494694611</v>
       </c>
       <c r="BH13">
-        <v>0.38109653663440701</v>
+        <v>0.37704592653904212</v>
       </c>
       <c r="BI13">
-        <v>8.3654694190517076E-2</v>
+        <v>7.4761830585328037E-2</v>
       </c>
       <c r="BJ13">
-        <v>0.15358785758646792</v>
+        <v>0.14870226457983776</v>
       </c>
       <c r="BK13">
-        <v>6.1870811419841742E-2</v>
+        <v>5.5118470434677658E-2</v>
       </c>
       <c r="BL13">
-        <v>5.4948593402420042E-3</v>
+        <v>5.4037428661385164E-3</v>
       </c>
       <c r="BM13">
-        <v>-3.7602127662079439E-2</v>
+        <v>-3.8051176460865317E-2</v>
       </c>
       <c r="BN13">
-        <v>1.5101285559832804E-2</v>
+        <v>1.4804777569551786E-2</v>
       </c>
       <c r="BO13">
-        <v>1.183717759937597E-2</v>
+        <v>1.1485101967425422E-2</v>
       </c>
       <c r="BP13">
-        <v>3.8854254315903877E-2</v>
+        <v>3.8424768129805706E-2</v>
       </c>
       <c r="BQ13">
-        <v>3.7923339532493883E-2</v>
+        <v>3.7697313618077891E-2</v>
       </c>
       <c r="BR13">
-        <v>3.8203042985147213E-2</v>
+        <v>3.7821993031511264E-2</v>
       </c>
       <c r="BS13">
-        <v>-1.3141035557759029E-2</v>
+        <v>-1.3465163628217265E-2</v>
       </c>
       <c r="BT13">
-        <v>1.9295638165829396E-2</v>
+        <v>1.9057493412091335E-2</v>
       </c>
       <c r="BU13">
-        <v>2.2902525082998379E-2</v>
+        <v>2.2717053659537165E-2</v>
       </c>
       <c r="BV13">
-        <v>2.6069456156603762E-2</v>
+        <v>2.5510726485892046E-2</v>
       </c>
       <c r="BW13">
-        <v>2.5647145169577744E-2</v>
+        <v>2.4990241475638893E-2</v>
       </c>
       <c r="BX13">
-        <v>0.19510177665716472</v>
+        <v>0.19427320685838728</v>
       </c>
       <c r="BY13">
-        <v>0.1417786155521793</v>
+        <v>0.14068819222989493</v>
       </c>
       <c r="BZ13">
-        <v>4.3223509874599574E-2</v>
+        <v>4.2749686559482247E-2</v>
       </c>
       <c r="CA13">
-        <v>0.1580942483687745</v>
+        <v>0.15650799875200599</v>
       </c>
       <c r="CB13">
-        <v>6.4738935506927789E-2</v>
+        <v>6.4252932750801309E-2</v>
       </c>
       <c r="CC13">
-        <v>9.688364194068004E-2</v>
+        <v>9.5750240538253636E-2</v>
       </c>
       <c r="CD13">
-        <v>7.8981121093986417E-3</v>
+        <v>7.8070696986541066E-3</v>
       </c>
       <c r="CE13">
-        <v>-1.8712128495319003E-2</v>
+        <v>-2.1718095823439726E-2</v>
       </c>
       <c r="CF13">
-        <v>-1.4739994339123985E-2</v>
+        <v>-2.1068221600301806E-2</v>
       </c>
       <c r="CG13">
-        <v>-6.8491872736757498E-2</v>
+        <v>-6.9752057932072065E-2</v>
       </c>
       <c r="CH13">
-        <v>-7.0408724870111572E-3</v>
+        <v>-9.2302711179771957E-3</v>
       </c>
       <c r="CI13">
-        <v>-4.4761342699351503E-3</v>
+        <v>-7.922398367034178E-3</v>
       </c>
       <c r="CJ13">
-        <v>-9.4909121956865405E-4</v>
+        <v>-4.4063698119603534E-3</v>
       </c>
       <c r="CK13">
-        <v>4.2586626025362291E-4</v>
+        <v>6.8963623719579814E-4</v>
       </c>
       <c r="CL13">
-        <v>-5.6993952699593842E-4</v>
+        <v>-4.7118940658577493E-4</v>
       </c>
       <c r="CM13">
-        <v>-2.8254536815065841E-3</v>
+        <v>-2.4415923496669111E-3</v>
       </c>
       <c r="CN13">
-        <v>-2.7823757689744511E-3</v>
+        <v>-2.6922287110497786E-3</v>
       </c>
       <c r="CO13">
-        <v>-3.6967771265585944E-3</v>
+        <v>-3.3496758183331468E-3</v>
       </c>
       <c r="CP13">
-        <v>-3.356477365985531E-3</v>
+        <v>-3.1930700460381578E-3</v>
       </c>
       <c r="CQ13">
-        <v>-3.933547457741716E-3</v>
+        <v>-3.590271327838815E-3</v>
       </c>
       <c r="CR13">
-        <v>-1.9466648749795245E-3</v>
+        <v>-1.8398389023771078E-3</v>
       </c>
       <c r="CS13">
-        <v>-6.2307684311622121E-3</v>
+        <v>-5.9024606254532439E-3</v>
       </c>
       <c r="CT13">
         <v>8.5282451578290661E-3</v>
@@ -4879,295 +4879,295 @@
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.11510535451240336</v>
+        <v>0.1140300312559953</v>
       </c>
       <c r="B14">
-        <v>8.0503732758235247E-2</v>
+        <v>7.4352901672912031E-2</v>
       </c>
       <c r="C14">
-        <v>0.5291157908167492</v>
+        <v>0.52216159123278882</v>
       </c>
       <c r="D14">
-        <v>0.41415464450604922</v>
+        <v>0.40797002430957907</v>
       </c>
       <c r="E14">
-        <v>6.4223988641158331E-2</v>
+        <v>6.3590465578264449E-2</v>
       </c>
       <c r="F14">
-        <v>-6.5365676677230262E-5</v>
+        <v>-9.6889461048154909E-5</v>
       </c>
       <c r="G14">
-        <v>0.43380262981411433</v>
+        <v>0.42448787531569315</v>
       </c>
       <c r="H14">
-        <v>0.42942389607581716</v>
+        <v>0.4214692614536536</v>
       </c>
       <c r="I14">
-        <v>-2.8889179698846967E-2</v>
+        <v>-4.1855214713663269E-2</v>
       </c>
       <c r="J14">
-        <v>5.4286548094167929E-3</v>
+        <v>5.423985727402404E-3</v>
       </c>
       <c r="K14">
-        <v>-9.5900968283356494E-3</v>
+        <v>-9.7421623543730747E-3</v>
       </c>
       <c r="L14">
-        <v>-1.9560546386439656E-2</v>
+        <v>-1.9712611912477081E-2</v>
       </c>
       <c r="M14">
-        <v>-0.86183199881339601</v>
+        <v>-0.86997887696597198</v>
       </c>
       <c r="N14">
-        <v>-1.2974044229028092E-2</v>
+        <v>-1.3097281037802153E-2</v>
       </c>
       <c r="O14">
-        <v>0.17946515466785035</v>
+        <v>0.17933157511608935</v>
       </c>
       <c r="P14">
-        <v>9.223694980843522E-3</v>
+        <v>5.7286363701422038E-3</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>2.9868541231208301E-2</v>
+        <v>2.6784979120860586E-2</v>
       </c>
       <c r="S14">
-        <v>0.40339137363332978</v>
+        <v>0.39992896030367897</v>
       </c>
       <c r="T14">
-        <v>0.33597835780085378</v>
+        <v>0.32761969769488702</v>
       </c>
       <c r="U14">
-        <v>0.49193202137856157</v>
+        <v>0.48816103154205243</v>
       </c>
       <c r="V14">
-        <v>0.35315133906588181</v>
+        <v>0.34492970924895339</v>
       </c>
       <c r="W14">
-        <v>0.18936206544275958</v>
+        <v>0.18073245954081091</v>
       </c>
       <c r="X14">
-        <v>0.36628722756715154</v>
+        <v>0.35849159799430547</v>
       </c>
       <c r="Y14">
-        <v>-0.28096282487517199</v>
+        <v>-0.30161393996561536</v>
       </c>
       <c r="Z14">
-        <v>0.32893091439537209</v>
+        <v>0.32080301257235405</v>
       </c>
       <c r="AA14">
-        <v>0.20725339058713893</v>
+        <v>0.19798143466229756</v>
       </c>
       <c r="AB14">
-        <v>-0.14072299441822145</v>
+        <v>-0.14486384040002465</v>
       </c>
       <c r="AC14">
-        <v>0.54932509292124132</v>
+        <v>0.5480318212223998</v>
       </c>
       <c r="AD14">
-        <v>0.63862903911797164</v>
+        <v>0.63737876972712026</v>
       </c>
       <c r="AE14">
-        <v>0.24836993792810136</v>
+        <v>0.24618038381639157</v>
       </c>
       <c r="AF14">
-        <v>0.41396255554533451</v>
+        <v>0.41073953540222757</v>
       </c>
       <c r="AG14">
-        <v>-0.2556650274517186</v>
+        <v>-0.25946345883758415</v>
       </c>
       <c r="AH14">
-        <v>6.7069281653349022E-2</v>
+        <v>6.4040441080714217E-2</v>
       </c>
       <c r="AI14">
-        <v>0.58643909474535705</v>
+        <v>0.58510189580171512</v>
       </c>
       <c r="AJ14">
-        <v>2.107889150992448E-2</v>
+        <v>1.9126124601240968E-2</v>
       </c>
       <c r="AK14">
-        <v>-0.1947866607821811</v>
+        <v>-0.20428081380076973</v>
       </c>
       <c r="AL14">
-        <v>0.2262841586097423</v>
+        <v>0.22272414497845683</v>
       </c>
       <c r="AM14">
-        <v>-3.6920446437203158E-2</v>
+        <v>-4.1383537857652225E-2</v>
       </c>
       <c r="AN14">
-        <v>0.22628310128551188</v>
+        <v>0.2175261051334289</v>
       </c>
       <c r="AO14">
-        <v>0.29718693840490085</v>
+        <v>0.2930249706415492</v>
       </c>
       <c r="AP14">
-        <v>0.26288223674071454</v>
+        <v>0.25464617046283589</v>
       </c>
       <c r="AQ14">
-        <v>0.33432745457260737</v>
+        <v>0.32752765171686543</v>
       </c>
       <c r="AR14">
-        <v>0.29069870665439534</v>
+        <v>0.28720602147480156</v>
       </c>
       <c r="AS14">
-        <v>0.2209424003355682</v>
+        <v>0.21696439698905137</v>
       </c>
       <c r="AT14">
-        <v>0.19315348539825172</v>
+        <v>0.19189314984416356</v>
       </c>
       <c r="AU14">
-        <v>0.20671103668191709</v>
+        <v>0.2041752945928213</v>
       </c>
       <c r="AV14">
-        <v>0.14113908134100739</v>
+        <v>0.13779729662078738</v>
       </c>
       <c r="AW14">
-        <v>2.3051381017820949E-2</v>
+        <v>2.0465473412285939E-2</v>
       </c>
       <c r="AX14">
-        <v>6.8514021901730601E-2</v>
+        <v>6.751308031754237E-2</v>
       </c>
       <c r="AY14">
-        <v>8.095321967029448E-2</v>
+        <v>7.9665074795296109E-2</v>
       </c>
       <c r="AZ14">
-        <v>-5.752221534853158E-2</v>
+        <v>-5.9983936752791622E-2</v>
       </c>
       <c r="BA14">
-        <v>8.7786490401002559E-2</v>
+        <v>8.744808358103856E-2</v>
       </c>
       <c r="BB14">
-        <v>0.19236082882059966</v>
+        <v>0.19083019015560568</v>
       </c>
       <c r="BC14">
-        <v>0.38054119867669034</v>
+        <v>0.37160659308073068</v>
       </c>
       <c r="BD14">
-        <v>-3.1753369693839434E-2</v>
+        <v>-3.6352313813836384E-2</v>
       </c>
       <c r="BE14">
-        <v>0.50059070820926477</v>
+        <v>0.49785093469124042</v>
       </c>
       <c r="BF14">
-        <v>0.29938898194720437</v>
+        <v>0.29251375827545906</v>
       </c>
       <c r="BG14">
-        <v>0.21178336077978094</v>
+        <v>0.2053020412512252</v>
       </c>
       <c r="BH14">
-        <v>0.39411484404965358</v>
+        <v>0.38941212329208474</v>
       </c>
       <c r="BI14">
-        <v>6.9146147532711533E-2</v>
+        <v>5.8821615354656021E-2</v>
       </c>
       <c r="BJ14">
-        <v>0.25495083768794763</v>
+        <v>0.24927870951357606</v>
       </c>
       <c r="BK14">
-        <v>8.5080493236404653E-2</v>
+        <v>7.7241087970158218E-2</v>
       </c>
       <c r="BL14">
-        <v>1.1002324272603801E-2</v>
+        <v>1.0888704501501032E-2</v>
       </c>
       <c r="BM14">
-        <v>-3.4935208220574228E-2</v>
+        <v>-3.5495159889402821E-2</v>
       </c>
       <c r="BN14">
-        <v>3.6482076760381586E-2</v>
+        <v>3.6112339341134995E-2</v>
       </c>
       <c r="BO14">
-        <v>5.8144797460940957E-2</v>
+        <v>5.7705768700152323E-2</v>
       </c>
       <c r="BP14">
-        <v>6.3060327571458477E-2</v>
+        <v>6.2524769949893227E-2</v>
       </c>
       <c r="BQ14">
-        <v>5.3187001393190873E-2</v>
+        <v>5.2905153210280817E-2</v>
       </c>
       <c r="BR14">
-        <v>0.14653695752903684</v>
+        <v>0.14606179857521623</v>
       </c>
       <c r="BS14">
-        <v>-5.15592775225137E-3</v>
+        <v>-5.5601066621115067E-3</v>
       </c>
       <c r="BT14">
-        <v>4.8152497649140008E-2</v>
+        <v>4.7855537602394645E-2</v>
       </c>
       <c r="BU14">
-        <v>2.5456762108071539E-2</v>
+        <v>2.5225317881842006E-2</v>
       </c>
       <c r="BV14">
-        <v>5.4238746205579828E-2</v>
+        <v>5.3541524205414137E-2</v>
       </c>
       <c r="BW14">
-        <v>3.0719557674055042E-2</v>
+        <v>2.9899827253591714E-2</v>
       </c>
       <c r="BX14">
-        <v>0.19299422446701492</v>
+        <v>0.19196027706029184</v>
       </c>
       <c r="BY14">
-        <v>0.1686067084875239</v>
+        <v>0.16724600191674294</v>
       </c>
       <c r="BZ14">
-        <v>5.7555238811577349E-2</v>
+        <v>5.6963968906826257E-2</v>
       </c>
       <c r="CA14">
-        <v>0.1667117899883557</v>
+        <v>0.16473235663978991</v>
       </c>
       <c r="CB14">
-        <v>7.0886481932184178E-2</v>
+        <v>7.0280013668183858E-2</v>
       </c>
       <c r="CC14">
-        <v>0.10770383050548744</v>
+        <v>0.1062894928763998</v>
       </c>
       <c r="CD14">
-        <v>5.5243060471338451E-3</v>
+        <v>5.2266557619657789E-3</v>
       </c>
       <c r="CE14">
-        <v>-9.9120497810286368E-3</v>
+        <v>-1.3390200044626238E-2</v>
       </c>
       <c r="CF14">
-        <v>1.0433191378903528E-3</v>
+        <v>-5.9657853473066014E-3</v>
       </c>
       <c r="CG14">
-        <v>-3.6574481102332634E-2</v>
+        <v>-3.8039181735864708E-2</v>
       </c>
       <c r="CH14">
-        <v>-5.213004956713771E-3</v>
+        <v>-7.5893180348317879E-3</v>
       </c>
       <c r="CI14">
-        <v>7.4608374374773856E-3</v>
+        <v>4.9833472472682327E-3</v>
       </c>
       <c r="CJ14">
-        <v>2.9820422623383358E-4</v>
+        <v>-3.5445720101321965E-3</v>
       </c>
       <c r="CK14">
-        <v>-1.7049167002638477E-3</v>
+        <v>-1.3078927452915019E-3</v>
       </c>
       <c r="CL14">
-        <v>-1.6101424380984483E-5</v>
+        <v>9.1753488789573026E-5</v>
       </c>
       <c r="CM14">
-        <v>1.9877087427443716E-3</v>
+        <v>2.2323904852399289E-3</v>
       </c>
       <c r="CN14">
-        <v>-1.2233704126900337E-3</v>
+        <v>-1.1233272423634847E-3</v>
       </c>
       <c r="CO14">
-        <v>-3.8412440610093778E-3</v>
+        <v>-3.4243014954756347E-3</v>
       </c>
       <c r="CP14">
-        <v>-1.5094107703886245E-3</v>
+        <v>-1.3510802628971938E-3</v>
       </c>
       <c r="CQ14">
-        <v>-4.8356783187503841E-3</v>
+        <v>-4.3943812595840593E-3</v>
       </c>
       <c r="CR14">
-        <v>-1.4277550654827704E-3</v>
+        <v>-1.3087595625854596E-3</v>
       </c>
       <c r="CS14">
-        <v>-5.4168152975766883E-3</v>
+        <v>-5.0512722815112066E-3</v>
       </c>
       <c r="CT14">
         <v>8.483748453226447E-3</v>
@@ -5199,295 +5199,295 @@
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4.6915182870635737E-2</v>
+        <v>4.5984319771888063E-2</v>
       </c>
       <c r="B15">
-        <v>9.8305856586947016E-2</v>
+        <v>9.2981335193182191E-2</v>
       </c>
       <c r="C15">
-        <v>0.50287608859580213</v>
+        <v>0.49685612414747554</v>
       </c>
       <c r="D15">
-        <v>0.47073153396371326</v>
+        <v>0.46537776272668624</v>
       </c>
       <c r="E15">
-        <v>3.3535260895956383E-2</v>
+        <v>3.2986846046803582E-2</v>
       </c>
       <c r="F15">
-        <v>1.3286872030891695E-3</v>
+        <v>1.3013983600097473E-3</v>
       </c>
       <c r="G15">
-        <v>0.47692437530950266</v>
+        <v>0.46886097559708734</v>
       </c>
       <c r="H15">
-        <v>0.38890314294581468</v>
+        <v>0.38201714304795431</v>
       </c>
       <c r="I15">
-        <v>8.3846077248651563E-3</v>
+        <v>-2.8395552981493877E-3</v>
       </c>
       <c r="J15">
-        <v>1.8780048102220257E-2</v>
+        <v>1.8775436797826357E-2</v>
       </c>
       <c r="K15">
-        <v>3.5487371793172309E-4</v>
+        <v>2.0468992886647774E-4</v>
       </c>
       <c r="L15">
-        <v>-2.1802634022496888E-2</v>
+        <v>-2.1952817811562133E-2</v>
       </c>
       <c r="M15">
-        <v>-1.0018578634514392</v>
+        <v>-1.0099039279467246</v>
       </c>
       <c r="N15">
-        <v>-1.4591507702310647E-2</v>
+        <v>-1.4713219515476234E-2</v>
       </c>
       <c r="O15">
-        <v>0.16879219336134482</v>
+        <v>0.16866026679160959</v>
       </c>
       <c r="P15">
-        <v>1.5000264712092704E-2</v>
+        <v>1.1548455752900977E-2</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>5.811569497830904E-3</v>
+        <v>2.7661649698116353E-3</v>
       </c>
       <c r="S15">
-        <v>0.29046619965847476</v>
+        <v>0.28704488555473356</v>
       </c>
       <c r="T15">
-        <v>0.25407386346250777</v>
+        <v>0.2458144215686055</v>
       </c>
       <c r="U15">
-        <v>0.5069520729653495</v>
+        <v>0.50322584519172464</v>
       </c>
       <c r="V15">
-        <v>0.28110551480358592</v>
+        <v>0.27298147663416444</v>
       </c>
       <c r="W15">
-        <v>9.0616472045443819E-2</v>
+        <v>8.20893005118698E-2</v>
       </c>
       <c r="X15">
-        <v>0.32812331684322621</v>
+        <v>0.32042022224827482</v>
       </c>
       <c r="Y15">
-        <v>-0.46705780854760748</v>
+        <v>-0.48746379263733586</v>
       </c>
       <c r="Z15">
-        <v>0.27041892315013244</v>
+        <v>0.26238750041305536</v>
       </c>
       <c r="AA15">
-        <v>0.10683005664248757</v>
+        <v>9.7668159851232339E-2</v>
       </c>
       <c r="AB15">
-        <v>-0.18276037261994715</v>
+        <v>-0.18657127327635836</v>
       </c>
       <c r="AC15">
-        <v>0.81808636903811593</v>
+        <v>0.81689614607698879</v>
       </c>
       <c r="AD15">
-        <v>0.82413514130557919</v>
+        <v>0.82298449420032005</v>
       </c>
       <c r="AE15">
-        <v>-0.15180707728692877</v>
+        <v>-0.15382216629005296</v>
       </c>
       <c r="AF15">
-        <v>0.30632036184561079</v>
+        <v>0.3033541540627161</v>
       </c>
       <c r="AG15">
-        <v>-0.17252054192522537</v>
+        <v>-0.17601631180542365</v>
       </c>
       <c r="AH15">
-        <v>3.7161472040395549E-2</v>
+        <v>3.4373971472361264E-2</v>
       </c>
       <c r="AI15">
-        <v>0.81190749370438764</v>
+        <v>0.81067684365015458</v>
       </c>
       <c r="AJ15">
-        <v>1.8687129305763495E-2</v>
+        <v>1.6889960145929306E-2</v>
       </c>
       <c r="AK15">
-        <v>-0.16710400226742012</v>
+        <v>-0.17610446540064489</v>
       </c>
       <c r="AL15">
-        <v>0.17900579887740198</v>
+        <v>0.17563090367828016</v>
       </c>
       <c r="AM15">
-        <v>-9.945263856004416E-3</v>
+        <v>-1.4176277376780372E-2</v>
       </c>
       <c r="AN15">
-        <v>0.26596835908112959</v>
+        <v>0.25766672112877109</v>
       </c>
       <c r="AO15">
-        <v>0.24273617257152372</v>
+        <v>0.23879062447024763</v>
       </c>
       <c r="AP15">
-        <v>0.41110944317823139</v>
+        <v>0.4033016470797583</v>
       </c>
       <c r="AQ15">
-        <v>0.28603074180541799</v>
+        <v>0.27958452434963477</v>
       </c>
       <c r="AR15">
-        <v>0.32854577551780739</v>
+        <v>0.32523470773394653</v>
       </c>
       <c r="AS15">
-        <v>0.15717885110613622</v>
+        <v>0.15340770138966658</v>
       </c>
       <c r="AT15">
-        <v>0.17730011529837245</v>
+        <v>0.17629369447003679</v>
       </c>
       <c r="AU15">
-        <v>0.21887369763151926</v>
+        <v>0.21684882128372815</v>
       </c>
       <c r="AV15">
-        <v>0.14795770128112384</v>
+        <v>0.14528917246327544</v>
       </c>
       <c r="AW15">
-        <v>2.3262302360928494E-2</v>
+        <v>2.1197367141160939E-2</v>
       </c>
       <c r="AX15">
-        <v>6.1324001112397525E-2</v>
+        <v>6.0524715196034445E-2</v>
       </c>
       <c r="AY15">
-        <v>0.10713646913597459</v>
+        <v>0.10610784161855916</v>
       </c>
       <c r="AZ15">
-        <v>-3.5421770083526982E-2</v>
+        <v>-3.7387538395601078E-2</v>
       </c>
       <c r="BA15">
-        <v>6.1090803816694503E-2</v>
+        <v>6.0820574455190048E-2</v>
       </c>
       <c r="BB15">
-        <v>0.16843700433303213</v>
+        <v>0.1672147372723998</v>
       </c>
       <c r="BC15">
-        <v>0.32927745364247207</v>
+        <v>0.32133180809636036</v>
       </c>
       <c r="BD15">
-        <v>0.1101017631690045</v>
+        <v>0.10601187028325759</v>
       </c>
       <c r="BE15">
-        <v>0.3308130292204845</v>
+        <v>0.3283765177240297</v>
       </c>
       <c r="BF15">
-        <v>0.22705797001495598</v>
+        <v>0.22094375604555272</v>
       </c>
       <c r="BG15">
-        <v>0.20259143204033125</v>
+        <v>0.19682752146902588</v>
       </c>
       <c r="BH15">
-        <v>0.41007628746048497</v>
+        <v>0.40589410484026023</v>
       </c>
       <c r="BI15">
-        <v>6.693310334337732E-2</v>
+        <v>5.7751380408304409E-2</v>
       </c>
       <c r="BJ15">
-        <v>0.15971383229596842</v>
+        <v>0.15466954472427635</v>
       </c>
       <c r="BK15">
-        <v>6.8342824029590854E-2</v>
+        <v>6.1371152491444481E-2</v>
       </c>
       <c r="BL15">
-        <v>1.8495480962545267E-2</v>
+        <v>1.8397390660668422E-2</v>
       </c>
       <c r="BM15">
-        <v>-2.4713080104854936E-2</v>
+        <v>-2.5196497979215506E-2</v>
       </c>
       <c r="BN15">
-        <v>4.2928748009286387E-2</v>
+        <v>4.2609546036627449E-2</v>
       </c>
       <c r="BO15">
-        <v>0.17804336157740597</v>
+        <v>0.17766433895431494</v>
       </c>
       <c r="BP15">
-        <v>9.5301619190050577E-2</v>
+        <v>9.483926120198298E-2</v>
       </c>
       <c r="BQ15">
-        <v>8.6426156333062359E-2</v>
+        <v>8.6182830958642431E-2</v>
       </c>
       <c r="BR15">
-        <v>0.14968287476045372</v>
+        <v>0.14927266019332885</v>
       </c>
       <c r="BS15">
-        <v>3.1164286575939212E-3</v>
+        <v>2.7674926326782187E-3</v>
       </c>
       <c r="BT15">
-        <v>5.6844310744362178E-2</v>
+        <v>5.6587938984870904E-2</v>
       </c>
       <c r="BU15">
-        <v>3.2719218136104268E-2</v>
+        <v>3.250212353760959E-2</v>
       </c>
       <c r="BV15">
-        <v>3.5623507810249123E-2</v>
+        <v>3.496951383399774E-2</v>
       </c>
       <c r="BW15">
-        <v>4.4513853452785274E-2</v>
+        <v>4.374494662449048E-2</v>
       </c>
       <c r="BX15">
-        <v>0.21749826614299136</v>
+        <v>0.21652842386274185</v>
       </c>
       <c r="BY15">
-        <v>0.16484735395824446</v>
+        <v>0.16357101170683241</v>
       </c>
       <c r="BZ15">
-        <v>4.9940305182425294E-2</v>
+        <v>4.9385694231847431E-2</v>
       </c>
       <c r="CA15">
-        <v>0.11076873311613469</v>
+        <v>0.1089120253864049</v>
       </c>
       <c r="CB15">
-        <v>5.2299143238188947E-2</v>
+        <v>5.173027623234084E-2</v>
       </c>
       <c r="CC15">
-        <v>9.7426988281978127E-2</v>
+        <v>9.6100340118452587E-2</v>
       </c>
       <c r="CD15">
-        <v>4.7678643104316631E-3</v>
+        <v>4.485778869106255E-3</v>
       </c>
       <c r="CE15">
-        <v>-1.0684043260581533E-2</v>
+        <v>-1.4768992584729468E-2</v>
       </c>
       <c r="CF15">
-        <v>-3.3284636248064992E-2</v>
+        <v>-4.0901183413170283E-2</v>
       </c>
       <c r="CG15">
-        <v>5.2674391657260289E-3</v>
+        <v>3.7691036130519384E-3</v>
       </c>
       <c r="CH15">
-        <v>-1.4800680364780466E-2</v>
+        <v>-1.725080941434351E-2</v>
       </c>
       <c r="CI15">
-        <v>8.7739218320894152E-3</v>
+        <v>7.9143702908571756E-3</v>
       </c>
       <c r="CJ15">
-        <v>-1.2343615224521404E-2</v>
+        <v>-1.6101945962996134E-2</v>
       </c>
       <c r="CK15">
-        <v>-3.0596313903530625E-3</v>
+        <v>-2.6901205976641689E-3</v>
       </c>
       <c r="CL15">
-        <v>1.2739733487960089E-3</v>
+        <v>1.3502958160715173E-3</v>
       </c>
       <c r="CM15">
-        <v>2.9084750169653369E-3</v>
+        <v>3.0773342173124182E-3</v>
       </c>
       <c r="CN15">
-        <v>-1.6277717835491952E-3</v>
+        <v>-1.545495337664753E-3</v>
       </c>
       <c r="CO15">
-        <v>-2.5170703511694682E-3</v>
+        <v>-2.195656401441674E-3</v>
       </c>
       <c r="CP15">
-        <v>-3.579847312723405E-3</v>
+        <v>-3.4052420450469464E-3</v>
       </c>
       <c r="CQ15">
-        <v>-4.8091439756010219E-3</v>
+        <v>-4.4204881077897634E-3</v>
       </c>
       <c r="CR15">
-        <v>-1.9364909403714031E-3</v>
+        <v>-1.8252790035051536E-3</v>
       </c>
       <c r="CS15">
-        <v>-4.189764337670817E-3</v>
+        <v>-3.8999519345374479E-3</v>
       </c>
       <c r="CT15">
         <v>7.6136592008717568E-3</v>
@@ -5519,295 +5519,295 @@
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4.4942201450460809E-2</v>
+        <v>4.7556632996334842E-2</v>
       </c>
       <c r="B16">
-        <v>7.0078312982165381E-2</v>
+        <v>8.503281780383859E-2</v>
       </c>
       <c r="C16">
-        <v>0.27194797663266151</v>
+        <v>0.28885570987498127</v>
       </c>
       <c r="D16">
-        <v>0.474037946357794</v>
+        <v>0.48907460258609131</v>
       </c>
       <c r="E16">
-        <v>1.7711378269581919E-2</v>
+        <v>1.9251661780422293E-2</v>
       </c>
       <c r="F16">
-        <v>2.1634314818984352E-3</v>
+        <v>2.2400752035082257E-3</v>
       </c>
       <c r="G16">
-        <v>5.6845018104246137E-2</v>
+        <v>7.949196436679673E-2</v>
       </c>
       <c r="H16">
-        <v>0.31817265800217254</v>
+        <v>0.33751274719689012</v>
       </c>
       <c r="I16">
-        <v>-0.11418575618868121</v>
+        <v>-8.2661458015426237E-2</v>
       </c>
       <c r="J16">
-        <v>1.7347086109914759E-2</v>
+        <v>1.7358403661349983E-2</v>
       </c>
       <c r="K16">
-        <v>6.8306391040227551E-4</v>
+        <v>1.0516608652531845E-3</v>
       </c>
       <c r="L16">
-        <v>-2.1792445655054938E-2</v>
+        <v>-2.1423848700204029E-2</v>
       </c>
       <c r="M16">
-        <v>-0.82510049121595785</v>
+        <v>-0.80535298790714238</v>
       </c>
       <c r="N16">
-        <v>-1.2600285739369263E-2</v>
+        <v>-1.2301567722055602E-2</v>
       </c>
       <c r="O16">
-        <v>0.33545623470491742</v>
+        <v>0.33578002285922492</v>
       </c>
       <c r="P16">
-        <v>1.4363840758519597E-2</v>
+        <v>2.283563574387909E-2</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>-7.7892361220853301E-2</v>
+        <v>-7.0418007015889961E-2</v>
       </c>
       <c r="S16">
-        <v>0.40778923536367817</v>
+        <v>0.41414236548635386</v>
       </c>
       <c r="T16">
-        <v>0.4326428987742918</v>
+        <v>0.44798007843729326</v>
       </c>
       <c r="U16">
-        <v>0.26477427909629114</v>
+        <v>0.27169361160852074</v>
       </c>
       <c r="V16">
-        <v>0.41644305922142971</v>
+        <v>0.43152880406884941</v>
       </c>
       <c r="W16">
-        <v>0.24216045893566973</v>
+        <v>0.25799479296303424</v>
       </c>
       <c r="X16">
-        <v>0.472202500663429</v>
+        <v>0.48650658407263453</v>
       </c>
       <c r="Y16">
-        <v>-6.7276643327379149E-2</v>
+        <v>-2.9384222967164475E-2</v>
       </c>
       <c r="Z16">
-        <v>0.4556500564553847</v>
+        <v>0.47056382121702139</v>
       </c>
       <c r="AA16">
-        <v>0.31733576139500369</v>
+        <v>0.33434873381449592</v>
       </c>
       <c r="AB16">
-        <v>-5.1133196041744267E-2</v>
+        <v>-4.148911885691442E-2</v>
       </c>
       <c r="AC16">
-        <v>0.81262687547849133</v>
+        <v>0.81563891991081117</v>
       </c>
       <c r="AD16">
-        <v>0.81885718022960219</v>
+        <v>0.82176907179963088</v>
       </c>
       <c r="AE16">
-        <v>-0.12180721076300768</v>
+        <v>-0.11670771444112435</v>
       </c>
       <c r="AF16">
-        <v>0.39231811739974692</v>
+        <v>0.39982456781228981</v>
       </c>
       <c r="AG16">
-        <v>-0.22024945705758098</v>
+        <v>-0.21140286734438102</v>
       </c>
       <c r="AH16">
-        <v>0.13499548506836945</v>
+        <v>0.14204968906228715</v>
       </c>
       <c r="AI16">
-        <v>0.78110533037381513</v>
+        <v>0.78421968185673108</v>
       </c>
       <c r="AJ16">
-        <v>4.4396075234256871E-2</v>
+        <v>4.894409147878398E-2</v>
       </c>
       <c r="AK16">
-        <v>-0.15142642975132753</v>
+        <v>-0.1278526007581709</v>
       </c>
       <c r="AL16">
-        <v>0.22939352799879703</v>
+        <v>0.23823298449301161</v>
       </c>
       <c r="AM16">
-        <v>1.0888776234505015E-2</v>
+        <v>2.1970560330516198E-2</v>
       </c>
       <c r="AN16">
-        <v>0.38234392812324169</v>
+        <v>0.4040874084925547</v>
       </c>
       <c r="AO16">
-        <v>0.24494754881889874</v>
+        <v>0.25528164772547696</v>
       </c>
       <c r="AP16">
-        <v>0.36762141372158208</v>
+        <v>0.38807143360549151</v>
       </c>
       <c r="AQ16">
-        <v>0.23097194808104982</v>
+        <v>0.24785574902617818</v>
       </c>
       <c r="AR16">
-        <v>0.35784591333757232</v>
+        <v>0.36651819437090627</v>
       </c>
       <c r="AS16">
-        <v>0.20246857066730053</v>
+        <v>0.21234588889056774</v>
       </c>
       <c r="AT16">
-        <v>0.13167310691035908</v>
+        <v>0.13495955200765405</v>
       </c>
       <c r="AU16">
-        <v>0.1086638897255125</v>
+        <v>0.1152760789394735</v>
       </c>
       <c r="AV16">
-        <v>4.0000703948744276E-2</v>
+        <v>4.8714726158431088E-2</v>
       </c>
       <c r="AW16">
-        <v>-7.4418653139774693E-2</v>
+        <v>-6.7675652559729516E-2</v>
       </c>
       <c r="AX16">
-        <v>1.2568233479977847E-2</v>
+        <v>1.5178284074332554E-2</v>
       </c>
       <c r="AY16">
-        <v>9.1741684103923971E-3</v>
+        <v>1.2533128962851608E-2</v>
       </c>
       <c r="AZ16">
-        <v>-0.11129713507858621</v>
+        <v>-0.10487796185626977</v>
       </c>
       <c r="BA16">
-        <v>3.7805425306773728E-2</v>
+        <v>3.8687853348063517E-2</v>
       </c>
       <c r="BB16">
-        <v>0.12492012072913583</v>
+        <v>0.12891140695444492</v>
       </c>
       <c r="BC16">
-        <v>0.10503175880010152</v>
+        <v>0.1283646225974906</v>
       </c>
       <c r="BD16">
-        <v>-6.4873296111840117E-2</v>
+        <v>-5.2863080819044506E-2</v>
       </c>
       <c r="BE16">
-        <v>0.16942662643351988</v>
+        <v>0.17658158830006992</v>
       </c>
       <c r="BF16">
-        <v>9.8355162884621816E-2</v>
+        <v>0.1163099182217755</v>
       </c>
       <c r="BG16">
-        <v>0.15580959130632038</v>
+        <v>0.17273565974470051</v>
       </c>
       <c r="BH16">
-        <v>0.42816914654607052</v>
+        <v>0.44045037616891258</v>
       </c>
       <c r="BI16">
-        <v>-4.8448567963895961E-2</v>
+        <v>-2.1485888918357898E-2</v>
       </c>
       <c r="BJ16">
-        <v>1.4351739035389666E-2</v>
+        <v>2.9164591456518785E-2</v>
       </c>
       <c r="BK16">
-        <v>1.2302430060905867E-2</v>
+        <v>3.2775160878769805E-2</v>
       </c>
       <c r="BL16">
-        <v>1.4052379426180334E-2</v>
+        <v>1.4297972567846637E-2</v>
       </c>
       <c r="BM16">
-        <v>-2.9983117383847874E-2</v>
+        <v>-2.8772762106820421E-2</v>
       </c>
       <c r="BN16">
-        <v>3.7623650198694382E-2</v>
+        <v>3.8422850667970333E-2</v>
       </c>
       <c r="BO16">
-        <v>8.2442063321500975E-2</v>
+        <v>8.3391039468851416E-2</v>
       </c>
       <c r="BP16">
-        <v>8.3721733297557097E-2</v>
+        <v>8.4879359981249097E-2</v>
       </c>
       <c r="BQ16">
-        <v>8.8522907477938284E-2</v>
+        <v>8.9132132263747832E-2</v>
       </c>
       <c r="BR16">
-        <v>0.14381114219959684</v>
+        <v>0.14483821503319833</v>
       </c>
       <c r="BS16">
-        <v>-2.6266576078710219E-4</v>
+        <v>6.1098120491588637E-4</v>
       </c>
       <c r="BT16">
-        <v>5.2383916877401203E-2</v>
+        <v>5.3025806489760997E-2</v>
       </c>
       <c r="BU16">
-        <v>4.4909554787800579E-2</v>
+        <v>4.5511476104668491E-2</v>
       </c>
       <c r="BV16">
-        <v>3.1014588768396495E-2</v>
+        <v>3.2827867085029466E-2</v>
       </c>
       <c r="BW16">
-        <v>7.197986281996617E-2</v>
+        <v>7.4111751096797268E-2</v>
       </c>
       <c r="BX16">
-        <v>0.18245035624634789</v>
+        <v>0.18513936269320413</v>
       </c>
       <c r="BY16">
-        <v>0.14344500138880156</v>
+        <v>0.14698381660650353</v>
       </c>
       <c r="BZ16">
-        <v>5.9188109712168674E-2</v>
+        <v>6.0725836419124525E-2</v>
       </c>
       <c r="CA16">
-        <v>0.1135717156961876</v>
+        <v>0.11871966550596719</v>
       </c>
       <c r="CB16">
-        <v>4.3880843355521032E-2</v>
+        <v>4.5458096721340817E-2</v>
       </c>
       <c r="CC16">
-        <v>8.6011840880115126E-2</v>
+        <v>8.9690135414254246E-2</v>
       </c>
       <c r="CD16">
-        <v>-3.1877138746578687E-3</v>
+        <v>-1.6538597979135899E-3</v>
       </c>
       <c r="CE16">
-        <v>-2.9573541687393207E-2</v>
+        <v>-2.0828806982117448E-2</v>
       </c>
       <c r="CF16">
-        <v>-5.2375290273072084E-2</v>
+        <v>-3.6679782922755477E-2</v>
       </c>
       <c r="CG16">
-        <v>-1.6607729720731546E-2</v>
+        <v>-1.362539793254483E-2</v>
       </c>
       <c r="CH16">
-        <v>-2.1208585797532903E-2</v>
+        <v>-1.4948196008471193E-2</v>
       </c>
       <c r="CI16">
-        <v>5.6159871662458949E-4</v>
+        <v>9.4084340891449347E-3</v>
       </c>
       <c r="CJ16">
-        <v>-2.6021258683561532E-2</v>
+        <v>-1.7696222357548697E-2</v>
       </c>
       <c r="CK16">
-        <v>-6.9199697812276188E-4</v>
+        <v>-1.4064343380432867E-3</v>
       </c>
       <c r="CL16">
-        <v>2.9908297848240881E-4</v>
+        <v>1.0443682238245929E-4</v>
       </c>
       <c r="CM16">
-        <v>-1.7242472782315211E-3</v>
+        <v>-2.5460325203350825E-3</v>
       </c>
       <c r="CN16">
-        <v>-1.5733766928216729E-3</v>
+        <v>-1.7705280625325255E-3</v>
       </c>
       <c r="CO16">
-        <v>-2.0424461639464899E-3</v>
+        <v>-2.7586472989801726E-3</v>
       </c>
       <c r="CP16">
-        <v>7.0070218220179108E-5</v>
+        <v>-1.7506715675812655E-4</v>
       </c>
       <c r="CQ16">
-        <v>-2.0341602986035214E-3</v>
+        <v>-2.7247174468585595E-3</v>
       </c>
       <c r="CR16">
-        <v>-2.5881305360033113E-3</v>
+        <v>-2.8603765015880302E-3</v>
       </c>
       <c r="CS16">
-        <v>-2.6499059190259163E-3</v>
+        <v>-3.2301514381374357E-3</v>
       </c>
       <c r="CT16">
         <v>7.1158953942997072E-3</v>
@@ -5920,16 +5920,16 @@
         <v>0.31562582540724027</v>
       </c>
       <c r="AB17">
-        <v>-0.27919127972324531</v>
+        <v>-0.2791912797232452</v>
       </c>
       <c r="AC17">
-        <v>0.8254664149326324</v>
+        <v>0.82546641493263251</v>
       </c>
       <c r="AD17">
         <v>0.79151987344491004</v>
       </c>
       <c r="AE17">
-        <v>-5.7423810224505462E-2</v>
+        <v>-5.7423810224505351E-2</v>
       </c>
       <c r="AF17">
         <v>0.4472032348841703</v>
@@ -5938,13 +5938,13 @@
         <v>-0.12055847854661655</v>
       </c>
       <c r="AH17">
-        <v>1.9733565811915987E-2</v>
+        <v>1.9733565811916098E-2</v>
       </c>
       <c r="AI17">
         <v>0.73162800102360837</v>
       </c>
       <c r="AJ17">
-        <v>2.8099072286148497E-2</v>
+        <v>2.8099072286148552E-2</v>
       </c>
       <c r="AK17">
         <v>-0.15789165326400151</v>
@@ -6001,37 +6001,37 @@
         <v>0.19559895548069159</v>
       </c>
       <c r="BC17">
-        <v>0.21905118921157751</v>
+        <v>0.21905118921157762</v>
       </c>
       <c r="BD17">
-        <v>0.33647538757868528</v>
+        <v>0.33647538757868539</v>
       </c>
       <c r="BE17">
         <v>0.36039095128375531</v>
       </c>
       <c r="BF17">
-        <v>0.15767221249554325</v>
+        <v>0.15767221249554342</v>
       </c>
       <c r="BG17">
-        <v>0.15127909598811567</v>
+        <v>0.15127909598811573</v>
       </c>
       <c r="BH17">
-        <v>0.52804314274849307</v>
+        <v>0.52804314274849318</v>
       </c>
       <c r="BI17">
-        <v>-2.1494948924126955E-2</v>
+        <v>-2.1494948924126844E-2</v>
       </c>
       <c r="BJ17">
-        <v>8.3149205753775546E-2</v>
+        <v>8.3149205753775601E-2</v>
       </c>
       <c r="BK17">
-        <v>1.3738553221141037E-2</v>
+        <v>1.3738553221141203E-2</v>
       </c>
       <c r="BL17">
         <v>1.2810020057279881E-2</v>
       </c>
       <c r="BM17">
-        <v>-3.5582768802166438E-2</v>
+        <v>-3.5582768802166466E-2</v>
       </c>
       <c r="BN17">
         <v>2.0792766502664942E-2</v>
@@ -6043,64 +6043,64 @@
         <v>3.1857782381065597E-2</v>
       </c>
       <c r="BQ17">
-        <v>6.1565859005844069E-2</v>
+        <v>6.1565859005844048E-2</v>
       </c>
       <c r="BR17">
-        <v>4.2297164166923099E-2</v>
+        <v>4.2297164166923071E-2</v>
       </c>
       <c r="BS17">
-        <v>4.3969361466651008E-4</v>
+        <v>4.3969361466648926E-4</v>
       </c>
       <c r="BT17">
         <v>2.1419174587026031E-2</v>
       </c>
       <c r="BU17">
-        <v>5.2820973345299893E-2</v>
+        <v>5.2820973191162732E-2</v>
       </c>
       <c r="BV17">
-        <v>4.4097646933756875E-2</v>
+        <v>4.4097646486346273E-2</v>
       </c>
       <c r="BW17">
-        <v>0.12501377463963187</v>
+        <v>0.12501377411884088</v>
       </c>
       <c r="BX17">
-        <v>0.21628877949227263</v>
+        <v>0.21628877884692871</v>
       </c>
       <c r="BY17">
-        <v>0.14769151292248023</v>
+        <v>0.14769151209636033</v>
       </c>
       <c r="BZ17">
-        <v>6.5012121603571379E-2</v>
+        <v>6.5012121220885788E-2</v>
       </c>
       <c r="CA17">
-        <v>0.12509652251344494</v>
+        <v>0.12509652137550969</v>
       </c>
       <c r="CB17">
-        <v>5.7988482989499407E-2</v>
+        <v>5.7988482597457383E-2</v>
       </c>
       <c r="CC17">
-        <v>9.6871684036629171E-2</v>
+        <v>9.6871683181901758E-2</v>
       </c>
       <c r="CD17">
-        <v>-2.7481154375845335E-3</v>
+        <v>-2.8507925698480763E-3</v>
       </c>
       <c r="CE17">
-        <v>-7.933153472779314E-3</v>
+        <v>-9.457513510421206E-3</v>
       </c>
       <c r="CF17">
-        <v>-1.1829355178993251E-2</v>
+        <v>-1.5521579293228172E-2</v>
       </c>
       <c r="CG17">
-        <v>-2.1916797021828444E-2</v>
+        <v>-2.2331142900015005E-2</v>
       </c>
       <c r="CH17">
-        <v>-1.3567386790595465E-2</v>
+        <v>-1.451599925257438E-2</v>
       </c>
       <c r="CI17">
-        <v>-1.6342354108438484E-2</v>
+        <v>-1.5997414067840166E-2</v>
       </c>
       <c r="CJ17">
-        <v>-7.3570327045285877E-3</v>
+        <v>-9.0311412070660513E-3</v>
       </c>
       <c r="CK17">
         <v>-1.7555270898923512E-3</v>
@@ -6159,295 +6159,295 @@
     </row>
     <row r="18" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5.5998575569208689E-2</v>
+        <v>5.4933759522579714E-2</v>
       </c>
       <c r="B18">
-        <v>9.2078502838032761E-2</v>
+        <v>8.5987772817337438E-2</v>
       </c>
       <c r="C18">
-        <v>0.45994674600095642</v>
+        <v>0.45306049736424742</v>
       </c>
       <c r="D18">
-        <v>0.48134633706575958</v>
+        <v>0.47522214809443136</v>
       </c>
       <c r="E18">
-        <v>1.2338476600858753E-2</v>
+        <v>1.1711143825101369E-2</v>
       </c>
       <c r="F18">
-        <v>-1.1204258446996947E-3</v>
+        <v>-1.1516416035411382E-3</v>
       </c>
       <c r="G18">
-        <v>6.9619862520125531E-2</v>
+        <v>6.039612444766973E-2</v>
       </c>
       <c r="H18">
-        <v>0.26098561660105002</v>
+        <v>0.25310870838738098</v>
       </c>
       <c r="I18">
-        <v>-0.14692689493013966</v>
+        <v>-0.1597662360888602</v>
       </c>
       <c r="J18">
-        <v>1.6580012641470424E-5</v>
+        <v>1.3269344596569918E-5</v>
       </c>
       <c r="K18">
-        <v>-1.3980856687818141E-2</v>
+        <v>-1.4088680554743513E-2</v>
       </c>
       <c r="L18">
-        <v>-1.6550018948005504E-2</v>
+        <v>-1.6657842814930875E-2</v>
       </c>
       <c r="M18">
-        <v>-0.47108469717071461</v>
+        <v>-0.47686133786417723</v>
       </c>
       <c r="N18">
-        <v>-8.5313833324104603E-3</v>
+        <v>-8.6187658550362055E-3</v>
       </c>
       <c r="O18">
-        <v>0.42167298746357085</v>
+        <v>0.42157827129621628</v>
       </c>
       <c r="P18">
-        <v>9.9158154482850147E-3</v>
+        <v>7.4376026386052674E-3</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>-5.7676455762955992E-2</v>
+        <v>-5.9862892092781506E-2</v>
       </c>
       <c r="S18">
-        <v>0.44043327377029828</v>
+        <v>0.43738016315100992</v>
       </c>
       <c r="T18">
-        <v>0.31858757086808553</v>
+        <v>0.31121701411970243</v>
       </c>
       <c r="U18">
-        <v>8.9201602150059206E-2</v>
+        <v>8.5876392818036523E-2</v>
       </c>
       <c r="V18">
-        <v>0.32597009000796001</v>
+        <v>0.31872036476950794</v>
       </c>
       <c r="W18">
-        <v>0.19289845754903079</v>
+        <v>0.18528898435474572</v>
       </c>
       <c r="X18">
-        <v>0.36710989929169885</v>
+        <v>0.36023581547591843</v>
       </c>
       <c r="Y18">
-        <v>-0.29968917302641895</v>
+        <v>-0.31789905520392836</v>
       </c>
       <c r="Z18">
-        <v>0.32700245632547181</v>
+        <v>0.31983537920158245</v>
       </c>
       <c r="AA18">
-        <v>0.25191566378466107</v>
+        <v>0.24373977477300401</v>
       </c>
       <c r="AB18">
-        <v>-0.14796509998591056</v>
+        <v>-0.15117018450629194</v>
       </c>
       <c r="AC18">
-        <v>0.77808656342454041</v>
+        <v>0.77708554935137286</v>
       </c>
       <c r="AD18">
-        <v>0.78151975493457126</v>
+        <v>0.78055202537193269</v>
       </c>
       <c r="AE18">
-        <v>-2.5113360552010966E-2</v>
+        <v>-2.6808112305835519E-2</v>
       </c>
       <c r="AF18">
-        <v>0.37780914633259677</v>
+        <v>0.37531447446724742</v>
       </c>
       <c r="AG18">
-        <v>-4.6860404839028535E-2</v>
+        <v>-4.9800454696006524E-2</v>
       </c>
       <c r="AH18">
-        <v>6.7910353875773877E-2</v>
+        <v>6.5565980267889123E-2</v>
       </c>
       <c r="AI18">
-        <v>0.67534924376016048</v>
+        <v>0.67431422925979723</v>
       </c>
       <c r="AJ18">
-        <v>9.2276195046091275E-2</v>
+        <v>9.0764720574826568E-2</v>
       </c>
       <c r="AK18">
-        <v>-8.019483249155146E-2</v>
+        <v>-8.8631946379050697E-2</v>
       </c>
       <c r="AL18">
-        <v>0.27800623975401084</v>
+        <v>0.27484258309191606</v>
       </c>
       <c r="AM18">
-        <v>-4.0075659938435371E-2</v>
+        <v>-4.4041849500676883E-2</v>
       </c>
       <c r="AN18">
-        <v>0.29692756752831539</v>
+        <v>0.28914553855713071</v>
       </c>
       <c r="AO18">
-        <v>0.27237048074166553</v>
+        <v>0.26867188899296013</v>
       </c>
       <c r="AP18">
-        <v>-0.22866865272652998</v>
+        <v>-0.23598774996831684</v>
       </c>
       <c r="AQ18">
-        <v>0.34867745221463786</v>
+        <v>0.34263471085644492</v>
       </c>
       <c r="AR18">
-        <v>0.39641442039470592</v>
+        <v>0.39331059611720398</v>
       </c>
       <c r="AS18">
-        <v>0.23183559133120177</v>
+        <v>0.22830048217362836</v>
       </c>
       <c r="AT18">
-        <v>0.25563232941556685</v>
+        <v>0.2547671084279608</v>
       </c>
       <c r="AU18">
-        <v>0.27478146586427571</v>
+        <v>0.27304067765313217</v>
       </c>
       <c r="AV18">
-        <v>0.28693882498214557</v>
+        <v>0.28464468810199745</v>
       </c>
       <c r="AW18">
-        <v>7.9249360653539491E-2</v>
+        <v>7.7474133790295358E-2</v>
       </c>
       <c r="AX18">
-        <v>1.2283205468666264E-3</v>
+        <v>5.4117364920264199E-4</v>
       </c>
       <c r="AY18">
-        <v>0.11305890506167057</v>
+        <v>0.1121745929613648</v>
       </c>
       <c r="AZ18">
-        <v>1.3133366396064272E-2</v>
+        <v>1.144339342204484E-2</v>
       </c>
       <c r="BA18">
-        <v>6.8068861826862212E-2</v>
+        <v>6.7836545375872526E-2</v>
       </c>
       <c r="BB18">
-        <v>0.23259134398109158</v>
+        <v>0.23154055977279223</v>
       </c>
       <c r="BC18">
-        <v>0.27889677063456475</v>
+        <v>0.27107706864702685</v>
       </c>
       <c r="BD18">
-        <v>0.28386504050889338</v>
+        <v>0.27983997503851848</v>
       </c>
       <c r="BE18">
-        <v>0.34617022521635926</v>
+        <v>0.3437723339838703</v>
       </c>
       <c r="BF18">
-        <v>0.2571614723447937</v>
+        <v>0.25114417257332683</v>
       </c>
       <c r="BG18">
-        <v>0.23688524132854638</v>
+        <v>0.23121269242250014</v>
       </c>
       <c r="BH18">
-        <v>0.59939902114961585</v>
+        <v>0.59528312879602074</v>
       </c>
       <c r="BI18">
-        <v>2.0055644462011579E-2</v>
+        <v>1.1019457701887725E-2</v>
       </c>
       <c r="BJ18">
-        <v>8.3060718931727062E-2</v>
+        <v>7.8096386540965457E-2</v>
       </c>
       <c r="BK18">
-        <v>8.9078458442972352E-2</v>
+        <v>8.2217292353077676E-2</v>
       </c>
       <c r="BL18">
-        <v>1.486727244229029E-2</v>
+        <v>1.4774529610350555E-2</v>
       </c>
       <c r="BM18">
-        <v>-3.4770971400886273E-2</v>
+        <v>-3.5228035369705334E-2</v>
       </c>
       <c r="BN18">
-        <v>1.8740721280925965E-2</v>
+        <v>1.8438920854801165E-2</v>
       </c>
       <c r="BO18">
-        <v>2.6669053861725793E-2</v>
+        <v>2.6310693954965353E-2</v>
       </c>
       <c r="BP18">
-        <v>2.7508100306161062E-2</v>
+        <v>2.7070948127373928E-2</v>
       </c>
       <c r="BQ18">
-        <v>5.2091215093442063E-2</v>
+        <v>5.1861154793140067E-2</v>
       </c>
       <c r="BR18">
-        <v>4.008483099043951E-2</v>
+        <v>3.9696979593001044E-2</v>
       </c>
       <c r="BS18">
-        <v>2.3486762582288698E-3</v>
+        <v>2.0187627550865353E-3</v>
       </c>
       <c r="BT18">
-        <v>1.6857746947900785E-2</v>
+        <v>1.6615351496468207E-2</v>
       </c>
       <c r="BU18">
-        <v>4.3879906763190292E-2</v>
+        <v>4.3649363409831207E-2</v>
       </c>
       <c r="BV18">
-        <v>5.8235468141478584E-2</v>
+        <v>5.7540960009037488E-2</v>
       </c>
       <c r="BW18">
-        <v>8.198024841539997E-2</v>
+        <v>8.1163708715421959E-2</v>
       </c>
       <c r="BX18">
-        <v>0.2925709143992804</v>
+        <v>0.29154099153356872</v>
       </c>
       <c r="BY18">
-        <v>0.16749700942609369</v>
+        <v>0.16614159927873071</v>
       </c>
       <c r="BZ18">
-        <v>5.4574072084443662E-2</v>
+        <v>5.3985103638831772E-2</v>
       </c>
       <c r="CA18">
-        <v>0.13494344654165372</v>
+        <v>0.13297171796306312</v>
       </c>
       <c r="CB18">
-        <v>6.3292551972480598E-2</v>
+        <v>6.2688444325794568E-2</v>
       </c>
       <c r="CC18">
-        <v>0.10146175274356024</v>
+        <v>0.10005292029241983</v>
       </c>
       <c r="CD18">
-        <v>4.5844688256734822E-3</v>
+        <v>4.0166542811858608E-3</v>
       </c>
       <c r="CE18">
-        <v>2.23070926337047E-2</v>
+        <v>1.8889251780493499E-2</v>
       </c>
       <c r="CF18">
-        <v>4.0774777144038765E-2</v>
+        <v>3.4662327404659188E-2</v>
       </c>
       <c r="CG18">
-        <v>-1.5460251207819575E-2</v>
+        <v>-1.6531388870956537E-2</v>
       </c>
       <c r="CH18">
-        <v>-7.5301597428206746E-4</v>
+        <v>-2.7851084223754347E-3</v>
       </c>
       <c r="CI18">
-        <v>2.1694704380140761E-2</v>
+        <v>2.1025694784909899E-2</v>
       </c>
       <c r="CJ18">
-        <v>2.6334537272050262E-3</v>
+        <v>-2.4595377395980611E-4</v>
       </c>
       <c r="CK18">
-        <v>-1.0406856434547881E-3</v>
+        <v>-8.0402838434962508E-4</v>
       </c>
       <c r="CL18">
-        <v>-4.3967165905129928E-3</v>
+        <v>-4.2684115574929717E-3</v>
       </c>
       <c r="CM18">
-        <v>7.1312195086305902E-4</v>
+        <v>8.9585112005598384E-4</v>
       </c>
       <c r="CN18">
-        <v>-4.2262965937117855E-3</v>
+        <v>-4.1278274637921424E-3</v>
       </c>
       <c r="CO18">
-        <v>-4.1832497464441946E-3</v>
+        <v>-3.8733860431488919E-3</v>
       </c>
       <c r="CP18">
-        <v>-7.3374385631213533E-3</v>
+        <v>-7.1357047956261549E-3</v>
       </c>
       <c r="CQ18">
-        <v>-5.4232372441088243E-3</v>
+        <v>-5.0836948494437061E-3</v>
       </c>
       <c r="CR18">
-        <v>-3.442486285542121E-3</v>
+        <v>-3.3371710663686553E-3</v>
       </c>
       <c r="CS18">
-        <v>-3.4713681683775054E-3</v>
+        <v>-3.2531802890336577E-3</v>
       </c>
       <c r="CT18">
         <v>6.1786492104028415E-3</v>
@@ -6479,295 +6479,295 @@
     </row>
     <row r="19" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>3.769025686363088E-2</v>
+        <v>3.6115985839309958E-2</v>
       </c>
       <c r="B19">
-        <v>4.8889856637142015E-2</v>
+        <v>3.9885052644097863E-2</v>
       </c>
       <c r="C19">
-        <v>0.16685528525032406</v>
+        <v>0.15667435143611219</v>
       </c>
       <c r="D19">
-        <v>0.28805948187362646</v>
+        <v>0.27900521069171685</v>
       </c>
       <c r="E19">
-        <v>6.4693659013613861E-3</v>
+        <v>5.5418894469933117E-3</v>
       </c>
       <c r="F19">
-        <v>-1.4468296711580421E-3</v>
+        <v>-1.4929804263066424E-3</v>
       </c>
       <c r="G19">
-        <v>-0.28711015404562618</v>
+        <v>-0.30074693537453517</v>
       </c>
       <c r="H19">
-        <v>0.11938227731409679</v>
+        <v>0.10773670867219665</v>
       </c>
       <c r="I19">
-        <v>-0.24707490583965519</v>
+        <v>-0.26605715429612276</v>
       </c>
       <c r="J19">
-        <v>9.4630703189832704E-5</v>
+        <v>9.0348226843403514E-5</v>
       </c>
       <c r="K19">
-        <v>-1.2956146918016404E-2</v>
+        <v>-1.3095621233600439E-2</v>
       </c>
       <c r="L19">
-        <v>-1.662163807863307E-2</v>
+        <v>-1.6761112394217105E-2</v>
       </c>
       <c r="M19">
-        <v>-0.52734379034897405</v>
+        <v>-0.53481609708467337</v>
       </c>
       <c r="N19">
-        <v>-9.5495712862466615E-3</v>
+        <v>-9.6626039374097666E-3</v>
       </c>
       <c r="O19">
-        <v>0.35988588509701591</v>
+        <v>0.359763366094561</v>
       </c>
       <c r="P19">
-        <v>4.752368083957087E-2</v>
+        <v>4.4318017331500703E-2</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>-4.1581141505132591E-2</v>
+        <v>-4.4409380923419839E-2</v>
       </c>
       <c r="S19">
-        <v>0.51235549218518595</v>
+        <v>0.50847266674895897</v>
       </c>
       <c r="T19">
-        <v>0.39629703846528802</v>
+        <v>0.38692345565404762</v>
       </c>
       <c r="U19">
-        <v>-2.1989423596308733E-2</v>
+        <v>-2.6218293422901051E-2</v>
       </c>
       <c r="V19">
-        <v>0.40357645728110336</v>
+        <v>0.39435654320930991</v>
       </c>
       <c r="W19">
-        <v>0.18786773780423632</v>
+        <v>0.17819031049832862</v>
       </c>
       <c r="X19">
-        <v>0.38726349381271097</v>
+        <v>0.378521305658097</v>
       </c>
       <c r="Y19">
-        <v>-0.27855648651280118</v>
+        <v>-0.30171509506856031</v>
       </c>
       <c r="Z19">
-        <v>0.4009883622458007</v>
+        <v>0.39187355678011299</v>
       </c>
       <c r="AA19">
-        <v>0.31128580982412407</v>
+        <v>0.3008880372646644</v>
       </c>
       <c r="AB19">
-        <v>-0.11364700874776651</v>
+        <v>-0.11824007660311003</v>
       </c>
       <c r="AC19">
-        <v>0.55963810888114196</v>
+        <v>0.55820359895387639</v>
       </c>
       <c r="AD19">
-        <v>0.5656229465556919</v>
+        <v>0.56423613521934324</v>
       </c>
       <c r="AE19">
-        <v>0.31545776217882432</v>
+        <v>0.31302908681822805</v>
       </c>
       <c r="AF19">
-        <v>0.3532752629427714</v>
+        <v>0.34970025670455762</v>
       </c>
       <c r="AG19">
-        <v>3.689124133126076E-2</v>
+        <v>3.2677983176812475E-2</v>
       </c>
       <c r="AH19">
-        <v>0.10134439108708582</v>
+        <v>9.7984770774168228E-2</v>
       </c>
       <c r="AI19">
-        <v>0.56971644426655743</v>
+        <v>0.56823320979919711</v>
       </c>
       <c r="AJ19">
-        <v>8.6985926491131127E-2</v>
+        <v>8.4819897868799454E-2</v>
       </c>
       <c r="AK19">
-        <v>-0.11382898634014654</v>
+        <v>-0.12454492678310664</v>
       </c>
       <c r="AL19">
-        <v>0.26251466546735669</v>
+        <v>0.25849651935423956</v>
       </c>
       <c r="AM19">
-        <v>-7.8878205582463529E-2</v>
+        <v>-8.3915645126504984E-2</v>
       </c>
       <c r="AN19">
-        <v>0.26662787518826137</v>
+        <v>0.25674395515440224</v>
       </c>
       <c r="AO19">
-        <v>0.29543065257367429</v>
+        <v>0.29073308781036417</v>
       </c>
       <c r="AP19">
-        <v>0.50692556383924847</v>
+        <v>0.49762961131507694</v>
       </c>
       <c r="AQ19">
-        <v>0.26329353923139098</v>
+        <v>0.25561868058066817</v>
       </c>
       <c r="AR19">
-        <v>0.35430344890955634</v>
+        <v>0.35036129563930074</v>
       </c>
       <c r="AS19">
-        <v>0.2553096003901133</v>
+        <v>0.25081967413131917</v>
       </c>
       <c r="AT19">
-        <v>0.35815973026136072</v>
+        <v>0.35709070469072596</v>
       </c>
       <c r="AU19">
-        <v>0.42717277568675494</v>
+        <v>0.42502194123240256</v>
       </c>
       <c r="AV19">
-        <v>0.50481768052625564</v>
+        <v>0.50198315498590762</v>
       </c>
       <c r="AW19">
-        <v>0.16582654724460444</v>
+        <v>0.16363316204282322</v>
       </c>
       <c r="AX19">
-        <v>-5.2248534935211283E-3</v>
+        <v>-6.0738592561039861E-3</v>
       </c>
       <c r="AY19">
-        <v>0.20790769871060272</v>
+        <v>0.20681508507640936</v>
       </c>
       <c r="AZ19">
-        <v>1.1269420688250487E-2</v>
+        <v>9.1813711046324631E-3</v>
       </c>
       <c r="BA19">
-        <v>7.5398925119537358E-2</v>
+        <v>7.5111886050739193E-2</v>
       </c>
       <c r="BB19">
-        <v>0.29051537644979342</v>
+        <v>0.28921707786020501</v>
       </c>
       <c r="BC19">
-        <v>0.25266947971148795</v>
+        <v>0.24227176298298669</v>
       </c>
       <c r="BD19">
-        <v>-1.2230469443708536E-2</v>
+        <v>-1.7582526419962607E-2</v>
       </c>
       <c r="BE19">
-        <v>0.15457489062609803</v>
+        <v>0.15138645789286706</v>
       </c>
       <c r="BF19">
-        <v>0.24754316590506903</v>
+        <v>0.2395420709024848</v>
       </c>
       <c r="BG19">
-        <v>0.19278466362502666</v>
+        <v>0.18524197763166839</v>
       </c>
       <c r="BH19">
-        <v>0.49795588217056352</v>
+        <v>0.49248305432547584</v>
       </c>
       <c r="BI19">
-        <v>2.6084021040411853E-2</v>
+        <v>1.4068766445372693E-2</v>
       </c>
       <c r="BJ19">
-        <v>3.6451483778952354E-2</v>
+        <v>2.9850500515456513E-2</v>
       </c>
       <c r="BK19">
-        <v>8.8390385699459117E-2</v>
+        <v>7.9267216869800705E-2</v>
       </c>
       <c r="BL19">
-        <v>7.7453396151289933E-3</v>
+        <v>7.6233739251164653E-3</v>
       </c>
       <c r="BM19">
-        <v>-4.1092453516641377E-2</v>
+        <v>-4.1693536329953623E-2</v>
       </c>
       <c r="BN19">
-        <v>1.561341264464728E-2</v>
+        <v>1.5216516232832877E-2</v>
       </c>
       <c r="BO19">
-        <v>3.0444345734186438E-2</v>
+        <v>2.9973068198373594E-2</v>
       </c>
       <c r="BP19">
-        <v>2.5800905862269269E-2</v>
+        <v>2.5226008956372545E-2</v>
       </c>
       <c r="BQ19">
-        <v>5.4707617109460746E-2</v>
+        <v>5.4405065821302355E-2</v>
       </c>
       <c r="BR19">
-        <v>3.9448809972067164E-2</v>
+        <v>3.8938748306690751E-2</v>
       </c>
       <c r="BS19">
-        <v>9.2667236753875559E-3</v>
+        <v>8.8328558797464637E-3</v>
       </c>
       <c r="BT19">
-        <v>1.2528225550822003E-2</v>
+        <v>1.2209452359713456E-2</v>
       </c>
       <c r="BU19">
-        <v>4.9920826734278625E-2</v>
+        <v>4.9617533269575229E-2</v>
       </c>
       <c r="BV19">
-        <v>4.0897148572728956E-2</v>
+        <v>3.9983481898651779E-2</v>
       </c>
       <c r="BW19">
-        <v>7.545457334494883E-2</v>
+        <v>7.4380366898478559E-2</v>
       </c>
       <c r="BX19">
-        <v>0.19803177307362768</v>
+        <v>0.1966768484024799</v>
       </c>
       <c r="BY19">
-        <v>0.16524189746940407</v>
+        <v>0.16345877494993388</v>
       </c>
       <c r="BZ19">
-        <v>4.6774352468672238E-2</v>
+        <v>4.5999529518386706E-2</v>
       </c>
       <c r="CA19">
-        <v>0.15453988405801955</v>
+        <v>0.15194595803281116</v>
       </c>
       <c r="CB19">
-        <v>5.7540958044176901E-2</v>
+        <v>5.6746218576102722E-2</v>
       </c>
       <c r="CC19">
-        <v>9.7821584625467514E-2</v>
+        <v>9.5968181892542845E-2</v>
       </c>
       <c r="CD19">
-        <v>5.0298852665112137E-4</v>
+        <v>-3.4850409089293155E-4</v>
       </c>
       <c r="CE19">
-        <v>2.8071082065068226E-2</v>
+        <v>2.4308868491551561E-2</v>
       </c>
       <c r="CF19">
-        <v>5.3779884118604598E-2</v>
+        <v>4.7401994018706123E-2</v>
       </c>
       <c r="CG19">
-        <v>2.9004006412738648E-2</v>
+        <v>2.7723220365996559E-2</v>
       </c>
       <c r="CH19">
-        <v>9.8132856082874809E-3</v>
+        <v>7.5239398354050163E-3</v>
       </c>
       <c r="CI19">
-        <v>9.6519988229413212E-3</v>
+        <v>8.1622772705099988E-3</v>
       </c>
       <c r="CJ19">
-        <v>1.6614033481435614E-2</v>
+        <v>1.3372884580470423E-2</v>
       </c>
       <c r="CK19">
-        <v>9.3711240572223308E-4</v>
+        <v>1.1661090829023649E-3</v>
       </c>
       <c r="CL19">
-        <v>-4.1288182620980761E-3</v>
+        <v>-3.965515746053634E-3</v>
       </c>
       <c r="CM19">
-        <v>7.0878048081971998E-4</v>
+        <v>9.5036789979715663E-4</v>
       </c>
       <c r="CN19">
-        <v>-2.4653492994161971E-3</v>
+        <v>-2.3631910459001619E-3</v>
       </c>
       <c r="CO19">
-        <v>-4.3041029481432269E-3</v>
+        <v>-3.8943971327759534E-3</v>
       </c>
       <c r="CP19">
-        <v>-8.2931482567091576E-3</v>
+        <v>-8.0105570035026059E-3</v>
       </c>
       <c r="CQ19">
-        <v>-4.6124948079723704E-3</v>
+        <v>-4.2034664739550058E-3</v>
       </c>
       <c r="CR19">
-        <v>-2.9086251322139522E-3</v>
+        <v>-2.7788843246782597E-3</v>
       </c>
       <c r="CS19">
-        <v>-2.9509756121576915E-3</v>
+        <v>-2.6822168692978389E-3</v>
       </c>
       <c r="CT19">
         <v>6.3917978181776639E-3</v>
@@ -6799,295 +6799,295 @@
     </row>
     <row r="20" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3.1661103528770995E-2</v>
+        <v>2.9998982676755409E-2</v>
       </c>
       <c r="B20">
-        <v>0.16180511406643144</v>
+        <v>0.1522978105247122</v>
       </c>
       <c r="C20">
-        <v>0.17336179800358759</v>
+        <v>0.16261273248426766</v>
       </c>
       <c r="D20">
-        <v>0.26625047411690461</v>
+        <v>0.25669094294421607</v>
       </c>
       <c r="E20">
-        <v>1.1443937919542811E-2</v>
+        <v>1.0464705036041293E-2</v>
       </c>
       <c r="F20">
-        <v>-1.3470138180617698E-3</v>
+        <v>-1.395739946716679E-3</v>
       </c>
       <c r="G20">
-        <v>-0.1899525318278697</v>
+        <v>-0.20435029323679493</v>
       </c>
       <c r="H20">
-        <v>0.16663412972738145</v>
+        <v>0.15433869763580038</v>
       </c>
       <c r="I20">
-        <v>-0.15868063162978552</v>
+        <v>-0.17872215592274887</v>
       </c>
       <c r="J20">
-        <v>-7.7523103908477549E-5</v>
+        <v>-8.3437036293687681E-5</v>
       </c>
       <c r="K20">
-        <v>-1.4716111602821384E-2</v>
+        <v>-1.4908720179054438E-2</v>
       </c>
       <c r="L20">
-        <v>-1.8983809824693422E-2</v>
+        <v>-1.9176418400926477E-2</v>
       </c>
       <c r="M20">
-        <v>-0.6624089994786666</v>
+        <v>-0.67272796290582515</v>
       </c>
       <c r="N20">
-        <v>-1.0493329180771081E-2</v>
+        <v>-1.0649422852334969E-2</v>
       </c>
       <c r="O20">
-        <v>0.3447198342033439</v>
+        <v>0.34455064025157212</v>
       </c>
       <c r="P20">
-        <v>2.1731844080663365E-2</v>
+        <v>1.7304948120743013E-2</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>-3.4161402578155753E-2</v>
+        <v>-3.8067090627754097E-2</v>
       </c>
       <c r="S20">
-        <v>0.59737959306344135</v>
+        <v>0.59327267435789299</v>
       </c>
       <c r="T20">
-        <v>0.4139467360056458</v>
+        <v>0.40403216652067375</v>
       </c>
       <c r="U20">
-        <v>-1.4348433021921486E-2</v>
+        <v>-1.8821367713272807E-2</v>
       </c>
       <c r="V20">
-        <v>0.45339244835409159</v>
+        <v>0.44364041644152857</v>
       </c>
       <c r="W20">
-        <v>0.31047789211694227</v>
+        <v>0.30024194206536409</v>
       </c>
       <c r="X20">
-        <v>0.44007671825281613</v>
+        <v>0.43082998371651021</v>
       </c>
       <c r="Y20">
-        <v>-0.1513696066037471</v>
+        <v>-0.1758647903904641</v>
       </c>
       <c r="Z20">
-        <v>0.43633654261854909</v>
+        <v>0.42669568554699294</v>
       </c>
       <c r="AA20">
-        <v>0.38964026974169264</v>
+        <v>0.37864240045247294</v>
       </c>
       <c r="AB20">
-        <v>-0.27859767450578871</v>
+        <v>-0.28461947807021809</v>
       </c>
       <c r="AC20">
-        <v>0.14557919731317992</v>
+        <v>0.1436984637239368</v>
       </c>
       <c r="AD20">
-        <v>0.19413042705530259</v>
+        <v>0.19231222934705389</v>
       </c>
       <c r="AE20">
-        <v>0.24440050601654928</v>
+        <v>0.24121635842633549</v>
       </c>
       <c r="AF20">
-        <v>0.33529077987477551</v>
+        <v>0.33060371972540548</v>
       </c>
       <c r="AG20">
-        <v>-0.11053587003452625</v>
+        <v>-0.11605971896760936</v>
       </c>
       <c r="AH20">
-        <v>8.4439274385598284E-2</v>
+        <v>8.0034598858778006E-2</v>
       </c>
       <c r="AI20">
-        <v>0.15943556129386041</v>
+        <v>0.1574909467391149</v>
       </c>
       <c r="AJ20">
-        <v>3.6375616697417679E-2</v>
+        <v>3.3535815656063894E-2</v>
       </c>
       <c r="AK20">
-        <v>-0.11344364242890376</v>
+        <v>-0.12690156776272149</v>
       </c>
       <c r="AL20">
-        <v>0.18809575283835087</v>
+        <v>0.18304944722863406</v>
       </c>
       <c r="AM20">
-        <v>-2.6622647435311286E-2</v>
+        <v>-3.2949062332649409E-2</v>
       </c>
       <c r="AN20">
-        <v>8.2385558665918068E-2</v>
+        <v>6.9972550350956009E-2</v>
       </c>
       <c r="AO20">
-        <v>0.30851805090772777</v>
+        <v>0.30261847763444277</v>
       </c>
       <c r="AP20">
-        <v>-8.2840956716306924E-2</v>
+        <v>-9.4515548941126848E-2</v>
       </c>
       <c r="AQ20">
-        <v>0.24444387308985932</v>
+        <v>0.23480517873365014</v>
       </c>
       <c r="AR20">
-        <v>0.1830491955544524</v>
+        <v>0.17809832776566964</v>
       </c>
       <c r="AS20">
-        <v>0.22799411567202252</v>
+        <v>0.222355311250998</v>
       </c>
       <c r="AT20">
-        <v>0.23409157451265228</v>
+        <v>0.23264619394002345</v>
       </c>
       <c r="AU20">
-        <v>0.3323661185358342</v>
+        <v>0.32945807365771607</v>
       </c>
       <c r="AV20">
-        <v>0.31188828756080544</v>
+        <v>0.30805585524002699</v>
       </c>
       <c r="AW20">
-        <v>0.11900630115705299</v>
+        <v>0.11604072535977461</v>
       </c>
       <c r="AX20">
-        <v>4.4659342264500301E-3</v>
+        <v>3.3180323717184046E-3</v>
       </c>
       <c r="AY20">
-        <v>0.12233329239033323</v>
+        <v>0.12085601947597747</v>
       </c>
       <c r="AZ20">
-        <v>9.2675720631820724E-3</v>
+        <v>6.4444157367574972E-3</v>
       </c>
       <c r="BA20">
-        <v>7.7893322390359759E-2</v>
+        <v>7.7505229995731617E-2</v>
       </c>
       <c r="BB20">
-        <v>0.29839023782087398</v>
+        <v>0.29663486768716596</v>
       </c>
       <c r="BC20">
-        <v>0.20230897040635976</v>
+        <v>0.18923679649984282</v>
       </c>
       <c r="BD20">
-        <v>-5.6348921947915021E-2</v>
+        <v>-6.3077612618954837E-2</v>
       </c>
       <c r="BE20">
-        <v>0.24492681436624492</v>
+        <v>0.24091826631032623</v>
       </c>
       <c r="BF20">
-        <v>0.21495466409201963</v>
+        <v>0.20489556092087358</v>
       </c>
       <c r="BG20">
-        <v>0.1491372043455913</v>
+        <v>0.1396544202303866</v>
       </c>
       <c r="BH20">
-        <v>0.52891241643157305</v>
+        <v>0.5220318907142959</v>
       </c>
       <c r="BI20">
-        <v>-4.2264305475754327E-3</v>
+        <v>-1.9332198640573894E-2</v>
       </c>
       <c r="BJ20">
-        <v>2.088328049107635E-3</v>
+        <v>-6.2105325014878976E-3</v>
       </c>
       <c r="BK20">
-        <v>7.6029848041295978E-2</v>
+        <v>6.4560055909634373E-2</v>
       </c>
       <c r="BL20">
-        <v>3.8072335953097235E-3</v>
+        <v>3.6590857572658744E-3</v>
       </c>
       <c r="BM20">
-        <v>-4.7107649016729994E-2</v>
+        <v>-4.7837765160609252E-2</v>
       </c>
       <c r="BN20">
-        <v>7.539605061398745E-3</v>
+        <v>7.0575076343959292E-3</v>
       </c>
       <c r="BO20">
-        <v>3.8320313580253847E-2</v>
+        <v>3.7747867771583114E-2</v>
       </c>
       <c r="BP20">
-        <v>1.7398667305370555E-2</v>
+        <v>1.6700358348991542E-2</v>
       </c>
       <c r="BQ20">
-        <v>4.4282602588440613E-2</v>
+        <v>4.3915103177471521E-2</v>
       </c>
       <c r="BR20">
-        <v>2.4721401246894245E-2</v>
+        <v>2.4101845591637472E-2</v>
       </c>
       <c r="BS20">
-        <v>1.3470458638610676E-2</v>
+        <v>1.2943453249517456E-2</v>
       </c>
       <c r="BT20">
-        <v>4.7622603472837616E-3</v>
+        <v>4.3750567076026592E-3</v>
       </c>
       <c r="BU20">
-        <v>4.7790045691136131E-2</v>
+        <v>4.7409687125761768E-2</v>
       </c>
       <c r="BV20">
-        <v>4.0010503183060306E-2</v>
+        <v>3.8864679131581654E-2</v>
       </c>
       <c r="BW20">
-        <v>5.4882329265295918E-2</v>
+        <v>5.3535173219667054E-2</v>
       </c>
       <c r="BX20">
-        <v>0.21420931054550468</v>
+        <v>0.21251010740737566</v>
       </c>
       <c r="BY20">
-        <v>0.14695616066208375</v>
+        <v>0.14471995709136881</v>
       </c>
       <c r="BZ20">
-        <v>4.2690543372458645E-2</v>
+        <v>4.1718842426581228E-2</v>
       </c>
       <c r="CA20">
-        <v>0.13624271011801273</v>
+        <v>0.13298968257700916</v>
       </c>
       <c r="CB20">
-        <v>5.7480709700046935E-2</v>
+        <v>5.6484031565188837E-2</v>
       </c>
       <c r="CC20">
-        <v>9.4469761739762126E-2</v>
+        <v>9.2145420161639041E-2</v>
       </c>
       <c r="CD20">
-        <v>3.393434532180023E-3</v>
+        <v>2.1868058555393893E-3</v>
       </c>
       <c r="CE20">
-        <v>1.5025579347767576E-2</v>
+        <v>9.3488934062097573E-3</v>
       </c>
       <c r="CF20">
-        <v>4.8966704751808254E-2</v>
+        <v>3.9319946622118435E-2</v>
       </c>
       <c r="CG20">
-        <v>7.5381578611832534E-2</v>
+        <v>7.3794204301936506E-2</v>
       </c>
       <c r="CH20">
-        <v>6.29010630755511E-3</v>
+        <v>2.9235856990472708E-3</v>
       </c>
       <c r="CI20">
-        <v>2.4780195510084979E-2</v>
+        <v>2.247310545432657E-2</v>
       </c>
       <c r="CJ20">
-        <v>1.589586759580508E-2</v>
+        <v>1.0955112156286084E-2</v>
       </c>
       <c r="CK20">
-        <v>-8.5023044936746034E-4</v>
+        <v>-4.8541817091798511E-4</v>
       </c>
       <c r="CL20">
-        <v>-1.6712020318992637E-3</v>
+        <v>-1.5219210876776896E-3</v>
       </c>
       <c r="CM20">
-        <v>-1.01639468435708E-3</v>
+        <v>-6.1986267113332046E-4</v>
       </c>
       <c r="CN20">
-        <v>-9.6097613964335731E-4</v>
+        <v>-8.5618845493382317E-4</v>
       </c>
       <c r="CO20">
-        <v>-3.42776907841908E-3</v>
+        <v>-2.9711842901510412E-3</v>
       </c>
       <c r="CP20">
-        <v>-5.2900123146797781E-3</v>
+        <v>-5.0202255516768541E-3</v>
       </c>
       <c r="CQ20">
-        <v>-3.7172138061969664E-3</v>
+        <v>-3.2611342123289979E-3</v>
       </c>
       <c r="CR20">
-        <v>-2.6633736358800805E-3</v>
+        <v>-2.5083329983071308E-3</v>
       </c>
       <c r="CS20">
-        <v>-2.2187642903948217E-3</v>
+        <v>-1.9171798848105354E-3</v>
       </c>
       <c r="CT20">
         <v>6.3747853650682777E-3</v>
@@ -7119,295 +7119,295 @@
     </row>
     <row r="21" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1.4667669903224184E-2</v>
+        <v>1.4232308342627217E-2</v>
       </c>
       <c r="B21">
-        <v>4.8888205488798908E-2</v>
+        <v>4.6397944626014653E-2</v>
       </c>
       <c r="C21">
-        <v>3.6873378344954966E-2</v>
+        <v>3.4057861089530794E-2</v>
       </c>
       <c r="D21">
-        <v>0.15226588155030552</v>
+        <v>0.1497619406335724</v>
       </c>
       <c r="E21">
-        <v>6.1711604511006657E-3</v>
+        <v>5.9146686588028297E-3</v>
       </c>
       <c r="F21">
-        <v>-1.6635038556784242E-3</v>
+        <v>-1.6762667563948955E-3</v>
       </c>
       <c r="G21">
-        <v>-0.30960563276782738</v>
+        <v>-0.31337685786766978</v>
       </c>
       <c r="H21">
-        <v>5.1560363285723998E-2</v>
+        <v>4.8339804144604037E-2</v>
       </c>
       <c r="I21">
-        <v>-0.34735935702743448</v>
+        <v>-0.35260886056524643</v>
       </c>
       <c r="J21">
-        <v>-3.7196903747985276E-4</v>
+        <v>-3.7326128340688309E-4</v>
       </c>
       <c r="K21">
-        <v>-1.4370485146694924E-2</v>
+        <v>-1.4412571804427224E-2</v>
       </c>
       <c r="L21">
-        <v>-1.9576129115140249E-2</v>
+        <v>-1.9618215772872549E-2</v>
       </c>
       <c r="M21">
-        <v>-0.8346952430716138</v>
+        <v>-0.83695002679103359</v>
       </c>
       <c r="N21">
-        <v>-1.4602990912164009E-2</v>
+        <v>-1.4637098744004982E-2</v>
       </c>
       <c r="O21">
-        <v>0.2029777280925065</v>
+        <v>0.20294075773491463</v>
       </c>
       <c r="P21">
-        <v>1.1257646026130441E-2</v>
+        <v>1.029033055801637E-2</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>-3.5159272208539816E-2</v>
+        <v>-3.6012699191737441E-2</v>
       </c>
       <c r="S21">
-        <v>0.51220325713053239</v>
+        <v>0.51140390169542749</v>
       </c>
       <c r="T21">
-        <v>0.36007492502714705</v>
+        <v>0.35814518996961331</v>
       </c>
       <c r="U21">
-        <v>0.12221529093662781</v>
+        <v>0.12134469550663535</v>
       </c>
       <c r="V21">
-        <v>0.40665614160553276</v>
+        <v>0.40475804225866907</v>
       </c>
       <c r="W21">
-        <v>0.29915040442158186</v>
+        <v>0.29715811704171791</v>
       </c>
       <c r="X21">
-        <v>0.37179872774532924</v>
+        <v>0.36999897760696326</v>
       </c>
       <c r="Y21">
-        <v>-6.5533129414839908E-2</v>
+        <v>-7.0300781198975093E-2</v>
       </c>
       <c r="Z21">
-        <v>0.38287028611513879</v>
+        <v>0.380993825427274</v>
       </c>
       <c r="AA21">
-        <v>0.3585654425298298</v>
+        <v>0.35642485801350265</v>
       </c>
       <c r="AB21">
-        <v>-0.25164540145488917</v>
+        <v>-0.25282086819913735</v>
       </c>
       <c r="AC21">
-        <v>0.26287432737128991</v>
+        <v>0.2625072048364393</v>
       </c>
       <c r="AD21">
-        <v>0.26885149089615945</v>
+        <v>0.2684965754762777</v>
       </c>
       <c r="AE21">
-        <v>0.46456380298664862</v>
+        <v>0.46394225172529835</v>
       </c>
       <c r="AF21">
-        <v>0.42532659309877857</v>
+        <v>0.42441167063826851</v>
       </c>
       <c r="AG21">
-        <v>-9.136377630010073E-3</v>
+        <v>-1.0214642746369185E-2</v>
       </c>
       <c r="AH21">
-        <v>7.0056284027372351E-2</v>
+        <v>6.9196483546406007E-2</v>
       </c>
       <c r="AI21">
-        <v>0.27099850823441962</v>
+        <v>0.27061891602171662</v>
       </c>
       <c r="AJ21">
-        <v>1.3526684962351376E-2</v>
+        <v>1.2972350758540585E-2</v>
       </c>
       <c r="AK21">
-        <v>-0.1102229799955739</v>
+        <v>-0.11306520431404726</v>
       </c>
       <c r="AL21">
-        <v>0.2647376101641804</v>
+        <v>0.2636718639836495</v>
       </c>
       <c r="AM21">
-        <v>-5.0261861952533265E-2</v>
+        <v>-5.1597958700282581E-2</v>
       </c>
       <c r="AN21">
-        <v>0.11821327534084075</v>
+        <v>0.1155917305467451</v>
       </c>
       <c r="AO21">
-        <v>0.30867271513872546</v>
+        <v>0.3074267645029457</v>
       </c>
       <c r="AP21">
-        <v>-0.10571228350141687</v>
+        <v>-0.10817787972866466</v>
       </c>
       <c r="AQ21">
-        <v>0.18491162642942283</v>
+        <v>0.1828759982907594</v>
       </c>
       <c r="AR21">
-        <v>0.27614695371875436</v>
+        <v>0.27510136337122393</v>
       </c>
       <c r="AS21">
-        <v>0.28313678818087412</v>
+        <v>0.2819459101922529</v>
       </c>
       <c r="AT21">
-        <v>0.35811657117172913</v>
+        <v>0.35779052776268766</v>
       </c>
       <c r="AU21">
-        <v>0.45267170646666705</v>
+        <v>0.45201572085037867</v>
       </c>
       <c r="AV21">
-        <v>0.56271229986142224</v>
+        <v>0.56184779446924404</v>
       </c>
       <c r="AW21">
-        <v>0.20990741289433046</v>
+        <v>0.20923844967382937</v>
       </c>
       <c r="AX21">
-        <v>-9.980488754725278E-3</v>
+        <v>-1.0239428054899358E-2</v>
       </c>
       <c r="AY21">
-        <v>0.24998889039698616</v>
+        <v>0.24965565283574989</v>
       </c>
       <c r="AZ21">
-        <v>-2.1159698425130269E-3</v>
+        <v>-2.7528066247110017E-3</v>
       </c>
       <c r="BA21">
-        <v>7.8936054546390105E-2</v>
+        <v>7.8848510151672324E-2</v>
       </c>
       <c r="BB21">
-        <v>0.31273482600055924</v>
+        <v>0.31233885633460279</v>
       </c>
       <c r="BC21">
-        <v>0.16874476432433116</v>
+        <v>0.16580104748683966</v>
       </c>
       <c r="BD21">
-        <v>-9.6375431417619284E-2</v>
+        <v>-9.7890662179102417E-2</v>
       </c>
       <c r="BE21">
-        <v>0.11871699201799843</v>
+        <v>0.11781430892255565</v>
       </c>
       <c r="BF21">
-        <v>0.22819574097047168</v>
+        <v>0.22593053614786723</v>
       </c>
       <c r="BG21">
-        <v>0.14680078765763666</v>
+        <v>0.14466536385851564</v>
       </c>
       <c r="BH21">
-        <v>0.47841700066429405</v>
+        <v>0.47686757823849207</v>
       </c>
       <c r="BI21">
-        <v>-1.8866327493281654E-2</v>
+        <v>-2.2267988471524336E-2</v>
       </c>
       <c r="BJ21">
-        <v>-6.927511475611603E-3</v>
+        <v>-8.7963280710366409E-3</v>
       </c>
       <c r="BK21">
-        <v>3.720459511126456E-2</v>
+        <v>3.4621717889621539E-2</v>
       </c>
       <c r="BL21">
-        <v>-1.0039194018471656E-4</v>
+        <v>-1.3221440348725258E-4</v>
       </c>
       <c r="BM21">
-        <v>-5.4644071532622393E-2</v>
+        <v>-5.480090199671811E-2</v>
       </c>
       <c r="BN21">
-        <v>3.1154247529390361E-3</v>
+        <v>3.0118692243426351E-3</v>
       </c>
       <c r="BO21">
-        <v>2.7908942040795318E-2</v>
+        <v>2.7785979492170605E-2</v>
       </c>
       <c r="BP21">
-        <v>1.680882478218429E-2</v>
+        <v>1.665882656802456E-2</v>
       </c>
       <c r="BQ21">
-        <v>4.5295183108793428E-2</v>
+        <v>4.5216243472051589E-2</v>
       </c>
       <c r="BR21">
-        <v>2.4792969024000966E-2</v>
+        <v>2.4659887182486295E-2</v>
       </c>
       <c r="BS21">
-        <v>2.7748235276628563E-2</v>
+        <v>2.7635033424505039E-2</v>
       </c>
       <c r="BT21">
-        <v>2.9614089949087583E-3</v>
+        <v>2.8782368489155552E-3</v>
       </c>
       <c r="BU21">
-        <v>3.7282423456899208E-2</v>
+        <v>3.7198187257636045E-2</v>
       </c>
       <c r="BV21">
-        <v>3.534148132935188E-2</v>
+        <v>3.5087721150614225E-2</v>
       </c>
       <c r="BW21">
-        <v>4.2167605413215473E-2</v>
+        <v>4.1869257204098703E-2</v>
       </c>
       <c r="BX21">
-        <v>0.11261285508358909</v>
+        <v>0.11223654069793554</v>
       </c>
       <c r="BY21">
-        <v>0.13111234209341316</v>
+        <v>0.13061710081245381</v>
       </c>
       <c r="BZ21">
-        <v>5.8619993490787489E-2</v>
+        <v>5.8404795521575723E-2</v>
       </c>
       <c r="CA21">
-        <v>0.13659548660285492</v>
+        <v>0.13587505424883173</v>
       </c>
       <c r="CB21">
-        <v>5.8666690728820733E-2</v>
+        <v>5.8445961181232964E-2</v>
       </c>
       <c r="CC21">
-        <v>9.8249592710975858E-2</v>
+        <v>9.7734831931617763E-2</v>
       </c>
       <c r="CD21">
-        <v>5.8656847511566051E-3</v>
+        <v>5.2555588734701231E-3</v>
       </c>
       <c r="CE21">
-        <v>5.2289680767766689E-3</v>
+        <v>3.6009465046962508E-3</v>
       </c>
       <c r="CF21">
-        <v>3.5395712595481299E-2</v>
+        <v>3.2095595821218681E-2</v>
       </c>
       <c r="CG21">
-        <v>6.2522006808912789E-2</v>
+        <v>6.2183472719172184E-2</v>
       </c>
       <c r="CH21">
-        <v>-2.4372782382010849E-4</v>
+        <v>-1.3338443880255568E-3</v>
       </c>
       <c r="CI21">
-        <v>-2.7819123017102099E-3</v>
+        <v>-4.3600750499962482E-3</v>
       </c>
       <c r="CJ21">
-        <v>7.9529659058562574E-3</v>
+        <v>6.499800372236797E-3</v>
       </c>
       <c r="CK21">
-        <v>1.9038849740445228E-3</v>
+        <v>1.9545133391956782E-3</v>
       </c>
       <c r="CL21">
-        <v>-1.3504405389493327E-3</v>
+        <v>-1.3204052379475221E-3</v>
       </c>
       <c r="CM21">
-        <v>-2.7885919134758167E-3</v>
+        <v>-2.685052866031796E-3</v>
       </c>
       <c r="CN21">
-        <v>-1.8585314874410659E-3</v>
+        <v>-1.8320530876484824E-3</v>
       </c>
       <c r="CO21">
-        <v>-3.5026050739243005E-3</v>
+        <v>-3.4039987258804609E-3</v>
       </c>
       <c r="CP21">
-        <v>-4.0757127150671665E-3</v>
+        <v>-4.0249355573662186E-3</v>
       </c>
       <c r="CQ21">
-        <v>-2.6823125318079831E-3</v>
+        <v>-2.5957845876311636E-3</v>
       </c>
       <c r="CR21">
-        <v>-2.5712900644593714E-3</v>
+        <v>-2.5389368371943862E-3</v>
       </c>
       <c r="CS21">
-        <v>-1.6429011217011505E-3</v>
+        <v>-1.5836414711665999E-3</v>
       </c>
       <c r="CT21">
         <v>6.5223687671167206E-3</v>
@@ -7439,295 +7439,295 @@
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>3.2148288063833588E-2</v>
+        <v>3.2169427415337001E-2</v>
       </c>
       <c r="B22">
-        <v>0.14223451275749788</v>
+        <v>0.14235542949539604</v>
       </c>
       <c r="C22">
-        <v>0.17712478817135774</v>
+        <v>0.17726149801051944</v>
       </c>
       <c r="D22">
-        <v>0.31701861542634918</v>
+        <v>0.31714019641092228</v>
       </c>
       <c r="E22">
-        <v>1.3464167142740457E-2</v>
+        <v>1.347662132024683E-2</v>
       </c>
       <c r="F22">
-        <v>-1.0322095569201973E-3</v>
+        <v>-1.0315898434019013E-3</v>
       </c>
       <c r="G22">
-        <v>3.0908803666035656E-2</v>
+        <v>3.1091918713847422E-2</v>
       </c>
       <c r="H22">
-        <v>0.23402176275379277</v>
+        <v>0.23417813974681062</v>
       </c>
       <c r="I22">
-        <v>-0.13143036993857038</v>
+        <v>-0.13117547582170774</v>
       </c>
       <c r="J22">
-        <v>-3.1408653542772835E-4</v>
+        <v>-3.1400776962523235E-4</v>
       </c>
       <c r="K22">
-        <v>-1.1643630252662737E-2</v>
+        <v>-1.1641064959709343E-2</v>
       </c>
       <c r="L22">
-        <v>-1.9331521879378005E-2</v>
+        <v>-1.9328956586424612E-2</v>
       </c>
       <c r="M22">
-        <v>-0.78049720868994932</v>
+        <v>-0.78035977366663034</v>
       </c>
       <c r="N22">
-        <v>-1.4122343586608611E-2</v>
+        <v>-1.4120264624167978E-2</v>
       </c>
       <c r="O22">
-        <v>0.24735415741243336</v>
+        <v>0.24735641085337937</v>
       </c>
       <c r="P22">
-        <v>0.13120341275252229</v>
+        <v>0.13126237318530004</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>0.10468835534354981</v>
+        <v>0.10474037397235519</v>
       </c>
       <c r="S22">
-        <v>0.56002735120544178</v>
+        <v>0.5600818494206099</v>
       </c>
       <c r="T22">
-        <v>0.38760816764937012</v>
+        <v>0.38773973254749228</v>
       </c>
       <c r="U22">
-        <v>0.15199944681626343</v>
+        <v>0.1520588020104417</v>
       </c>
       <c r="V22">
-        <v>0.41140497510081375</v>
+        <v>0.41153438314893981</v>
       </c>
       <c r="W22">
-        <v>0.35539714684342449</v>
+        <v>0.35553297641502224</v>
       </c>
       <c r="X22">
-        <v>0.42947461147065136</v>
+        <v>0.42959731429593045</v>
       </c>
       <c r="Y22">
-        <v>-0.22668482253480216</v>
+        <v>-0.2263597750010421</v>
       </c>
       <c r="Z22">
-        <v>0.40626803882557938</v>
+        <v>0.40639597159970053</v>
       </c>
       <c r="AA22">
-        <v>0.33581769441839848</v>
+        <v>0.33596363454769912</v>
       </c>
       <c r="AB22">
-        <v>-0.24388443873111265</v>
+        <v>-0.24381004599623035</v>
       </c>
       <c r="AC22">
-        <v>0.33659015618951971</v>
+        <v>0.3366133905766584</v>
       </c>
       <c r="AD22">
-        <v>0.34271841705578038</v>
+        <v>0.3427408788811499</v>
       </c>
       <c r="AE22">
-        <v>4.017764593508355E-2</v>
+        <v>4.0216982563216819E-2</v>
       </c>
       <c r="AF22">
-        <v>0.36670197930501153</v>
+        <v>0.36675988275857629</v>
       </c>
       <c r="AG22">
-        <v>-2.773582324759083E-2</v>
+        <v>-2.7667582192429929E-2</v>
       </c>
       <c r="AH22">
-        <v>4.9470763082039237E-2</v>
+        <v>4.9525177985349111E-2</v>
       </c>
       <c r="AI22">
-        <v>0.37707289289700963</v>
+        <v>0.37709691646295163</v>
       </c>
       <c r="AJ22">
-        <v>1.3521347110037607E-2</v>
+        <v>1.3556429716723106E-2</v>
       </c>
       <c r="AK22">
-        <v>-0.12977483456010347</v>
+        <v>-0.12960405469830422</v>
       </c>
       <c r="AL22">
-        <v>0.21198114327283074</v>
+        <v>0.21204518043704787</v>
       </c>
       <c r="AM22">
-        <v>-3.1984602642739418E-2</v>
+        <v>-3.1904321006822167E-2</v>
       </c>
       <c r="AN22">
-        <v>0.22466008253505537</v>
+        <v>0.22481760249388699</v>
       </c>
       <c r="AO22">
-        <v>0.30064994432130882</v>
+        <v>0.3007248093754159</v>
       </c>
       <c r="AP22">
-        <v>-0.32170395417882425</v>
+        <v>-0.321555804653748</v>
       </c>
       <c r="AQ22">
-        <v>0.12298785917666388</v>
+        <v>0.12311017334093866</v>
       </c>
       <c r="AR22">
-        <v>0.38050122042416334</v>
+        <v>0.38056404649101849</v>
       </c>
       <c r="AS22">
-        <v>0.3195094708031202</v>
+        <v>0.31958102672395106</v>
       </c>
       <c r="AT22">
-        <v>0.31664366209663014</v>
+        <v>0.3166682001998315</v>
       </c>
       <c r="AU22">
-        <v>0.41537868457102406</v>
+        <v>0.41542805420189133</v>
       </c>
       <c r="AV22">
-        <v>0.45071465369812241</v>
+        <v>0.45077971657608018</v>
       </c>
       <c r="AW22">
-        <v>0.19029193813054179</v>
+        <v>0.19034228445893664</v>
       </c>
       <c r="AX22">
-        <v>-2.144041648397918E-2</v>
+        <v>-2.142092865170174E-2</v>
       </c>
       <c r="AY22">
-        <v>0.10623677721072361</v>
+        <v>0.1062618567475013</v>
       </c>
       <c r="AZ22">
-        <v>-7.5383336529572464E-2</v>
+        <v>-7.5335408044436281E-2</v>
       </c>
       <c r="BA22">
-        <v>9.7009192433695102E-2</v>
+        <v>9.7015781045311583E-2</v>
       </c>
       <c r="BB22">
-        <v>0.2763367064966531</v>
+        <v>0.2763665072663003</v>
       </c>
       <c r="BC22">
-        <v>0.13386589525139647</v>
+        <v>0.13406750093925845</v>
       </c>
       <c r="BD22">
-        <v>-0.12587691374668827</v>
+        <v>-0.12577314047065577</v>
       </c>
       <c r="BE22">
-        <v>0.11867523156185511</v>
+        <v>0.11873705342055441</v>
       </c>
       <c r="BF22">
-        <v>0.18501404502975238</v>
+        <v>0.18516918161442431</v>
       </c>
       <c r="BG22">
-        <v>8.5943804347579256E-2</v>
+        <v>8.6090052647828597E-2</v>
       </c>
       <c r="BH22">
-        <v>0.49687549664450859</v>
+        <v>0.49698161159753812</v>
       </c>
       <c r="BI22">
-        <v>-7.5902942162562881E-2</v>
+        <v>-7.5669973355014131E-2</v>
       </c>
       <c r="BJ22">
-        <v>1.340345379881025E-2</v>
+        <v>1.3531443030114665E-2</v>
       </c>
       <c r="BK22">
-        <v>-9.9217458704704553E-3</v>
+        <v>-9.7448529260470984E-3</v>
       </c>
       <c r="BL22">
-        <v>-3.9695197018936191E-3</v>
+        <v>-3.9670594191741435E-3</v>
       </c>
       <c r="BM22">
-        <v>-7.3321330685461705E-2</v>
+        <v>-7.3309205688190743E-2</v>
       </c>
       <c r="BN22">
-        <v>-9.0257223748795856E-3</v>
+        <v>-9.0177162103319414E-3</v>
       </c>
       <c r="BO22">
-        <v>1.9263915492368874E-2</v>
+        <v>1.9273422067351692E-2</v>
       </c>
       <c r="BP22">
-        <v>3.2784526005191772E-4</v>
+        <v>3.3944203716934629E-4</v>
       </c>
       <c r="BQ22">
-        <v>3.856165003817983E-2</v>
+        <v>3.8567753079993737E-2</v>
       </c>
       <c r="BR22">
-        <v>8.6492870991549536E-3</v>
+        <v>8.65957602468026E-3</v>
       </c>
       <c r="BS22">
-        <v>2.0833478819114515E-2</v>
+        <v>2.0842230767634112E-2</v>
       </c>
       <c r="BT22">
-        <v>-4.579461132800472E-3</v>
+        <v>-4.5730308639811354E-3</v>
       </c>
       <c r="BU22">
-        <v>4.6702022262810096E-2</v>
+        <v>4.6707160138423645E-2</v>
       </c>
       <c r="BV22">
-        <v>3.7264078185436332E-2</v>
+        <v>3.7279555971622184E-2</v>
       </c>
       <c r="BW22">
-        <v>4.4848351228454139E-2</v>
+        <v>4.4866548612090745E-2</v>
       </c>
       <c r="BX22">
-        <v>0.12360676641767403</v>
+        <v>0.12362971926610287</v>
       </c>
       <c r="BY22">
-        <v>0.14241279390271613</v>
+        <v>0.1424430005824667</v>
       </c>
       <c r="BZ22">
-        <v>8.1206218708165037E-2</v>
+        <v>8.1219344436616131E-2</v>
       </c>
       <c r="CA22">
-        <v>0.11846317513259916</v>
+        <v>0.11850711715997103</v>
       </c>
       <c r="CB22">
-        <v>6.7590233537080241E-2</v>
+        <v>6.7603696657725934E-2</v>
       </c>
       <c r="CC22">
-        <v>0.10559594716999048</v>
+        <v>0.10562734442395556</v>
       </c>
       <c r="CD22">
-        <v>-1.3606072232379141E-3</v>
+        <v>-1.9288904885258751E-3</v>
       </c>
       <c r="CE22">
-        <v>2.0150992434268711E-2</v>
+        <v>2.0140276393820572E-2</v>
       </c>
       <c r="CF22">
-        <v>2.5635987315925257E-2</v>
+        <v>2.4906519305295804E-2</v>
       </c>
       <c r="CG22">
-        <v>9.4183534697089483E-2</v>
+        <v>9.4293582842087414E-2</v>
       </c>
       <c r="CH22">
-        <v>4.8752408355173943E-3</v>
+        <v>4.8832087931292151E-3</v>
       </c>
       <c r="CI22">
-        <v>5.1818211059696528E-3</v>
+        <v>5.6828105351269254E-3</v>
       </c>
       <c r="CJ22">
-        <v>-6.385401475400565E-5</v>
+        <v>-4.5502047529855094E-4</v>
       </c>
       <c r="CK22">
-        <v>-1.0343328347827731E-3</v>
+        <v>-1.0394650565170487E-3</v>
       </c>
       <c r="CL22">
-        <v>-1.4693363288444854E-3</v>
+        <v>-1.4712461625120956E-3</v>
       </c>
       <c r="CM22">
-        <v>-9.475078190099755E-4</v>
+        <v>-9.5260841291799729E-4</v>
       </c>
       <c r="CN22">
-        <v>-2.4977563349732083E-3</v>
+        <v>-2.4993162343195739E-3</v>
       </c>
       <c r="CO22">
-        <v>-3.9201973558267962E-3</v>
+        <v>-3.9266564583911893E-3</v>
       </c>
       <c r="CP22">
-        <v>-8.0624604923652376E-4</v>
+        <v>-8.083239022190292E-4</v>
       </c>
       <c r="CQ22">
-        <v>-1.0799890522033484E-3</v>
+        <v>-1.0843369520909972E-3</v>
       </c>
       <c r="CR22">
-        <v>3.6879394658782382E-4</v>
+        <v>3.6751674231815142E-4</v>
       </c>
       <c r="CS22">
-        <v>-1.7334099403481127E-3</v>
+        <v>-1.7371671005892925E-3</v>
       </c>
       <c r="CT22">
         <v>6.4978894646895114E-3</v>
@@ -7759,295 +7759,295 @@
     </row>
     <row r="23" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2.2960336786965602E-2</v>
+        <v>2.407466187016867E-2</v>
       </c>
       <c r="B23">
-        <v>-1.9185654509110694E-2</v>
+        <v>-1.2811733625249788E-2</v>
       </c>
       <c r="C23">
-        <v>6.4710602665604133E-3</v>
+        <v>1.3677487714147007E-2</v>
       </c>
       <c r="D23">
-        <v>0.11988706051455356</v>
+        <v>0.12629599603598118</v>
       </c>
       <c r="E23">
-        <v>5.2944847426177541E-3</v>
+        <v>5.9509855999770461E-3</v>
       </c>
       <c r="F23">
-        <v>-1.765940679877349E-3</v>
+        <v>-1.7332735321776479E-3</v>
       </c>
       <c r="G23">
-        <v>-8.820945658864876E-2</v>
+        <v>-7.8556857224118426E-2</v>
       </c>
       <c r="H23">
-        <v>-7.9158624044728398E-3</v>
+        <v>3.2728572272489043E-4</v>
       </c>
       <c r="I23">
-        <v>-0.45611227495448481</v>
+        <v>-0.44267596363079842</v>
       </c>
       <c r="J23">
-        <v>-1.4138788204135693E-4</v>
+        <v>-1.376329089745489E-4</v>
       </c>
       <c r="K23">
-        <v>-2.0710367474907856E-2</v>
+        <v>-2.0588073209589559E-2</v>
       </c>
       <c r="L23">
-        <v>-2.4542736202787654E-2</v>
+        <v>-2.4420441937469357E-2</v>
       </c>
       <c r="M23">
-        <v>-0.9491454303387965</v>
+        <v>-0.94259354113504767</v>
       </c>
       <c r="N23">
-        <v>0.2873295790005293</v>
+        <v>0.28742868861058968</v>
       </c>
       <c r="O23">
-        <v>0.34692099073684213</v>
+        <v>0.34702841819637126</v>
       </c>
       <c r="P23">
-        <v>-5.4106645414160881E-2</v>
+        <v>-5.1295846437047987E-2</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>-6.8540284265727114E-2</v>
+        <v>-6.6060419350417399E-2</v>
       </c>
       <c r="S23">
-        <v>0.51167780391182904</v>
+        <v>0.5138702823714858</v>
       </c>
       <c r="T23">
-        <v>0.45965537747244517</v>
+        <v>0.4649482701715883</v>
       </c>
       <c r="U23">
-        <v>9.4654942034520323E-2</v>
+        <v>9.7042818120061158E-2</v>
       </c>
       <c r="V23">
-        <v>0.48481841235419448</v>
+        <v>0.49002453437392041</v>
       </c>
       <c r="W23">
-        <v>0.34791830884055158</v>
+        <v>0.35338277054803285</v>
       </c>
       <c r="X23">
-        <v>0.50552476884105291</v>
+        <v>0.51046113786769731</v>
       </c>
       <c r="Y23">
-        <v>-0.32585601505039696</v>
+        <v>-0.31277926173040627</v>
       </c>
       <c r="Z23">
-        <v>0.46750509222522002</v>
+        <v>0.47265186355854594</v>
       </c>
       <c r="AA23">
-        <v>0.3742437044319406</v>
+        <v>0.3801149167074987</v>
       </c>
       <c r="AB23">
-        <v>-5.723065079430889E-2</v>
+        <v>-5.4352572050198278E-2</v>
       </c>
       <c r="AC23">
-        <v>6.9766117651393178E-2</v>
+        <v>7.0665001068731637E-2</v>
       </c>
       <c r="AD23">
-        <v>7.6079243537125057E-2</v>
+        <v>7.6948238369107219E-2</v>
       </c>
       <c r="AE23">
-        <v>2.4625296678339237E-2</v>
+        <v>2.614713766824428E-2</v>
       </c>
       <c r="AF23">
-        <v>0.39238863012338843</v>
+        <v>0.39462877762138254</v>
       </c>
       <c r="AG23">
-        <v>-2.1853357273439733E-2</v>
+        <v>-1.9213272450033569E-2</v>
       </c>
       <c r="AH23">
-        <v>5.5448280523934246E-3</v>
+        <v>7.6500118022135299E-3</v>
       </c>
       <c r="AI23">
-        <v>9.8798772630879328E-2</v>
+        <v>9.972818750727297E-2</v>
       </c>
       <c r="AJ23">
-        <v>-1.8572707508621389E-2</v>
+        <v>-1.7215444534634361E-2</v>
       </c>
       <c r="AK23">
-        <v>-0.17711170242541752</v>
+        <v>-0.17048344556607387</v>
       </c>
       <c r="AL23">
-        <v>0.21114741268355303</v>
+        <v>0.21363280392642903</v>
       </c>
       <c r="AM23">
-        <v>-6.3146063560938298E-2</v>
+        <v>-6.0030196746536812E-2</v>
       </c>
       <c r="AN23">
-        <v>4.2976040961461515E-2</v>
+        <v>4.9089658437253825E-2</v>
       </c>
       <c r="AO23">
-        <v>0.28140175363433872</v>
+        <v>0.28430739369741659</v>
       </c>
       <c r="AP23">
-        <v>0.33263157246174629</v>
+        <v>0.33838150746842616</v>
       </c>
       <c r="AQ23">
-        <v>0.10387465363435427</v>
+        <v>0.10862187435351817</v>
       </c>
       <c r="AR23">
-        <v>0.18428543164579475</v>
+        <v>0.18672381814049779</v>
       </c>
       <c r="AS23">
-        <v>0.27859415446343827</v>
+        <v>0.28137136143665831</v>
       </c>
       <c r="AT23">
-        <v>0.18218631570195254</v>
+        <v>0.18320364722852037</v>
       </c>
       <c r="AU23">
-        <v>-1.9357135853373508E-2</v>
+        <v>-1.7310307639954947E-2</v>
       </c>
       <c r="AV23">
-        <v>0.29248830782241714</v>
+        <v>0.29518576639990057</v>
       </c>
       <c r="AW23">
-        <v>5.9886119526695536E-2</v>
+        <v>6.1973440893905163E-2</v>
       </c>
       <c r="AX23">
-        <v>1.4449449516277441E-2</v>
+        <v>1.5257400562762174E-2</v>
       </c>
       <c r="AY23">
-        <v>5.6365980186743964E-2</v>
+        <v>5.7405759147094532E-2</v>
       </c>
       <c r="AZ23">
-        <v>-0.10129092829089767</v>
+        <v>-9.9303848908699061E-2</v>
       </c>
       <c r="BA23">
-        <v>1.0126229411559204E-2</v>
+        <v>1.0399388353745848E-2</v>
       </c>
       <c r="BB23">
-        <v>9.0115295830348358E-2</v>
+        <v>9.1350813597526337E-2</v>
       </c>
       <c r="BC23">
-        <v>0.13163811126505931</v>
+        <v>0.13977919093887037</v>
       </c>
       <c r="BD23">
-        <v>-0.15250144504157936</v>
+        <v>-0.14831095559084956</v>
       </c>
       <c r="BE23">
-        <v>8.6057032833984748E-2</v>
+        <v>8.8553473696301066E-2</v>
       </c>
       <c r="BF23">
-        <v>0.13516270171000555</v>
+        <v>0.14142730321768293</v>
       </c>
       <c r="BG23">
-        <v>5.8581880824490506E-2</v>
+        <v>6.4487562738111848E-2</v>
       </c>
       <c r="BH23">
-        <v>0.52033433226798931</v>
+        <v>0.52461938144669795</v>
       </c>
       <c r="BI23">
-        <v>-0.16010261197970233</v>
+        <v>-0.15069505188612797</v>
       </c>
       <c r="BJ23">
-        <v>-9.6696525736361505E-2</v>
+        <v>-9.1528166944059741E-2</v>
       </c>
       <c r="BK23">
-        <v>-5.6621600197418132E-2</v>
+        <v>-4.9478450767669657E-2</v>
       </c>
       <c r="BL23">
-        <v>-1.2369130990477623E-2</v>
+        <v>-1.2276833963406021E-2</v>
       </c>
       <c r="BM23">
-        <v>-8.5786800690533196E-2</v>
+        <v>-8.5331933779299013E-2</v>
       </c>
       <c r="BN23">
-        <v>-4.4603266338210101E-2</v>
+        <v>-4.4302916634436099E-2</v>
       </c>
       <c r="BO23">
-        <v>-8.3110095567419939E-3</v>
+        <v>-7.9543722477029843E-3</v>
       </c>
       <c r="BP23">
-        <v>-3.4658609940438553E-2</v>
+        <v>-3.4223559105392404E-2</v>
       </c>
       <c r="BQ23">
-        <v>2.0817358168243941E-3</v>
+        <v>2.3106902418830177E-3</v>
       </c>
       <c r="BR23">
-        <v>-3.5907258841356635E-2</v>
+        <v>-3.5521271804079275E-2</v>
       </c>
       <c r="BS23">
-        <v>1.191768295723887E-2</v>
+        <v>1.2246010601477689E-2</v>
       </c>
       <c r="BT23">
-        <v>-2.061838103610138E-2</v>
+        <v>-2.0377150753663566E-2</v>
       </c>
       <c r="BU23">
-        <v>4.3257279576870478E-2</v>
+        <v>4.3453491959112356E-2</v>
       </c>
       <c r="BV23">
-        <v>3.4886287721956094E-2</v>
+        <v>3.5477374390855916E-2</v>
       </c>
       <c r="BW23">
-        <v>5.6992298933033869E-2</v>
+        <v>5.7687245062300663E-2</v>
       </c>
       <c r="BX23">
-        <v>0.11084310246179901</v>
+        <v>0.11171965620119365</v>
       </c>
       <c r="BY23">
-        <v>0.13047690545808449</v>
+        <v>0.13163047716646559</v>
       </c>
       <c r="BZ23">
-        <v>7.3088515041078939E-2</v>
+        <v>7.3589778274601086E-2</v>
       </c>
       <c r="CA23">
-        <v>0.1105494375381281</v>
+        <v>0.11222754986322489</v>
       </c>
       <c r="CB23">
-        <v>7.3805878317853846E-2</v>
+        <v>7.4320026325581628E-2</v>
       </c>
       <c r="CC23">
-        <v>0.10990101027292608</v>
+        <v>0.11110004900752052</v>
       </c>
       <c r="CD23">
-        <v>-5.2630237333768926E-3</v>
+        <v>-5.3580890300139461E-3</v>
       </c>
       <c r="CE23">
-        <v>1.8417315460997008E-2</v>
+        <v>2.0853349009686495E-2</v>
       </c>
       <c r="CF23">
-        <v>1.4596062818326427E-2</v>
+        <v>1.851274368754835E-2</v>
       </c>
       <c r="CG23">
-        <v>6.4341414230173616E-2</v>
+        <v>6.5840775738906399E-2</v>
       </c>
       <c r="CH23">
-        <v>1.2540092856703516E-2</v>
+        <v>1.4151014730775804E-2</v>
       </c>
       <c r="CI23">
-        <v>-1.6339586666087147E-2</v>
+        <v>-1.6049566616608224E-2</v>
       </c>
       <c r="CJ23">
-        <v>7.12846138689327E-4</v>
+        <v>2.8653222007540835E-3</v>
       </c>
       <c r="CK23">
-        <v>2.8406584691080695E-3</v>
+        <v>2.7438908081092095E-3</v>
       </c>
       <c r="CL23">
-        <v>1.2541343814740976E-3</v>
+        <v>1.2102015158208558E-3</v>
       </c>
       <c r="CM23">
-        <v>1.1159291716142817E-4</v>
+        <v>-5.3115696808997935E-5</v>
       </c>
       <c r="CN23">
-        <v>-1.9062109898445338E-3</v>
+        <v>-1.9617959988229875E-3</v>
       </c>
       <c r="CO23">
-        <v>-3.2150557262358411E-3</v>
+        <v>-3.4431926310806134E-3</v>
       </c>
       <c r="CP23">
-        <v>3.836195763188702E-4</v>
+        <v>3.1970898788589389E-4</v>
       </c>
       <c r="CQ23">
-        <v>-1.3526210562384618E-4</v>
+        <v>-2.7736257497855757E-4</v>
       </c>
       <c r="CR23">
-        <v>3.7575952750538988E-4</v>
+        <v>3.2735785512398499E-4</v>
       </c>
       <c r="CS23">
-        <v>-1.447987194022597E-3</v>
+        <v>-1.5854464791392785E-3</v>
       </c>
       <c r="CT23">
         <v>6.5667101938431584E-3</v>
@@ -8079,295 +8079,295 @@
     </row>
     <row r="24" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>4.1745386513215715E-3</v>
+        <v>5.8824042018644634E-3</v>
       </c>
       <c r="B24">
-        <v>-0.10713784199637522</v>
+        <v>-9.7368879542311659E-2</v>
       </c>
       <c r="C24">
-        <v>-0.10443346194960412</v>
+        <v>-9.3388561887907451E-2</v>
       </c>
       <c r="D24">
-        <v>1.7310786229544961E-2</v>
+        <v>2.7133413717418065E-2</v>
       </c>
       <c r="E24">
-        <v>2.338546213158238E-4</v>
+        <v>1.2400378393790379E-3</v>
       </c>
       <c r="F24">
-        <v>-2.3227648342135894E-3</v>
+        <v>-2.2726976706615998E-3</v>
       </c>
       <c r="G24">
-        <v>-0.20517746804343406</v>
+        <v>-0.19038345310437588</v>
       </c>
       <c r="H24">
-        <v>-0.14326268037729051</v>
+        <v>-0.13062885482075182</v>
       </c>
       <c r="I24">
-        <v>-0.66947571080310875</v>
+        <v>-0.64888260598837</v>
       </c>
       <c r="J24">
-        <v>-1.0207094938058088E-4</v>
+        <v>-9.7177985511856307E-5</v>
       </c>
       <c r="K24">
-        <v>-2.3658179701058664E-2</v>
+        <v>-2.3498822653509124E-2</v>
       </c>
       <c r="L24">
-        <v>-2.5162244500172574E-2</v>
+        <v>-2.5002887452623038E-2</v>
       </c>
       <c r="M24">
-        <v>-0.75313899021002284</v>
+        <v>-0.74460147034624502</v>
       </c>
       <c r="N24">
-        <v>0.48821618409014728</v>
+        <v>0.48834533008731973</v>
       </c>
       <c r="O24">
-        <v>0.57768624167981253</v>
+        <v>0.57782622635310643</v>
       </c>
       <c r="P24">
-        <v>-3.6664321015833057E-2</v>
+        <v>-3.3001674815030912E-2</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>-8.4807149274155169E-2</v>
+        <v>-8.1575730775529098E-2</v>
       </c>
       <c r="S24">
-        <v>0.47569279374824602</v>
+        <v>0.4787174588400227</v>
       </c>
       <c r="T24">
-        <v>0.40221530931541649</v>
+        <v>0.40951719532077507</v>
       </c>
       <c r="U24">
-        <v>-8.8664702302580237E-2</v>
+        <v>-8.5370473614671358E-2</v>
       </c>
       <c r="V24">
-        <v>0.41324721204225151</v>
+        <v>0.42042939231282067</v>
       </c>
       <c r="W24">
-        <v>0.31271293697420616</v>
+        <v>0.32025151346473929</v>
       </c>
       <c r="X24">
-        <v>0.45326232070966066</v>
+        <v>0.46007235937127461</v>
       </c>
       <c r="Y24">
-        <v>-0.35911578521535581</v>
+        <v>-0.34107556269616113</v>
       </c>
       <c r="Z24">
-        <v>0.41040215686558928</v>
+        <v>0.41750245904584637</v>
       </c>
       <c r="AA24">
-        <v>0.28797432974391135</v>
+        <v>0.29607404481206823</v>
       </c>
       <c r="AB24">
-        <v>-0.34891902200068287</v>
+        <v>-0.34536892663339597</v>
       </c>
       <c r="AC24">
-        <v>0.12759702960887398</v>
+        <v>0.12870579769319221</v>
       </c>
       <c r="AD24">
-        <v>0.15309021856567218</v>
+        <v>0.15416211923327175</v>
       </c>
       <c r="AE24">
-        <v>-4.1377580485773779E-2</v>
+        <v>-3.9500397431256884E-2</v>
       </c>
       <c r="AF24">
-        <v>0.41363032545610484</v>
+        <v>0.41639353590367939</v>
       </c>
       <c r="AG24">
-        <v>-1.3358075259509827E-2</v>
+        <v>-1.0101544172583132E-2</v>
       </c>
       <c r="AH24">
-        <v>1.9729007974880197E-2</v>
+        <v>2.2325741331400528E-2</v>
       </c>
       <c r="AI24">
-        <v>0.13699017524270765</v>
+        <v>0.13813660372515435</v>
       </c>
       <c r="AJ24">
-        <v>9.4453867043726714E-3</v>
+        <v>1.111956362048433E-2</v>
       </c>
       <c r="AK24">
-        <v>-0.1710146556719</v>
+        <v>-0.16239785912412075</v>
       </c>
       <c r="AL24">
-        <v>0.19956575850439265</v>
+        <v>0.20279679060468084</v>
       </c>
       <c r="AM24">
-        <v>-5.3442380554685337E-2</v>
+        <v>-4.9391724254028185E-2</v>
       </c>
       <c r="AN24">
-        <v>-0.13259153606986196</v>
+        <v>-0.124643775583545</v>
       </c>
       <c r="AO24">
-        <v>0.29381609752819932</v>
+        <v>0.29759345706569584</v>
       </c>
       <c r="AP24">
-        <v>0.39903818105790195</v>
+        <v>0.40651315089792422</v>
       </c>
       <c r="AQ24">
-        <v>8.610291526581515E-2</v>
+        <v>9.2274347057384021E-2</v>
       </c>
       <c r="AR24">
-        <v>0.17186668132697577</v>
+        <v>0.17503660681048958</v>
       </c>
       <c r="AS24">
-        <v>0.27060474913701138</v>
+        <v>0.27421514444412387</v>
       </c>
       <c r="AT24">
-        <v>0.20224631207865543</v>
+        <v>0.20343820279535887</v>
       </c>
       <c r="AU24">
-        <v>-1.4021611301049786E-2</v>
+        <v>-1.1623577344026248E-2</v>
       </c>
       <c r="AV24">
-        <v>0.21485066235298339</v>
+        <v>0.21801096531542208</v>
       </c>
       <c r="AW24">
-        <v>5.6508664357678762E-2</v>
+        <v>5.8954139500621783E-2</v>
       </c>
       <c r="AX24">
-        <v>2.1973579678905286E-3</v>
+        <v>3.1439415807122256E-3</v>
       </c>
       <c r="AY24">
-        <v>-7.1810879537671485E-2</v>
+        <v>-7.0592689736313052E-2</v>
       </c>
       <c r="AZ24">
-        <v>-5.383192403995829E-2</v>
+        <v>-5.1503890938511432E-2</v>
       </c>
       <c r="BA24">
-        <v>4.4414031958016756E-2</v>
+        <v>4.4734060974000553E-2</v>
       </c>
       <c r="BB24">
-        <v>0.13033016863754837</v>
+        <v>0.13177768315819799</v>
       </c>
       <c r="BC24">
-        <v>9.3623582222969182E-2</v>
+        <v>0.10344978346605738</v>
       </c>
       <c r="BD24">
-        <v>-0.12621249938188572</v>
+        <v>-0.12115462078350164</v>
       </c>
       <c r="BE24">
-        <v>0.12288383340744133</v>
+        <v>0.12589701240672083</v>
       </c>
       <c r="BF24">
-        <v>9.1352320758892658E-2</v>
+        <v>9.8913631738345831E-2</v>
       </c>
       <c r="BG24">
-        <v>1.8566088234202249E-2</v>
+        <v>2.5694186875416469E-2</v>
       </c>
       <c r="BH24">
-        <v>0.50923164718507175</v>
+        <v>0.51440365842357749</v>
       </c>
       <c r="BI24">
-        <v>-0.1215710428360407</v>
+        <v>-0.11021621247081559</v>
       </c>
       <c r="BJ24">
-        <v>-7.4583336749612816E-2</v>
+        <v>-6.8345179696192471E-2</v>
       </c>
       <c r="BK24">
-        <v>-6.9656029669643404E-2</v>
+        <v>-6.1034320189025937E-2</v>
       </c>
       <c r="BL24">
-        <v>-1.1672618890884789E-2</v>
+        <v>-1.1557012840000991E-2</v>
       </c>
       <c r="BM24">
-        <v>-8.3575092716806743E-2</v>
+        <v>-8.3005352076680791E-2</v>
       </c>
       <c r="BN24">
-        <v>-4.0967988760861551E-2</v>
+        <v>-4.0591787660575904E-2</v>
       </c>
       <c r="BO24">
-        <v>-3.7343874546820387E-2</v>
+        <v>-3.6897170766601768E-2</v>
       </c>
       <c r="BP24">
-        <v>-3.5428358697357332E-2</v>
+        <v>-3.4883438556707891E-2</v>
       </c>
       <c r="BQ24">
-        <v>-4.3851414439861E-3</v>
+        <v>-4.0983660433779601E-3</v>
       </c>
       <c r="BR24">
-        <v>-3.0355055061926435E-2</v>
+        <v>-2.9871589467337388E-2</v>
       </c>
       <c r="BS24">
-        <v>1.5193240977594502E-2</v>
+        <v>1.5604485668249443E-2</v>
       </c>
       <c r="BT24">
-        <v>-2.2330663174035637E-2</v>
+        <v>-2.2028511726789289E-2</v>
       </c>
       <c r="BU24">
-        <v>4.7243776879413495E-2</v>
+        <v>4.7505406592359509E-2</v>
       </c>
       <c r="BV24">
-        <v>2.608640176509288E-2</v>
+        <v>2.6874557093001711E-2</v>
       </c>
       <c r="BW24">
-        <v>4.2231093819874554E-2</v>
+        <v>4.3157735414477552E-2</v>
       </c>
       <c r="BX24">
-        <v>0.12834154835960168</v>
+        <v>0.12951034564920005</v>
       </c>
       <c r="BY24">
-        <v>0.13312968709538675</v>
+        <v>0.13466786030613997</v>
       </c>
       <c r="BZ24">
-        <v>6.8271773792466905E-2</v>
+        <v>6.8940158497416887E-2</v>
       </c>
       <c r="CA24">
-        <v>0.11344117346244872</v>
+        <v>0.11567876942737954</v>
       </c>
       <c r="CB24">
-        <v>7.4784498418941969E-2</v>
+        <v>7.5470063689618921E-2</v>
       </c>
       <c r="CC24">
-        <v>0.12413310024917026</v>
+        <v>0.12573189921881747</v>
       </c>
       <c r="CD24">
-        <v>-1.589645535367612E-3</v>
+        <v>-1.6815381958559389E-3</v>
       </c>
       <c r="CE24">
-        <v>1.7005017909347442E-2</v>
+        <v>1.9577357500082965E-2</v>
       </c>
       <c r="CF24">
-        <v>-3.097237524816332E-3</v>
+        <v>9.5402318798853969E-4</v>
       </c>
       <c r="CG24">
-        <v>3.12765253931305E-2</v>
+        <v>3.2598126303689523E-2</v>
       </c>
       <c r="CH24">
-        <v>1.9684828865159126E-2</v>
+        <v>2.1286379067919553E-2</v>
       </c>
       <c r="CI24">
-        <v>-1.0481214426769081E-2</v>
+        <v>-1.1127864168776258E-2</v>
       </c>
       <c r="CJ24">
-        <v>-5.9547102342342728E-3</v>
+        <v>-3.7071724814699003E-3</v>
       </c>
       <c r="CK24">
-        <v>4.5756863060892831E-3</v>
+        <v>4.491766948375827E-3</v>
       </c>
       <c r="CL24">
-        <v>1.6165146017780253E-3</v>
+        <v>1.5633930471764612E-3</v>
       </c>
       <c r="CM24">
-        <v>1.3218350603268758E-3</v>
+        <v>1.1481505240902301E-3</v>
       </c>
       <c r="CN24">
-        <v>-1.8117831060805766E-3</v>
+        <v>-1.8869427367538688E-3</v>
       </c>
       <c r="CO24">
-        <v>-2.649971646010771E-3</v>
+        <v>-2.9272056840911704E-3</v>
       </c>
       <c r="CP24">
-        <v>-4.0537748306723742E-4</v>
+        <v>-5.0188536190731887E-4</v>
       </c>
       <c r="CQ24">
-        <v>-5.844516191268077E-4</v>
+        <v>-7.8524822944376488E-4</v>
       </c>
       <c r="CR24">
-        <v>3.7473915458273877E-4</v>
+        <v>3.1126801241998774E-4</v>
       </c>
       <c r="CS24">
-        <v>-6.6655853936424536E-4</v>
+        <v>-8.2580889602172809E-4</v>
       </c>
       <c r="CT24">
         <v>7.1074699480407292E-3</v>
@@ -8399,298 +8399,298 @@
     </row>
     <row r="25" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-1.0792931892227894E-2</v>
+        <v>-7.5195933044443358E-3</v>
       </c>
       <c r="B25">
-        <v>-0.16314641090619619</v>
+        <v>-0.14442296879839656</v>
       </c>
       <c r="C25">
-        <v>-0.15585763530367203</v>
+        <v>-0.1346886986981688</v>
       </c>
       <c r="D25">
-        <v>-1.5622798848158981E-2</v>
+        <v>3.2034990294800281E-3</v>
       </c>
       <c r="E25">
-        <v>8.3363360600247072E-5</v>
+        <v>2.0118397286724293E-3</v>
       </c>
       <c r="F25">
-        <v>-2.6465248797575155E-3</v>
+        <v>-2.5505648796371838E-3</v>
       </c>
       <c r="G25">
-        <v>-0.29462159342727834</v>
+        <v>-0.26626700781433443</v>
       </c>
       <c r="H25">
-        <v>-0.22366380749158499</v>
+        <v>-0.1994494958366666</v>
       </c>
       <c r="I25">
-        <v>-0.76451011991707662</v>
+        <v>-0.7250408510329257</v>
       </c>
       <c r="J25">
-        <v>5.8814565193415877E-4</v>
+        <v>5.9714360635269349E-4</v>
       </c>
       <c r="K25">
-        <v>-2.1956844736726783E-2</v>
+        <v>-2.1663793839848417E-2</v>
       </c>
       <c r="L25">
-        <v>-2.5967256739873702E-2</v>
+        <v>-2.5674205842995335E-2</v>
       </c>
       <c r="M25">
-        <v>-0.85642656111612647</v>
+        <v>-0.84072642176446599</v>
       </c>
       <c r="N25">
-        <v>0.4902007234918605</v>
+        <v>0.49043821753985906</v>
       </c>
       <c r="O25">
-        <v>0.51341249585396054</v>
+        <v>0.51366992177072313</v>
       </c>
       <c r="P25">
-        <v>-6.1705832085286239E-2</v>
+        <v>-5.4970380025912813E-2</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>-7.3182611867538272E-2</v>
+        <v>-6.724016938524191E-2</v>
       </c>
       <c r="S25">
-        <v>0.49624104051015505</v>
+        <v>0.50243182483464122</v>
       </c>
       <c r="T25">
-        <v>0.35602296647577447</v>
+        <v>0.3709682248926679</v>
       </c>
       <c r="U25">
-        <v>-0.23144945277161386</v>
+        <v>-0.22470693460726401</v>
       </c>
       <c r="V25">
-        <v>0.37990098416183016</v>
+        <v>0.39460123284574533</v>
       </c>
       <c r="W25">
-        <v>0.29596007016164261</v>
+        <v>0.31138977882374097</v>
       </c>
       <c r="X25">
-        <v>0.41786077185149983</v>
+        <v>0.43179933341657573</v>
       </c>
       <c r="Y25">
-        <v>-0.48921360023420291</v>
+        <v>-0.45228947032451017</v>
       </c>
       <c r="Z25">
-        <v>0.37815990707033997</v>
+        <v>0.39269257039103556</v>
       </c>
       <c r="AA25">
-        <v>0.30766680008880609</v>
+        <v>0.3242450286051064</v>
       </c>
       <c r="AB25">
-        <v>-0.39207945758668772</v>
+        <v>-0.385444059682999</v>
       </c>
       <c r="AC25">
-        <v>0.19706836673134084</v>
+        <v>0.19914073850201375</v>
       </c>
       <c r="AD25">
-        <v>0.16107288289960842</v>
+        <v>0.16307634666801654</v>
       </c>
       <c r="AE25">
-        <v>-0.14396809996578505</v>
+        <v>-0.14045950224766232</v>
       </c>
       <c r="AF25">
-        <v>0.26967476032218574</v>
+        <v>0.27483941053982186</v>
       </c>
       <c r="AG25">
-        <v>7.2062851944472484E-2</v>
+        <v>7.8149555909274637E-2</v>
       </c>
       <c r="AH25">
-        <v>-4.0161291576127134E-2</v>
+        <v>-3.5307799687129882E-2</v>
       </c>
       <c r="AI25">
-        <v>0.16179316643069669</v>
+        <v>0.16393592834612356</v>
       </c>
       <c r="AJ25">
-        <v>-7.2816520610461399E-3</v>
+        <v>-4.1524882357765192E-3</v>
       </c>
       <c r="AK25">
-        <v>-0.16561254526489333</v>
+        <v>-0.15041213110199536</v>
       </c>
       <c r="AL25">
-        <v>0.217871485058825</v>
+        <v>0.22357117006655058</v>
       </c>
       <c r="AM25">
-        <v>-5.2992515684818692E-2</v>
+        <v>-4.5846976961682717E-2</v>
       </c>
       <c r="AN25">
-        <v>3.8765939256044546E-2</v>
+        <v>5.2786143909787753E-2</v>
       </c>
       <c r="AO25">
-        <v>0.28261864687809835</v>
+        <v>0.28928207789840232</v>
       </c>
       <c r="AP25">
-        <v>-2.4003187027978046E-2</v>
+        <v>-1.0817006201555568E-2</v>
       </c>
       <c r="AQ25">
-        <v>0.10289886393132636</v>
+        <v>0.11378554539000596</v>
       </c>
       <c r="AR25">
-        <v>0.21181391221722201</v>
+        <v>0.21740580242232993</v>
       </c>
       <c r="AS25">
-        <v>0.28428039034319752</v>
+        <v>0.29064928900009318</v>
       </c>
       <c r="AT25">
-        <v>0.32279086454718309</v>
+        <v>0.32451240599416309</v>
       </c>
       <c r="AU25">
-        <v>0.15010014841567326</v>
+        <v>0.15356381734976765</v>
       </c>
       <c r="AV25">
-        <v>0.55018952965374046</v>
+        <v>0.55475420362812899</v>
       </c>
       <c r="AW25">
-        <v>0.26178451323715479</v>
+        <v>0.26531670520503892</v>
       </c>
       <c r="AX25">
-        <v>2.8325542138926074E-2</v>
+        <v>2.9692767254171262E-2</v>
       </c>
       <c r="AY25">
-        <v>-2.6152928119746233E-2</v>
+        <v>-2.4393400837641771E-2</v>
       </c>
       <c r="AZ25">
-        <v>3.0475773644229043E-3</v>
+        <v>6.4101385606094019E-3</v>
       </c>
       <c r="BA25">
-        <v>3.7457182249124622E-2</v>
+        <v>3.7919425311790732E-2</v>
       </c>
       <c r="BB25">
-        <v>0.17628708466168169</v>
+        <v>0.17837784366121134</v>
       </c>
       <c r="BC25">
-        <v>8.7327257959841198E-2</v>
+        <v>0.10464120625304463</v>
       </c>
       <c r="BD25">
-        <v>-0.12303586665064198</v>
+        <v>-0.11412379103166143</v>
       </c>
       <c r="BE25">
-        <v>0.1275008293605942</v>
+        <v>0.13281010647603994</v>
       </c>
       <c r="BF25">
-        <v>0.14858224800002079</v>
+        <v>0.16190541776709344</v>
       </c>
       <c r="BG25">
-        <v>9.3837880940745355E-2</v>
+        <v>0.10639772255702096</v>
       </c>
       <c r="BH25">
-        <v>0.46109030612160024</v>
+        <v>0.47020348556297853</v>
       </c>
       <c r="BI25">
-        <v>-0.12478923246557727</v>
+        <v>-0.1047818113922615</v>
       </c>
       <c r="BJ25">
-        <v>-7.5360413255073144E-2</v>
+        <v>-6.4368665172997608E-2</v>
       </c>
       <c r="BK25">
-        <v>-1.5601403451088847E-2</v>
+        <v>-4.0979191642442903E-4</v>
       </c>
       <c r="BL25">
-        <v>-8.4173805902973235E-3</v>
+        <v>-8.2131227221149197E-3</v>
       </c>
       <c r="BM25">
-        <v>-7.7667503307373015E-2</v>
+        <v>-7.6660860422512384E-2</v>
       </c>
       <c r="BN25">
-        <v>-2.4630741523986865E-2</v>
+        <v>-2.396605283196105E-2</v>
       </c>
       <c r="BO25">
-        <v>-1.5082039193390767E-2</v>
+        <v>-1.4292783257746092E-2</v>
       </c>
       <c r="BP25">
-        <v>-1.969851516616615E-2</v>
+        <v>-1.8735726234204539E-2</v>
       </c>
       <c r="BQ25">
-        <v>1.9754412408726024E-2</v>
+        <v>2.0261099831465283E-2</v>
       </c>
       <c r="BR25">
-        <v>-1.0362259934767679E-2</v>
+        <v>-9.5080516045344954E-3</v>
       </c>
       <c r="BS25">
-        <v>1.8660863543462566E-2</v>
+        <v>1.9387468796149096E-2</v>
       </c>
       <c r="BT25">
-        <v>-1.1273253325045897E-2</v>
+        <v>-1.0739398825121836E-2</v>
       </c>
       <c r="BU25">
-        <v>4.6797399004595883E-2</v>
+        <v>4.7285691319883694E-2</v>
       </c>
       <c r="BV25">
-        <v>2.860571616914144E-2</v>
+        <v>3.0076688947144506E-2</v>
       </c>
       <c r="BW25">
-        <v>5.2455809648518828E-2</v>
+        <v>5.4185246104046486E-2</v>
       </c>
       <c r="BX25">
-        <v>0.12909075468329106</v>
+        <v>0.13127213812577282</v>
       </c>
       <c r="BY25">
-        <v>0.14099584216720132</v>
+        <v>0.14386660990230207</v>
       </c>
       <c r="BZ25">
-        <v>8.8772906538952451E-2</v>
+        <v>9.0020345557439596E-2</v>
       </c>
       <c r="CA25">
-        <v>0.12023514071544411</v>
+        <v>0.12441127521190293</v>
       </c>
       <c r="CB25">
-        <v>9.1683586241765147E-2</v>
+        <v>9.2963090188703607E-2</v>
       </c>
       <c r="CC25">
-        <v>0.12743760058676773</v>
+        <v>0.1304215171308257</v>
       </c>
       <c r="CD25">
-        <v>1.0127389585698338E-3</v>
+        <v>1.2724122002507748E-3</v>
       </c>
       <c r="CE25">
-        <v>2.9185886291147878E-2</v>
+        <v>3.464142141195875E-2</v>
       </c>
       <c r="CF25">
-        <v>-5.6478594710262509E-3</v>
+        <v>3.4527625224005654E-3</v>
       </c>
       <c r="CG25">
-        <v>7.6749645067996392E-2</v>
+        <v>7.8720977356076333E-2</v>
       </c>
       <c r="CH25">
-        <v>4.260652710858126E-3</v>
+        <v>7.6992580138887656E-3</v>
       </c>
       <c r="CI25">
-        <v>-2.8366651147553157E-2</v>
+        <v>-2.8648225787424486E-2</v>
       </c>
       <c r="CJ25">
-        <v>-1.0262135762796498E-2</v>
+        <v>-5.4125135072870534E-3</v>
       </c>
       <c r="CK25">
-        <v>4.7034367250452392E-3</v>
+        <v>4.5736694675271149E-3</v>
       </c>
       <c r="CL25">
-        <v>1.7514152190538429E-3</v>
+        <v>1.6620830005398251E-3</v>
       </c>
       <c r="CM25">
-        <v>2.3389701565439684E-3</v>
+        <v>2.1121992307300023E-3</v>
       </c>
       <c r="CN25">
-        <v>-6.7916688515384446E-4</v>
+        <v>-8.0181888101925336E-4</v>
       </c>
       <c r="CO25">
-        <v>-2.8783286795662734E-3</v>
+        <v>-3.3868015835355507E-3</v>
       </c>
       <c r="CP25">
-        <v>-3.8254698868844363E-3</v>
+        <v>-4.0943286276652604E-3</v>
       </c>
       <c r="CQ25">
-        <v>-7.9698151297802767E-4</v>
+        <v>-1.1657882601039324E-3</v>
       </c>
       <c r="CR25">
-        <v>1.6540769361946591E-4</v>
+        <v>4.94969370122781E-5</v>
       </c>
       <c r="CS25">
-        <v>-2.0946204719596122E-4</v>
+        <v>-4.7040780997073539E-4</v>
       </c>
       <c r="CT25">
-        <v>6.8668553798879846E-3</v>
+        <v>6.8668553798879838E-3</v>
       </c>
       <c r="CU25">
         <v>5.4828152222045805E-3</v>
